--- a/overtime/schedule_matrix_overtime_units.xlsx
+++ b/overtime/schedule_matrix_overtime_units.xlsx
@@ -676,13 +676,17 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>AA(3,10H) | AC(2,4H) | AU(3,8H) | BA(3,4H) | BQ(3,12H) | BU(3,12H)</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr"/>
+          <t>AF(4,12H) | AU(3,10H) | BU(3,8H) | CG(4,12H)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>CC(2,4H) | CI(3,4H)</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>AM(3,4H) | CC(2,10H)</t>
+          <t>BA(3,4H) | CU(2,10H)</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr"/>
@@ -731,17 +735,17 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>AG(3,10H) | AJ(2,12H) | CN(4,12H)</t>
+          <t>AG(3,8H) | AJ(2,12H) | CR(2,8H)</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>AX(2,4H) | BJ(3,12H)</t>
+          <t>CH(3,12H) | CV(2,4H)</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>AX(2,10H) | CD(2,4H)</t>
+          <t>BF(3,4H) | BZ(4,8H) | CV(2,8H)</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr"/>
@@ -790,19 +794,15 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>AK(3,10H) | AO(4,4H) | BW(4,12H) | CA(3,8H)</t>
+          <t>AI(3,4H) | AK(3,8H) | BG(3,12H) | BW(4,4H) | CA(3,10H) | CM(3,10H)</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>AB(4,8H) | CE(3,10H)</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>BS(4,8H) | CO(2,4H)</t>
-        </is>
-      </c>
+          <t>CO(2,8H) | DA(3,8H)</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="3" t="inlineStr"/>
@@ -847,15 +847,15 @@
           <t>P1-D</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>AK(2,8H) | AP(3,8H) | BH(4,12H) | BT(4,12H) | CP(2,10H)</t>
-        </is>
-      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>AH(3,12H) | AP(3,4H) | BD(2,4H) | CB(3,8H) | CP(2,8H) | CT(3,12H)</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>AK(2,10H) | BL(3,4H)</t>
+          <t>CL(3,12H) | CP(2,4H)</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr"/>
@@ -905,22 +905,22 @@
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>AL(3,12H) | BU(4,4H)</t>
-        </is>
-      </c>
+      <c r="G6" s="3" t="inlineStr"/>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>AQ(4,4H) | CI(2,4H)</t>
+          <t>AA(4,4H) | AC(3,4H) | AM(4,4H)</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>AL(3,4H) | CC(3,4H)</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr"/>
+          <t>AM(4,4H) | DA(3,4H)</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>AC(3,4H) | AM(4,4H) | DA(3,4H)</t>
+        </is>
+      </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
@@ -966,17 +966,17 @@
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>AD(4,12H) | BF(4,8H) | BJ(3,10H) | CN(2,8H)</t>
+          <t>AQ(2,4H) | AX(3,12H) | BN(3,8H) | BR(4,12H)</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>AD(4,4H) | CR(3,10H)</t>
+          <t>AX(3,4H) | BB(2,8H)</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>AQ(2,4H) | CH(2,8H)</t>
+          <t>CH(2,8H) | CV(3,8H)</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr"/>
@@ -1025,20 +1025,20 @@
       <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>AA(2,8H) | BG(2,10H) | BK(3,12H) | CY(2,8H)</t>
+          <t>AV(4,12H) | BO(3,12H) | CE(2,12H)</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>AO(3,8H) | CY(2,4H)</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>AC(4,4H) | BK(3,10H)</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr"/>
+          <t>AL(4,4H) | CE(2,4H) | CK(3,8H)</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>CE(2,8H) | CY(2,4H)</t>
+        </is>
+      </c>
       <c r="K8" s="3" t="inlineStr"/>
       <c r="L8" s="3" t="inlineStr"/>
       <c r="M8" s="4" t="inlineStr"/>
@@ -1084,20 +1084,20 @@
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>AH(3,10H) | AK(3,10H) | BH(3,10H) | BP(3,8H)</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>AK(3,4H) | AR(3,8H)</t>
-        </is>
-      </c>
+          <t>AR(3,12H) | AW(4,4H) | CZ(2,10H)</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr"/>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>CF(2,4H) | CX(3,10H)</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr"/>
+          <t>BL(4,8H) | CP(4,12H)</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>AB(3,10H) | AH(3,8H)</t>
+        </is>
+      </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr"/>
       <c r="M9" s="4" t="inlineStr"/>
@@ -1147,18 +1147,18 @@
       <c r="J10" s="3" t="inlineStr"/>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>AS(3,12H) | BM(3,4H) | BY(4,10H) | CC(4,12H)</t>
+          <t>AQ(3,8H) | BM(3,4H) | CU(3,10H)</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>AA(3,10H) | BI(3,8H)</t>
+          <t>AF(3,4H) | BI(3,8H) | CO(3,10H)</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
       <c r="N10" s="3" t="inlineStr">
         <is>
-          <t>AC(3,4H) | BE(2,4H)</t>
+          <t>AM(2,8H) | CU(3,12H)</t>
         </is>
       </c>
       <c r="O10" s="3" t="inlineStr"/>
@@ -1203,23 +1203,23 @@
       <c r="G11" s="3" t="inlineStr"/>
       <c r="H11" s="3" t="inlineStr"/>
       <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>AB(2,12H) | AN(2,12H) | BB(3,8H) | CJ(2,4H)</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>AD(3,8H) | AJ(3,10H) | BX(2,10H) | CR(3,12H)</t>
+        </is>
+      </c>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>AQ(3,4H) | CP(3,4H)</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>AJ(3,12H) | BF(2,8H)</t>
-        </is>
-      </c>
+          <t>AP(2,8H) | BX(2,4H)</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>BB(3,8H) | BN(4,4H)</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr"/>
       <c r="O11" s="3" t="inlineStr"/>
       <c r="P11" s="3" t="inlineStr"/>
       <c r="Q11" s="3" t="inlineStr"/>
@@ -1262,19 +1262,23 @@
       <c r="G12" s="3" t="inlineStr"/>
       <c r="H12" s="3" t="inlineStr"/>
       <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>BC(3,10H) | BK(4,8H) | BS(3,10H) | BU(2,4H) | CK(2,12H) | CM(2,12H)</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>AE(2,10H) | AF(2,8H) | AO(2,10H)</t>
+        </is>
+      </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>BC(3,4H) | BS(3,4H)</t>
+          <t>AO(2,4H) | CA(2,8H) | CW(2,12H)</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>AF(2,8H) | AO(2,4H)</t>
+        </is>
+      </c>
       <c r="O12" s="3" t="inlineStr"/>
       <c r="P12" s="3" t="inlineStr"/>
       <c r="Q12" s="3" t="inlineStr"/>
@@ -1317,25 +1321,25 @@
       <c r="G13" s="3" t="inlineStr"/>
       <c r="H13" s="3" t="inlineStr"/>
       <c r="I13" s="3" t="inlineStr"/>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>BT(3,10H) | CF(3,12H)</t>
-        </is>
-      </c>
+      <c r="J13" s="3" t="inlineStr"/>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>AP(2,4H) | CD(2,4H)</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr"/>
+          <t>AH(2,8H) | AT(2,10H)</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>CB(4,4H) | CD(2,8H)</t>
+        </is>
+      </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t>AT(2,10H) | BP(3,12H)</t>
+          <t>AK(3,4H) | BD(4,10H)</t>
         </is>
       </c>
       <c r="N13" s="3" t="inlineStr">
         <is>
-          <t>BV(2,4H) | CL(4,8H)</t>
+          <t>AK(3,12H) | BD(4,8H)</t>
         </is>
       </c>
       <c r="O13" s="3" t="inlineStr"/>
@@ -1385,31 +1389,27 @@
       <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr"/>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>BE(3,8H) | CM(3,4H)</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>AU(2,4H) | BM(4,10H)</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>BE(3,12H) | BY(2,10H)</t>
-        </is>
-      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>AC(2,10H) | BM(4,4H) | BQ(4,10H) | CQ(2,10H)</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr"/>
+      <c r="R14" s="3" t="inlineStr"/>
       <c r="S14" s="3" t="inlineStr">
         <is>
-          <t>BY(2,8H) | CQ(2,8H)</t>
+          <t>AU(2,12H) | BE(3,4H)</t>
         </is>
       </c>
       <c r="T14" s="3" t="inlineStr"/>
       <c r="U14" s="3" t="inlineStr"/>
       <c r="V14" s="3" t="inlineStr"/>
-      <c r="W14" s="4" t="inlineStr"/>
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>AF(2,4H) | CQ(2,10H)</t>
+        </is>
+      </c>
       <c r="X14" s="3" t="inlineStr"/>
       <c r="Y14" s="3" t="inlineStr"/>
       <c r="Z14" s="3" t="inlineStr"/>
@@ -1450,28 +1450,24 @@
       <c r="N15" s="3" t="inlineStr"/>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>AJ(4,8H) | AT(3,10H)</t>
+          <t>BR(3,4H) | CJ(3,4H) | CV(3,8H)</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr"/>
       <c r="Q15" s="3" t="inlineStr">
         <is>
-          <t>CH(3,12H) | CR(4,12H)</t>
+          <t>AN(3,8H) | CD(3,10H) | CR(4,12H)</t>
         </is>
       </c>
       <c r="R15" s="3" t="inlineStr"/>
-      <c r="S15" s="3" t="inlineStr">
-        <is>
-          <t>CR(4,10H) | DB(3,4H)</t>
-        </is>
-      </c>
+      <c r="S15" s="3" t="inlineStr"/>
       <c r="T15" s="3" t="inlineStr"/>
-      <c r="U15" s="3" t="inlineStr"/>
-      <c r="V15" s="3" t="inlineStr">
-        <is>
-          <t>AJ(4,4H) | CR(4,4H)</t>
-        </is>
-      </c>
+      <c r="U15" s="3" t="inlineStr">
+        <is>
+          <t>BN(3,8H) | CD(3,10H)</t>
+        </is>
+      </c>
+      <c r="V15" s="3" t="inlineStr"/>
       <c r="W15" s="4" t="inlineStr"/>
       <c r="X15" s="3" t="inlineStr"/>
       <c r="Y15" s="3" t="inlineStr"/>
@@ -1513,21 +1509,17 @@
       <c r="N16" s="3" t="inlineStr"/>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>AO(3,10H) | AS(3,8H) | CE(4,12H) | CK(3,8H)</t>
+          <t>AL(3,4H) | BK(2,8H) | BO(4,4H) | BS(3,12H) | CW(4,12H)</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>BU(3,4H) | CA(3,4H)</t>
+          <t>BC(4,4H) | BK(2,12H) | BS(3,8H)</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr"/>
       <c r="R16" s="3" t="inlineStr"/>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>AZ(3,8H) | CO(3,10H)</t>
-        </is>
-      </c>
+      <c r="S16" s="3" t="inlineStr"/>
       <c r="T16" s="3" t="inlineStr"/>
       <c r="U16" s="3" t="inlineStr"/>
       <c r="V16" s="3" t="inlineStr"/>
@@ -1570,29 +1562,25 @@
       <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>AY(2,12H) | CP(3,10H)</t>
-        </is>
-      </c>
-      <c r="P17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr"/>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>BV(4,4H) | CB(2,12H) | CP(3,12H)</t>
+        </is>
+      </c>
       <c r="Q17" s="3" t="inlineStr">
         <is>
-          <t>AP(4,8H) | BV(4,10H)</t>
+          <t>AK(2,12H) | AY(2,4H) | CB(2,8H)</t>
         </is>
       </c>
       <c r="R17" s="3" t="inlineStr"/>
-      <c r="S17" s="3" t="inlineStr"/>
-      <c r="T17" s="3" t="inlineStr">
-        <is>
-          <t>BD(3,4H) | CB(2,4H)</t>
-        </is>
-      </c>
-      <c r="U17" s="3" t="inlineStr">
-        <is>
-          <t>CX(4,8H) | CZ(3,8H)</t>
-        </is>
-      </c>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>BD(3,8H) | BL(3,4H)</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="inlineStr"/>
+      <c r="U17" s="3" t="inlineStr"/>
       <c r="V17" s="3" t="inlineStr"/>
       <c r="W17" s="4" t="inlineStr"/>
       <c r="X17" s="3" t="inlineStr"/>
@@ -1627,16 +1615,20 @@
       <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>AF(4,10H) | AI(2,12H) | BE(4,10H) | BM(2,10H) | BY(3,10H) | CQ(3,4H)</t>
+          <t>BA(3,4H) | BM(2,10H) | BY(3,12H) | CG(4,10H)</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>AC(2,4H) | AI(2,4H)</t>
+          <t>BQ(3,4H) | CC(2,12H)</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>CQ(3,4H) | CU(2,8H)</t>
+        </is>
+      </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="4" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1682,16 +1674,24 @@
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>AG(3,12H) | AN(3,4H) | AU(2,12H) | BN(2,4H) | BV(3,8H) | CJ(3,12H)</t>
+          <t>AA(2,4H) | BV(3,12H)</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>AN(3,4H) | BJ(3,8H)</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr"/>
-      <c r="J19" s="3" t="inlineStr"/>
+          <t>BN(2,12H) | CH(3,4H)</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>AG(3,12H) | CN(4,12H)</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>AX(2,4H) | CN(4,4H)</t>
+        </is>
+      </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="4" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
@@ -1737,15 +1737,19 @@
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>AO(4,12H) | AV(2,8H) | AZ(3,8H) | BC(3,4H) | BS(4,12H) | CW(3,12H)</t>
+          <t>AO(4,8H) | AZ(3,12H) | BC(3,8H) | DA(3,8H)</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>AB(4,4H) | BK(2,4H)</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr"/>
+          <t>AO(4,4H) | DA(3,12H)</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>BG(3,8H) | BO(3,4H)</t>
+        </is>
+      </c>
       <c r="J20" s="3" t="inlineStr"/>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="4" t="inlineStr"/>
@@ -1792,16 +1796,20 @@
       <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>BD(2,12H) | CL(3,8H) | CP(2,12H) | CX(2,4H) | DB(4,12H)</t>
+          <t>CL(3,4H) | CP(2,12H) | CX(2,4H)</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>BT(4,4H) | BX(3,12H)</t>
+          <t>AB(2,8H) | CT(3,10H) | DB(4,8H)</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>BL(3,8H) | CL(3,10H)</t>
+        </is>
+      </c>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="4" t="inlineStr"/>
       <c r="M21" s="3" t="inlineStr"/>
@@ -1847,24 +1855,28 @@
       <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="3" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>AU(4,8H) | CG(2,4H) | CQ(3,4H)</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>AA(4,4H) | AL(3,4H)</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
+      <c r="I22" s="3" t="inlineStr"/>
+      <c r="J22" s="3" t="inlineStr"/>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>BQ(2,4H) | CM(4,4H)</t>
+        </is>
+      </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>AM(4,4H) | BY(3,4H)</t>
-        </is>
-      </c>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr"/>
+          <t>BE(3,4H) | CG(2,4H)</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>AQ(4,4H) | BQ(2,4H)</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>BM(3,4H) | BQ(2,4H)</t>
+        </is>
+      </c>
       <c r="O22" s="3" t="inlineStr"/>
       <c r="P22" s="3" t="inlineStr"/>
       <c r="Q22" s="4" t="inlineStr"/>
@@ -1906,23 +1918,19 @@
       <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>AJ(3,12H) | AN(4,10H) | AX(3,10H) | BF(4,4H)</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>AJ(3,4H) | BV(3,12H)</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr">
-        <is>
-          <t>AB(3,4H) | CD(3,8H)</t>
-        </is>
-      </c>
-      <c r="M23" s="3" t="inlineStr"/>
+      <c r="I23" s="3" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr"/>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>AN(4,12H) | BN(3,12H) | CD(3,10H) | DB(3,10H)</t>
+        </is>
+      </c>
+      <c r="L23" s="3" t="inlineStr"/>
+      <c r="M23" s="3" t="inlineStr">
+        <is>
+          <t>BF(4,4H) | BJ(3,12H) | BR(4,4H)</t>
+        </is>
+      </c>
       <c r="N23" s="3" t="inlineStr"/>
       <c r="O23" s="3" t="inlineStr"/>
       <c r="P23" s="3" t="inlineStr"/>
@@ -1965,23 +1973,23 @@
       <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>BG(2,10H) | CA(4,10H) | CE(2,8H) | CW(3,8H)</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>BO(3,12H) | DA(2,4H)</t>
-        </is>
-      </c>
+      <c r="I24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr"/>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>BC(2,8H) | CE(2,4H)</t>
-        </is>
-      </c>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
+          <t>AV(4,12H) | BK(3,4H) | CA(4,8H)</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>BC(2,12H) | BS(2,12H)</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>BE(2,8H) | CA(4,4H) | CS(3,4H)</t>
+        </is>
+      </c>
       <c r="N24" s="3" t="inlineStr"/>
       <c r="O24" s="3" t="inlineStr"/>
       <c r="P24" s="3" t="inlineStr"/>
@@ -2024,24 +2032,24 @@
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="3" t="inlineStr"/>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>AR(3,4H) | AY(3,10H) | CT(4,12H) | CZ(2,12H)</t>
-        </is>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>AR(3,10H) | AW(4,4H)</t>
-        </is>
-      </c>
+      <c r="I25" s="3" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr"/>
       <c r="K25" s="3" t="inlineStr">
         <is>
-          <t>BT(2,4H) | BX(4,8H)</t>
-        </is>
-      </c>
-      <c r="L25" s="3" t="inlineStr"/>
+          <t>AB(3,12H) | BP(3,8H) | BT(2,12H) | CT(4,12H)</t>
+        </is>
+      </c>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>AW(4,8H) | DB(2,4H)</t>
+        </is>
+      </c>
       <c r="M25" s="3" t="inlineStr"/>
-      <c r="N25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr">
+        <is>
+          <t>BL(4,4H) | CX(3,4H)</t>
+        </is>
+      </c>
       <c r="O25" s="3" t="inlineStr"/>
       <c r="P25" s="3" t="inlineStr"/>
       <c r="Q25" s="4" t="inlineStr"/>
@@ -2087,29 +2095,29 @@
       <c r="J26" s="3" t="inlineStr"/>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr">
-        <is>
-          <t>BM(3,12H) | CU(3,4H)</t>
-        </is>
-      </c>
+      <c r="M26" s="3" t="inlineStr"/>
       <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr">
-        <is>
-          <t>BA(4,10H) | BQ(3,4H)</t>
-        </is>
-      </c>
+      <c r="O26" s="3" t="inlineStr"/>
       <c r="P26" s="3" t="inlineStr">
         <is>
-          <t>AI(3,12H) | CC(4,4H)</t>
+          <t>AF(3,8H) | CI(4,10H)</t>
         </is>
       </c>
       <c r="Q26" s="3" t="inlineStr">
         <is>
-          <t>AQ(3,10H) | CY(3,8H)</t>
-        </is>
-      </c>
-      <c r="R26" s="3" t="inlineStr"/>
-      <c r="S26" s="3" t="inlineStr"/>
+          <t>BM(3,12H) | CQ(4,12H)</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="inlineStr">
+        <is>
+          <t>AC(3,4H) | BA(4,10H)</t>
+        </is>
+      </c>
+      <c r="S26" s="3" t="inlineStr">
+        <is>
+          <t>CU(3,4H) | CY(3,4H)</t>
+        </is>
+      </c>
       <c r="T26" s="3" t="inlineStr"/>
       <c r="U26" s="3" t="inlineStr"/>
       <c r="V26" s="4" t="inlineStr"/>
@@ -2150,26 +2158,26 @@
       <c r="J27" s="3" t="inlineStr"/>
       <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="inlineStr"/>
-      <c r="M27" s="3" t="inlineStr">
-        <is>
-          <t>AG(4,4H) | AP(2,10H) | BZ(3,12H) | CZ(4,10H)</t>
-        </is>
-      </c>
-      <c r="N27" s="3" t="inlineStr">
-        <is>
-          <t>AT(4,12H) | AX(2,4H)</t>
-        </is>
-      </c>
-      <c r="O27" s="3" t="inlineStr"/>
+      <c r="M27" s="3" t="inlineStr"/>
+      <c r="N27" s="3" t="inlineStr"/>
+      <c r="O27" s="3" t="inlineStr">
+        <is>
+          <t>AN(2,4H) | AP(2,12H) | AQ(3,8H) | CH(4,4H)</t>
+        </is>
+      </c>
       <c r="P27" s="3" t="inlineStr">
         <is>
-          <t>AG(4,4H) | CR(3,8H)</t>
+          <t>AG(4,10H) | BJ(2,10H)</t>
         </is>
       </c>
       <c r="Q27" s="3" t="inlineStr"/>
       <c r="R27" s="3" t="inlineStr"/>
       <c r="S27" s="3" t="inlineStr"/>
-      <c r="T27" s="3" t="inlineStr"/>
+      <c r="T27" s="3" t="inlineStr">
+        <is>
+          <t>AN(2,8H) | CH(4,8H)</t>
+        </is>
+      </c>
       <c r="U27" s="3" t="inlineStr"/>
       <c r="V27" s="4" t="inlineStr"/>
       <c r="W27" s="3" t="inlineStr"/>
@@ -2209,25 +2217,25 @@
       <c r="J28" s="3" t="inlineStr"/>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="inlineStr"/>
-      <c r="M28" s="3" t="inlineStr">
-        <is>
-          <t>AF(2,12H) | AR(4,10H) | BC(3,10H) | CC(2,12H)</t>
-        </is>
-      </c>
-      <c r="N28" s="3" t="inlineStr">
-        <is>
-          <t>AO(2,8H) | BS(3,4H)</t>
-        </is>
-      </c>
+      <c r="M28" s="3" t="inlineStr"/>
+      <c r="N28" s="3" t="inlineStr"/>
       <c r="O28" s="3" t="inlineStr"/>
       <c r="P28" s="3" t="inlineStr">
         <is>
-          <t>AL(2,4H) | DA(4,4H)</t>
-        </is>
-      </c>
-      <c r="Q28" s="3" t="inlineStr"/>
+          <t>AL(2,8H) | CK(2,10H) | CM(2,10H)</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>AL(2,10H) | AS(2,8H) | CS(4,4H)</t>
+        </is>
+      </c>
       <c r="R28" s="3" t="inlineStr"/>
-      <c r="S28" s="3" t="inlineStr"/>
+      <c r="S28" s="3" t="inlineStr">
+        <is>
+          <t>BU(2,10H) | CS(4,4H)</t>
+        </is>
+      </c>
       <c r="T28" s="3" t="inlineStr"/>
       <c r="U28" s="3" t="inlineStr"/>
       <c r="V28" s="4" t="inlineStr"/>
@@ -2268,23 +2276,23 @@
       <c r="J29" s="3" t="inlineStr"/>
       <c r="K29" s="3" t="inlineStr"/>
       <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="inlineStr">
-        <is>
-          <t>AY(3,10H) | BD(4,12H) | BH(2,12H) | CX(3,8H)</t>
-        </is>
-      </c>
-      <c r="N29" s="3" t="inlineStr">
-        <is>
-          <t>AP(2,4H) | CT(2,4H)</t>
-        </is>
-      </c>
-      <c r="O29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr"/>
+      <c r="O29" s="3" t="inlineStr">
+        <is>
+          <t>BD(4,12H) | BV(2,12H) | CF(3,8H)</t>
+        </is>
+      </c>
       <c r="P29" s="3" t="inlineStr">
         <is>
-          <t>BV(2,10H) | CT(2,4H)</t>
-        </is>
-      </c>
-      <c r="Q29" s="3" t="inlineStr"/>
+          <t>BF(2,4H) | CF(3,4H) | CT(2,8H)</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>AT(2,8H) | CF(3,8H)</t>
+        </is>
+      </c>
       <c r="R29" s="3" t="inlineStr"/>
       <c r="S29" s="3" t="inlineStr"/>
       <c r="T29" s="3" t="inlineStr"/>
@@ -2332,28 +2340,28 @@
       <c r="O30" s="3" t="inlineStr"/>
       <c r="P30" s="3" t="inlineStr"/>
       <c r="Q30" s="3" t="inlineStr"/>
-      <c r="R30" s="3" t="inlineStr">
-        <is>
-          <t>AU(2,4H) | CC(3,12H)</t>
-        </is>
-      </c>
-      <c r="S30" s="3" t="inlineStr">
-        <is>
-          <t>BQ(4,12H) | CI(3,8H)</t>
-        </is>
-      </c>
-      <c r="T30" s="3" t="inlineStr">
-        <is>
-          <t>BI(2,10H) | CI(3,4H)</t>
-        </is>
-      </c>
-      <c r="U30" s="3" t="inlineStr"/>
-      <c r="V30" s="3" t="inlineStr"/>
+      <c r="R30" s="3" t="inlineStr"/>
+      <c r="S30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="inlineStr"/>
+      <c r="U30" s="3" t="inlineStr">
+        <is>
+          <t>AU(2,10H) | CC(3,4H)</t>
+        </is>
+      </c>
+      <c r="V30" s="3" t="inlineStr">
+        <is>
+          <t>BM(4,8H) | CC(3,4H)</t>
+        </is>
+      </c>
       <c r="W30" s="3" t="inlineStr"/>
-      <c r="X30" s="3" t="inlineStr"/>
+      <c r="X30" s="3" t="inlineStr">
+        <is>
+          <t>AS(4,8H) | CC(3,12H)</t>
+        </is>
+      </c>
       <c r="Y30" s="3" t="inlineStr">
         <is>
-          <t>BM(4,4H) | BW(3,10H)</t>
+          <t>BA(3,10H) | BE(3,8H)</t>
         </is>
       </c>
       <c r="Z30" s="3" t="inlineStr"/>
@@ -2395,24 +2403,24 @@
       <c r="O31" s="3" t="inlineStr"/>
       <c r="P31" s="3" t="inlineStr"/>
       <c r="Q31" s="3" t="inlineStr"/>
-      <c r="R31" s="3" t="inlineStr">
-        <is>
-          <t>AG(2,10H) | CJ(3,4H) | CV(3,8H) | DB(3,12H)</t>
-        </is>
-      </c>
-      <c r="S31" s="3" t="inlineStr">
-        <is>
-          <t>AG(2,8H) | BX(3,8H)</t>
-        </is>
-      </c>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
       <c r="T31" s="3" t="inlineStr"/>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>CH(3,10H) | CN(3,4H)</t>
-        </is>
-      </c>
-      <c r="V31" s="3" t="inlineStr"/>
-      <c r="W31" s="3" t="inlineStr"/>
+          <t>AT(3,4H) | CJ(3,8H) | CR(4,8H) | CV(3,10H)</t>
+        </is>
+      </c>
+      <c r="V31" s="3" t="inlineStr">
+        <is>
+          <t>CH(3,8H) | CN(3,12H)</t>
+        </is>
+      </c>
+      <c r="W31" s="3" t="inlineStr">
+        <is>
+          <t>AN(3,4H) | BJ(4,10H)</t>
+        </is>
+      </c>
       <c r="X31" s="3" t="inlineStr"/>
       <c r="Y31" s="3" t="inlineStr"/>
       <c r="Z31" s="3" t="inlineStr"/>
@@ -2454,28 +2462,28 @@
       <c r="O32" s="3" t="inlineStr"/>
       <c r="P32" s="3" t="inlineStr"/>
       <c r="Q32" s="3" t="inlineStr"/>
-      <c r="R32" s="3" t="inlineStr">
-        <is>
-          <t>AS(3,4H) | BS(3,12H) | CK(3,8H) | CO(3,8H)</t>
-        </is>
-      </c>
+      <c r="R32" s="3" t="inlineStr"/>
       <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr">
-        <is>
-          <t>BS(3,10H) | BU(3,4H)</t>
-        </is>
-      </c>
+      <c r="T32" s="3" t="inlineStr"/>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>AL(3,8H) | AZ(3,10H)</t>
-        </is>
-      </c>
-      <c r="V32" s="3" t="inlineStr"/>
+          <t>AL(3,10H) | AS(3,8H) | BC(4,8H) | CK(3,8H)</t>
+        </is>
+      </c>
+      <c r="V32" s="3" t="inlineStr">
+        <is>
+          <t>BC(4,4H) | CS(2,10H)</t>
+        </is>
+      </c>
       <c r="W32" s="3" t="inlineStr"/>
       <c r="X32" s="3" t="inlineStr"/>
       <c r="Y32" s="3" t="inlineStr"/>
       <c r="Z32" s="3" t="inlineStr"/>
-      <c r="AA32" s="4" t="inlineStr"/>
+      <c r="AA32" s="4" t="inlineStr">
+        <is>
+          <t>AE(3,4H) | AZ(3,12H)</t>
+        </is>
+      </c>
       <c r="AB32" s="3" t="inlineStr"/>
       <c r="AC32" s="3" t="inlineStr"/>
       <c r="AD32" s="3" t="inlineStr"/>
@@ -2513,24 +2521,24 @@
       <c r="O33" s="3" t="inlineStr"/>
       <c r="P33" s="3" t="inlineStr"/>
       <c r="Q33" s="3" t="inlineStr"/>
-      <c r="R33" s="3" t="inlineStr">
-        <is>
-          <t>BD(3,4H) | BH(3,4H) | BP(4,4H) | CF(3,4H)</t>
-        </is>
-      </c>
-      <c r="S33" s="3" t="inlineStr">
-        <is>
-          <t>AT(3,4H) | CT(3,4H)</t>
-        </is>
-      </c>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr"/>
       <c r="T33" s="3" t="inlineStr"/>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>AH(4,4H) | BP(4,4H)</t>
-        </is>
-      </c>
-      <c r="V33" s="3" t="inlineStr"/>
-      <c r="W33" s="3" t="inlineStr"/>
+          <t>AP(4,4H) | BT(3,4H) | BV(4,4H) | CT(3,4H)</t>
+        </is>
+      </c>
+      <c r="V33" s="3" t="inlineStr">
+        <is>
+          <t>BP(4,4H) | CF(3,4H)</t>
+        </is>
+      </c>
+      <c r="W33" s="3" t="inlineStr">
+        <is>
+          <t>AT(3,4H) | CT(3,4H)</t>
+        </is>
+      </c>
       <c r="X33" s="3" t="inlineStr"/>
       <c r="Y33" s="3" t="inlineStr"/>
       <c r="Z33" s="3" t="inlineStr"/>
@@ -2567,11 +2575,19 @@
       <c r="J34" s="3" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>AA(3,12H) | AU(3,4H) | BM(2,8H) | BQ(3,12H) | CG(4,12H) | CI(3,12H) | CQ(3,4H)</t>
-        </is>
-      </c>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr"/>
+          <t>AM(3,12H) | BA(3,12H) | CY(4,8H)</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>AM(3,8H) | AU(3,12H)</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t>AA(3,4H) | BM(2,8H)</t>
+        </is>
+      </c>
       <c r="N34" s="3" t="inlineStr"/>
       <c r="O34" s="3" t="inlineStr"/>
       <c r="P34" s="4" t="inlineStr"/>
@@ -2618,11 +2634,19 @@
       <c r="J35" s="3" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>AD(3,8H) | AX(2,12H) | BB(2,12H) | BF(3,8H) | BJ(3,4H) | BR(2,8H) | CJ(3,8H) | CZ(3,4H)</t>
-        </is>
-      </c>
-      <c r="L35" s="3" t="inlineStr"/>
-      <c r="M35" s="3" t="inlineStr"/>
+          <t>BF(3,10H) | BJ(3,4H) | BZ(4,10H)</t>
+        </is>
+      </c>
+      <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>BV(3,12H) | BZ(4,12H) | CZ(3,8H)</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr">
+        <is>
+          <t>AX(2,4H) | CH(3,4H)</t>
+        </is>
+      </c>
       <c r="N35" s="3" t="inlineStr"/>
       <c r="O35" s="3" t="inlineStr"/>
       <c r="P35" s="4" t="inlineStr"/>
@@ -2669,11 +2693,19 @@
       <c r="J36" s="3" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>AV(2,10H) | AZ(3,8H) | BK(2,10H) | BW(4,8H) | CA(3,12H) | CS(3,4H) | DA(3,12H)</t>
-        </is>
-      </c>
-      <c r="L36" s="3" t="inlineStr"/>
-      <c r="M36" s="3" t="inlineStr"/>
+          <t>AI(3,12H) | AK(3,10H) | AZ(3,4H) | BW(4,4H)</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>AV(2,10H) | CM(3,8H)</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>AI(3,4H) | BG(3,12H)</t>
+        </is>
+      </c>
       <c r="N36" s="3" t="inlineStr"/>
       <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="4" t="inlineStr"/>
@@ -2720,11 +2752,19 @@
       <c r="J37" s="3" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>AH(3,4H) | AK(2,10H) | BL(3,12H) | BP(2,12H) | CF(4,4H) | CL(3,8H) | CX(2,4H) | DB(4,10H)</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr"/>
-      <c r="M37" s="3" t="inlineStr"/>
+          <t>AW(3,8H) | BL(3,12H) | CL(3,12H)</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>AY(4,4H) | BD(2,4H) | CP(2,10H)</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="inlineStr">
+        <is>
+          <t>CT(3,10H) | CX(2,4H)</t>
+        </is>
+      </c>
       <c r="N37" s="3" t="inlineStr"/>
       <c r="O37" s="3" t="inlineStr"/>
       <c r="P37" s="4" t="inlineStr"/>
@@ -2770,20 +2810,24 @@
       <c r="I38" s="3" t="inlineStr"/>
       <c r="J38" s="3" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>BI(4,4H) | BQ(2,4H) | CG(2,4H) | CI(2,4H) | CM(4,4H) | DA(3,4H)</t>
-        </is>
-      </c>
-      <c r="M38" s="3" t="inlineStr">
-        <is>
-          <t>AQ(4,4H) | CM(4,4H)</t>
-        </is>
-      </c>
-      <c r="N38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr">
+        <is>
+          <t>AI(4,4H) | BA(2,4H) | BY(3,8H)</t>
+        </is>
+      </c>
       <c r="O38" s="3" t="inlineStr"/>
-      <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr">
+        <is>
+          <t>CC(3,4H) | CG(2,4H)</t>
+        </is>
+      </c>
+      <c r="Q38" s="3" t="inlineStr">
+        <is>
+          <t>AU(4,4H) | BA(2,4H)</t>
+        </is>
+      </c>
       <c r="R38" s="3" t="inlineStr"/>
       <c r="S38" s="3" t="inlineStr"/>
       <c r="T38" s="3" t="inlineStr"/>
@@ -2825,24 +2869,24 @@
       <c r="I39" s="3" t="inlineStr"/>
       <c r="J39" s="3" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr">
-        <is>
-          <t>AX(3,12H) | BJ(3,4H) | BZ(3,8H) | CV(3,12H)</t>
-        </is>
-      </c>
-      <c r="M39" s="3" t="inlineStr">
-        <is>
-          <t>BN(3,12H) | CJ(4,8H)</t>
-        </is>
-      </c>
-      <c r="N39" s="3" t="inlineStr">
-        <is>
-          <t>CN(2,4H) | DB(3,4H)</t>
-        </is>
-      </c>
-      <c r="O39" s="3" t="inlineStr"/>
-      <c r="P39" s="3" t="inlineStr"/>
-      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr">
+        <is>
+          <t>AD(4,8H) | BJ(3,10H) | BN(3,4H) | CR(3,10H)</t>
+        </is>
+      </c>
+      <c r="P39" s="3" t="inlineStr">
+        <is>
+          <t>CD(3,12H) | CH(2,8H)</t>
+        </is>
+      </c>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>AG(2,8H) | BB(2,4H)</t>
+        </is>
+      </c>
       <c r="R39" s="3" t="inlineStr"/>
       <c r="S39" s="3" t="inlineStr"/>
       <c r="T39" s="3" t="inlineStr"/>
@@ -2884,23 +2928,19 @@
       <c r="I40" s="3" t="inlineStr"/>
       <c r="J40" s="3" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr">
-        <is>
-          <t>AO(3,4H) | BG(2,10H) | CE(2,12H) | CY(2,12H)</t>
-        </is>
-      </c>
-      <c r="M40" s="3" t="inlineStr">
-        <is>
-          <t>BG(2,8H) | CW(3,10H)</t>
-        </is>
-      </c>
-      <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="3" t="inlineStr">
-        <is>
-          <t>BS(2,4H) | CK(3,4H)</t>
-        </is>
-      </c>
-      <c r="P40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t>AC(4,12H) | BC(2,4H) | CW(3,4H) | CY(2,4H) | DA(2,12H)</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr">
+        <is>
+          <t>AV(4,8H) | AZ(4,12H) | BC(2,8H)</t>
+        </is>
+      </c>
       <c r="Q40" s="3" t="inlineStr"/>
       <c r="R40" s="3" t="inlineStr"/>
       <c r="S40" s="3" t="inlineStr"/>
@@ -2943,24 +2983,24 @@
       <c r="I41" s="3" t="inlineStr"/>
       <c r="J41" s="3" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr">
-        <is>
-          <t>AY(3,12H) | CB(3,10H) | CZ(2,12H) | DB(2,10H)</t>
-        </is>
-      </c>
-      <c r="M41" s="3" t="inlineStr">
-        <is>
-          <t>AH(3,4H) | CT(4,8H)</t>
-        </is>
-      </c>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
       <c r="N41" s="3" t="inlineStr">
         <is>
-          <t>AW(4,4H) | CB(3,4H)</t>
-        </is>
-      </c>
-      <c r="O41" s="3" t="inlineStr"/>
+          <t>AB(3,10H) | AR(3,8H) | BX(4,4H) | CP(4,4H)</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="inlineStr">
+        <is>
+          <t>AR(3,8H) | BP(3,10H)</t>
+        </is>
+      </c>
       <c r="P41" s="3" t="inlineStr"/>
-      <c r="Q41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>AR(3,12H) | CZ(2,8H)</t>
+        </is>
+      </c>
       <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr"/>
       <c r="T41" s="3" t="inlineStr"/>
@@ -3006,26 +3046,30 @@
       <c r="M42" s="3" t="inlineStr"/>
       <c r="N42" s="3" t="inlineStr"/>
       <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="inlineStr">
-        <is>
-          <t>AM(2,12H) | BA(4,12H) | BI(3,8H) | CU(3,8H)</t>
-        </is>
-      </c>
+      <c r="P42" s="3" t="inlineStr"/>
       <c r="Q42" s="3" t="inlineStr"/>
-      <c r="R42" s="3" t="inlineStr">
-        <is>
-          <t>AC(3,4H) | CY(3,8H)</t>
-        </is>
-      </c>
+      <c r="R42" s="3" t="inlineStr"/>
       <c r="S42" s="3" t="inlineStr">
         <is>
-          <t>AI(3,8H) | AM(2,4H)</t>
+          <t>AC(3,12H) | AI(3,8H)</t>
         </is>
       </c>
       <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr"/>
-      <c r="W42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr">
+        <is>
+          <t>BM(3,10H) | CQ(4,12H)</t>
+        </is>
+      </c>
+      <c r="V42" s="3" t="inlineStr">
+        <is>
+          <t>CI(4,10H) | CY(3,4H)</t>
+        </is>
+      </c>
+      <c r="W42" s="3" t="inlineStr">
+        <is>
+          <t>BW(2,4H) | BY(4,4H)</t>
+        </is>
+      </c>
       <c r="X42" s="3" t="inlineStr"/>
       <c r="Y42" s="3" t="inlineStr"/>
       <c r="Z42" s="4" t="inlineStr"/>
@@ -3065,26 +3109,30 @@
       <c r="M43" s="3" t="inlineStr"/>
       <c r="N43" s="3" t="inlineStr"/>
       <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr">
-        <is>
-          <t>BB(3,10H) | BF(2,12H) | BN(4,4H) | CV(4,8H)</t>
-        </is>
-      </c>
-      <c r="Q43" s="3" t="inlineStr">
-        <is>
-          <t>BB(3,12H) | BZ(3,10H)</t>
-        </is>
-      </c>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr"/>
       <c r="R43" s="3" t="inlineStr">
         <is>
-          <t>BF(2,4H) | BJ(2,4H)</t>
+          <t>BJ(2,4H) | CD(4,10H)</t>
         </is>
       </c>
       <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr">
+        <is>
+          <t>AB(2,12H) | BB(3,10H)</t>
+        </is>
+      </c>
       <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr"/>
-      <c r="W43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t>BX(2,4H) | BZ(3,10H)</t>
+        </is>
+      </c>
+      <c r="W43" s="3" t="inlineStr">
+        <is>
+          <t>BX(2,10H) | CR(3,4H)</t>
+        </is>
+      </c>
       <c r="X43" s="3" t="inlineStr"/>
       <c r="Y43" s="3" t="inlineStr"/>
       <c r="Z43" s="4" t="inlineStr"/>
@@ -3124,30 +3172,26 @@
       <c r="M44" s="3" t="inlineStr"/>
       <c r="N44" s="3" t="inlineStr"/>
       <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr">
-        <is>
-          <t>BG(4,8H) | CW(2,4H)</t>
-        </is>
-      </c>
-      <c r="Q44" s="3" t="inlineStr">
-        <is>
-          <t>AS(2,12H) | CM(2,12H)</t>
-        </is>
-      </c>
-      <c r="R44" s="3" t="inlineStr">
-        <is>
-          <t>AF(2,10H) | CS(4,4H)</t>
-        </is>
-      </c>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
       <c r="S44" s="3" t="inlineStr">
         <is>
-          <t>CA(2,4H) | CM(2,10H)</t>
+          <t>AF(2,8H) | AR(4,4H) | BK(4,8H) | CM(2,12H)</t>
         </is>
       </c>
       <c r="T44" s="3" t="inlineStr"/>
       <c r="U44" s="3" t="inlineStr"/>
-      <c r="V44" s="3" t="inlineStr"/>
-      <c r="W44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr">
+        <is>
+          <t>BS(3,12H) | CA(2,4H)</t>
+        </is>
+      </c>
+      <c r="W44" s="3" t="inlineStr">
+        <is>
+          <t>AL(2,4H) | AR(4,12H)</t>
+        </is>
+      </c>
       <c r="X44" s="3" t="inlineStr"/>
       <c r="Y44" s="3" t="inlineStr"/>
       <c r="Z44" s="4" t="inlineStr"/>
@@ -3187,29 +3231,25 @@
       <c r="M45" s="3" t="inlineStr"/>
       <c r="N45" s="3" t="inlineStr"/>
       <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr">
-        <is>
-          <t>AH(2,8H) | AR(2,10H)</t>
-        </is>
-      </c>
-      <c r="Q45" s="3" t="inlineStr">
-        <is>
-          <t>AT(2,4H) | CL(4,10H)</t>
-        </is>
-      </c>
-      <c r="R45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="inlineStr"/>
+      <c r="R45" s="3" t="inlineStr">
+        <is>
+          <t>AP(2,8H) | BD(4,12H) | BP(3,8H)</t>
+        </is>
+      </c>
       <c r="S45" s="3" t="inlineStr">
         <is>
-          <t>CB(4,10H) | CF(3,10H)</t>
-        </is>
-      </c>
-      <c r="T45" s="3" t="inlineStr">
-        <is>
-          <t>AK(3,8H) | AR(2,4H)</t>
-        </is>
-      </c>
+          <t>AT(2,8H) | CF(3,10H) | CT(2,10H)</t>
+        </is>
+      </c>
+      <c r="T45" s="3" t="inlineStr"/>
       <c r="U45" s="3" t="inlineStr"/>
-      <c r="V45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr">
+        <is>
+          <t>AP(2,4H) | CT(2,4H)</t>
+        </is>
+      </c>
       <c r="W45" s="3" t="inlineStr"/>
       <c r="X45" s="3" t="inlineStr"/>
       <c r="Y45" s="3" t="inlineStr"/>
@@ -3255,25 +3295,25 @@
       <c r="R46" s="3" t="inlineStr"/>
       <c r="S46" s="3" t="inlineStr"/>
       <c r="T46" s="3" t="inlineStr"/>
-      <c r="U46" s="3" t="inlineStr">
-        <is>
-          <t>AM(3,12H) | AS(4,4H) | BM(4,10H) | CU(4,10H)</t>
-        </is>
-      </c>
-      <c r="V46" s="3" t="inlineStr">
-        <is>
-          <t>BY(2,4H) | CQ(2,8H)</t>
-        </is>
-      </c>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr"/>
       <c r="W46" s="3" t="inlineStr"/>
-      <c r="X46" s="3" t="inlineStr"/>
+      <c r="X46" s="3" t="inlineStr">
+        <is>
+          <t>BI(2,8H) | BM(4,8H) | CQ(2,10H) | CU(4,10H)</t>
+        </is>
+      </c>
       <c r="Y46" s="3" t="inlineStr">
         <is>
-          <t>BI(2,4H) | BY(2,12H)</t>
+          <t>AC(2,10H) | CI(3,10H)</t>
         </is>
       </c>
       <c r="Z46" s="3" t="inlineStr"/>
-      <c r="AA46" s="3" t="inlineStr"/>
+      <c r="AA46" s="3" t="inlineStr">
+        <is>
+          <t>BM(4,4H) | CC(3,4H)</t>
+        </is>
+      </c>
       <c r="AB46" s="3" t="inlineStr"/>
       <c r="AC46" s="3" t="inlineStr"/>
       <c r="AD46" s="3" t="inlineStr"/>
@@ -3314,29 +3354,25 @@
       <c r="R47" s="3" t="inlineStr"/>
       <c r="S47" s="3" t="inlineStr"/>
       <c r="T47" s="3" t="inlineStr"/>
-      <c r="U47" s="3" t="inlineStr">
-        <is>
-          <t>AT(3,8H) | CD(3,4H)</t>
-        </is>
-      </c>
-      <c r="V47" s="3" t="inlineStr">
-        <is>
-          <t>AX(4,8H) | BF(3,10H)</t>
-        </is>
-      </c>
-      <c r="W47" s="3" t="inlineStr">
-        <is>
-          <t>AD(2,10H) | CJ(3,12H)</t>
-        </is>
-      </c>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr"/>
+      <c r="W47" s="3" t="inlineStr"/>
       <c r="X47" s="3" t="inlineStr">
         <is>
-          <t>AG(2,4H) | CV(3,8H)</t>
-        </is>
-      </c>
-      <c r="Y47" s="3" t="inlineStr"/>
+          <t>BZ(2,10H) | CD(3,8H) | CN(3,10H) | CV(3,10H)</t>
+        </is>
+      </c>
+      <c r="Y47" s="3" t="inlineStr">
+        <is>
+          <t>AX(4,4H) | BF(3,8H)</t>
+        </is>
+      </c>
       <c r="Z47" s="3" t="inlineStr"/>
-      <c r="AA47" s="3" t="inlineStr"/>
+      <c r="AA47" s="3" t="inlineStr">
+        <is>
+          <t>BB(4,10H) | BX(3,4H)</t>
+        </is>
+      </c>
       <c r="AB47" s="3" t="inlineStr"/>
       <c r="AC47" s="3" t="inlineStr"/>
       <c r="AD47" s="3" t="inlineStr"/>
@@ -3377,25 +3413,25 @@
       <c r="R48" s="3" t="inlineStr"/>
       <c r="S48" s="3" t="inlineStr"/>
       <c r="T48" s="3" t="inlineStr"/>
-      <c r="U48" s="3" t="inlineStr">
-        <is>
-          <t>AE(3,10H) | BU(3,12H) | CA(3,10H) | CE(4,12H)</t>
-        </is>
-      </c>
+      <c r="U48" s="3" t="inlineStr"/>
       <c r="V48" s="3" t="inlineStr"/>
-      <c r="W48" s="3" t="inlineStr">
-        <is>
-          <t>CA(3,4H) | CK(3,4H)</t>
-        </is>
-      </c>
-      <c r="X48" s="3" t="inlineStr"/>
-      <c r="Y48" s="3" t="inlineStr"/>
-      <c r="Z48" s="3" t="inlineStr"/>
-      <c r="AA48" s="3" t="inlineStr">
-        <is>
-          <t>BO(4,8H) | CY(3,4H)</t>
-        </is>
-      </c>
+      <c r="W48" s="3" t="inlineStr"/>
+      <c r="X48" s="3" t="inlineStr">
+        <is>
+          <t>AL(3,10H) | AZ(3,8H) | BU(3,12H) | CK(3,10H)</t>
+        </is>
+      </c>
+      <c r="Y48" s="3" t="inlineStr">
+        <is>
+          <t>BC(4,4H) | CY(3,8H)</t>
+        </is>
+      </c>
+      <c r="Z48" s="3" t="inlineStr">
+        <is>
+          <t>AZ(3,4H) | BS(3,8H)</t>
+        </is>
+      </c>
+      <c r="AA48" s="3" t="inlineStr"/>
       <c r="AB48" s="3" t="inlineStr"/>
       <c r="AC48" s="3" t="inlineStr"/>
       <c r="AD48" s="3" t="inlineStr"/>
@@ -3436,32 +3472,28 @@
       <c r="R49" s="3" t="inlineStr"/>
       <c r="S49" s="3" t="inlineStr"/>
       <c r="T49" s="3" t="inlineStr"/>
-      <c r="U49" s="3" t="inlineStr">
-        <is>
-          <t>AT(3,4H) | AW(3,4H)</t>
-        </is>
-      </c>
+      <c r="U49" s="3" t="inlineStr"/>
       <c r="V49" s="3" t="inlineStr"/>
       <c r="W49" s="3" t="inlineStr"/>
       <c r="X49" s="3" t="inlineStr">
         <is>
-          <t>AH(4,4H) | CT(3,4H)</t>
+          <t>BT(3,4H) | BV(4,4H) | CX(4,4H) | CZ(3,4H)</t>
         </is>
       </c>
       <c r="Y49" s="3" t="inlineStr">
         <is>
-          <t>BL(3,4H) | CF(3,4H)</t>
-        </is>
-      </c>
-      <c r="Z49" s="3" t="inlineStr">
-        <is>
-          <t>AH(4,4H) | CX(4,4H)</t>
-        </is>
-      </c>
+          <t>AY(2,4H) | CZ(3,4H)</t>
+        </is>
+      </c>
+      <c r="Z49" s="3" t="inlineStr"/>
       <c r="AA49" s="3" t="inlineStr"/>
       <c r="AB49" s="3" t="inlineStr"/>
       <c r="AC49" s="3" t="inlineStr"/>
-      <c r="AD49" s="3" t="inlineStr"/>
+      <c r="AD49" s="3" t="inlineStr">
+        <is>
+          <t>AT(3,4H) | AY(2,4H)</t>
+        </is>
+      </c>
       <c r="AE49" s="4" t="inlineStr"/>
       <c r="AF49" s="3" t="inlineStr"/>
       <c r="AG49" s="3" t="inlineStr"/>
@@ -3482,16 +3514,8 @@
           <t>P1-A</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>CU(2,4H) | CY(4,8H)</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>BE(4,12H) | CQ(3,8H)</t>
-        </is>
-      </c>
+      <c r="D50" s="3" t="inlineStr"/>
+      <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr"/>
       <c r="H50" s="3" t="inlineStr"/>
@@ -3500,8 +3524,16 @@
       <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="inlineStr"/>
       <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>BI(3,12H) | CC(2,10H) | CG(4,10H)</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="inlineStr">
+        <is>
+          <t>AM(3,4H) | BY(3,4H)</t>
+        </is>
+      </c>
       <c r="P50" s="3" t="inlineStr"/>
       <c r="Q50" s="3" t="inlineStr"/>
       <c r="R50" s="3" t="inlineStr"/>
@@ -3537,16 +3569,8 @@
           <t>P1-B</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>BZ(4,12H) | CD(2,12H)</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>BB(2,4H) | BF(3,4H)</t>
-        </is>
-      </c>
+      <c r="D51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="inlineStr"/>
       <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="inlineStr"/>
       <c r="H51" s="3" t="inlineStr"/>
@@ -3555,8 +3579,16 @@
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="inlineStr"/>
       <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>AG(3,12H) | AU(2,4H) | CR(2,8H)</t>
+        </is>
+      </c>
+      <c r="O51" s="3" t="inlineStr">
+        <is>
+          <t>AJ(2,12H) | CD(2,4H)</t>
+        </is>
+      </c>
       <c r="P51" s="3" t="inlineStr"/>
       <c r="Q51" s="3" t="inlineStr"/>
       <c r="R51" s="3" t="inlineStr"/>
@@ -3596,22 +3628,22 @@
       <c r="E52" s="3" t="inlineStr"/>
       <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr"/>
-      <c r="H52" s="3" t="inlineStr">
-        <is>
-          <t>BG(3,4H) | CK(4,12H)</t>
-        </is>
-      </c>
+      <c r="H52" s="3" t="inlineStr"/>
       <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>AO(4,12H) | BW(4,4H)</t>
-        </is>
-      </c>
+      <c r="J52" s="3" t="inlineStr"/>
       <c r="K52" s="3" t="inlineStr"/>
       <c r="L52" s="3" t="inlineStr"/>
       <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="3" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>AE(3,12H) | BK(2,8H) | CA(3,4H)</t>
+        </is>
+      </c>
+      <c r="O52" s="3" t="inlineStr">
+        <is>
+          <t>BG(3,12H) | CO(2,4H)</t>
+        </is>
+      </c>
       <c r="P52" s="3" t="inlineStr"/>
       <c r="Q52" s="3" t="inlineStr"/>
       <c r="R52" s="3" t="inlineStr"/>
@@ -3647,11 +3679,7 @@
           <t>P1-D</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>BH(4,4H) | BP(2,12H) | CF(4,8H)</t>
-        </is>
-      </c>
+      <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr"/>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr"/>
@@ -3661,8 +3689,16 @@
       <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="inlineStr"/>
       <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>BP(2,4H) | BT(4,4H) | CL(3,12H)</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="inlineStr">
+        <is>
+          <t>AB(2,12H) | CL(3,8H)</t>
+        </is>
+      </c>
       <c r="P53" s="3" t="inlineStr"/>
       <c r="Q53" s="3" t="inlineStr"/>
       <c r="R53" s="3" t="inlineStr"/>
@@ -3709,18 +3745,22 @@
       <c r="L54" s="3" t="inlineStr"/>
       <c r="M54" s="3" t="inlineStr"/>
       <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr">
-        <is>
-          <t>AA(4,4H) | AL(3,4H) | AU(4,4H) | BE(3,4H)</t>
-        </is>
-      </c>
+      <c r="O54" s="3" t="inlineStr"/>
       <c r="P54" s="3" t="inlineStr">
         <is>
-          <t>BM(3,4H) | BQ(2,4H)</t>
-        </is>
-      </c>
-      <c r="Q54" s="3" t="inlineStr"/>
-      <c r="R54" s="3" t="inlineStr"/>
+          <t>AC(3,4H) | BM(3,4H)</t>
+        </is>
+      </c>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>BY(3,4H) | CU(3,4H)</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr">
+        <is>
+          <t>AQ(4,4H) | CU(3,4H)</t>
+        </is>
+      </c>
       <c r="S54" s="3" t="inlineStr"/>
       <c r="T54" s="3" t="inlineStr"/>
       <c r="U54" s="3" t="inlineStr"/>
@@ -3763,20 +3803,24 @@
       <c r="K55" s="3" t="inlineStr"/>
       <c r="L55" s="3" t="inlineStr"/>
       <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr">
-        <is>
-          <t>AQ(2,8H) | AX(3,8H) | CD(3,12H) | CJ(4,12H)</t>
-        </is>
-      </c>
-      <c r="O55" s="3" t="inlineStr">
-        <is>
-          <t>BF(4,4H) | BV(3,4H)</t>
-        </is>
-      </c>
-      <c r="P55" s="3" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr">
+        <is>
+          <t>AX(3,8H) | BR(4,4H)</t>
+        </is>
+      </c>
       <c r="Q55" s="3" t="inlineStr"/>
-      <c r="R55" s="3" t="inlineStr"/>
-      <c r="S55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="inlineStr">
+        <is>
+          <t>CJ(4,12H) | DB(3,10H)</t>
+        </is>
+      </c>
+      <c r="S55" s="3" t="inlineStr">
+        <is>
+          <t>BR(4,10H) | CD(3,4H)</t>
+        </is>
+      </c>
       <c r="T55" s="3" t="inlineStr"/>
       <c r="U55" s="3" t="inlineStr"/>
       <c r="V55" s="3" t="inlineStr"/>
@@ -3818,24 +3862,24 @@
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="inlineStr"/>
       <c r="M56" s="3" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr">
-        <is>
-          <t>AL(4,4H) | BC(2,4H)</t>
-        </is>
-      </c>
-      <c r="O56" s="3" t="inlineStr">
-        <is>
-          <t>BG(2,12H) | CW(3,8H)</t>
-        </is>
-      </c>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
       <c r="P56" s="3" t="inlineStr">
         <is>
-          <t>AZ(4,12H) | CK(3,8H)</t>
+          <t>AI(2,12H) | CE(2,8H)</t>
         </is>
       </c>
       <c r="Q56" s="3" t="inlineStr"/>
-      <c r="R56" s="3" t="inlineStr"/>
-      <c r="S56" s="3" t="inlineStr"/>
+      <c r="R56" s="3" t="inlineStr">
+        <is>
+          <t>CK(3,8H) | CO(4,12H)</t>
+        </is>
+      </c>
+      <c r="S56" s="3" t="inlineStr">
+        <is>
+          <t>BW(3,4H) | CA(4,4H)</t>
+        </is>
+      </c>
       <c r="T56" s="3" t="inlineStr"/>
       <c r="U56" s="3" t="inlineStr"/>
       <c r="V56" s="3" t="inlineStr"/>
@@ -3877,19 +3921,23 @@
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="inlineStr"/>
       <c r="M57" s="3" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr">
-        <is>
-          <t>AP(3,8H) | AR(3,12H) | BT(2,8H) | CX(3,12H)</t>
-        </is>
-      </c>
+      <c r="N57" s="2" t="inlineStr"/>
       <c r="O57" s="3" t="inlineStr"/>
       <c r="P57" s="3" t="inlineStr">
         <is>
-          <t>AW(4,4H) | BT(2,4H)</t>
-        </is>
-      </c>
-      <c r="Q57" s="3" t="inlineStr"/>
-      <c r="R57" s="3" t="inlineStr"/>
+          <t>AB(3,8H) | DB(2,10H)</t>
+        </is>
+      </c>
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
+          <t>AW(4,10H) | CT(4,4H)</t>
+        </is>
+      </c>
+      <c r="R57" s="3" t="inlineStr">
+        <is>
+          <t>AH(3,12H) | AR(3,4H)</t>
+        </is>
+      </c>
       <c r="S57" s="3" t="inlineStr"/>
       <c r="T57" s="3" t="inlineStr"/>
       <c r="U57" s="3" t="inlineStr"/>
@@ -3935,26 +3983,30 @@
       <c r="N58" s="2" t="inlineStr"/>
       <c r="O58" s="3" t="inlineStr"/>
       <c r="P58" s="3" t="inlineStr"/>
-      <c r="Q58" s="3" t="inlineStr">
-        <is>
-          <t>AF(3,4H) | CG(3,8H) | CO(3,12H) | CU(3,10H)</t>
-        </is>
-      </c>
-      <c r="R58" s="3" t="inlineStr">
-        <is>
-          <t>AQ(3,10H) | CI(4,4H)</t>
-        </is>
-      </c>
+      <c r="Q58" s="3" t="inlineStr"/>
+      <c r="R58" s="3" t="inlineStr"/>
       <c r="S58" s="3" t="inlineStr"/>
       <c r="T58" s="3" t="inlineStr">
         <is>
-          <t>AI(3,8H) | CU(3,8H)</t>
-        </is>
-      </c>
-      <c r="U58" s="3" t="inlineStr"/>
-      <c r="V58" s="3" t="inlineStr"/>
+          <t>BM(3,12H) | CI(4,8H)</t>
+        </is>
+      </c>
+      <c r="U58" s="3" t="inlineStr">
+        <is>
+          <t>BE(2,4H) | CI(4,10H)</t>
+        </is>
+      </c>
+      <c r="V58" s="3" t="inlineStr">
+        <is>
+          <t>AA(3,4H) | BA(4,10H)</t>
+        </is>
+      </c>
       <c r="W58" s="3" t="inlineStr"/>
-      <c r="X58" s="3" t="inlineStr"/>
+      <c r="X58" s="3" t="inlineStr">
+        <is>
+          <t>BQ(3,4H) | CO(3,12H)</t>
+        </is>
+      </c>
       <c r="Y58" s="3" t="inlineStr"/>
       <c r="Z58" s="3" t="inlineStr"/>
       <c r="AA58" s="3" t="inlineStr"/>
@@ -3994,25 +4046,25 @@
       <c r="N59" s="2" t="inlineStr"/>
       <c r="O59" s="3" t="inlineStr"/>
       <c r="P59" s="3" t="inlineStr"/>
-      <c r="Q59" s="3" t="inlineStr">
-        <is>
-          <t>AB(2,10H) | AJ(3,10H) | AN(2,4H) | BR(3,12H)</t>
-        </is>
-      </c>
+      <c r="Q59" s="3" t="inlineStr"/>
       <c r="R59" s="3" t="inlineStr"/>
-      <c r="S59" s="3" t="inlineStr">
-        <is>
-          <t>AN(2,8H) | BR(3,12H)</t>
-        </is>
-      </c>
-      <c r="T59" s="3" t="inlineStr">
-        <is>
-          <t>BB(3,4H) | BF(2,4H)</t>
-        </is>
-      </c>
-      <c r="U59" s="3" t="inlineStr"/>
-      <c r="V59" s="3" t="inlineStr"/>
-      <c r="W59" s="3" t="inlineStr"/>
+      <c r="S59" s="3" t="inlineStr"/>
+      <c r="T59" s="3" t="inlineStr"/>
+      <c r="U59" s="3" t="inlineStr">
+        <is>
+          <t>AP(2,4H) | AQ(3,12H) | BZ(3,12H) | CH(4,12H)</t>
+        </is>
+      </c>
+      <c r="V59" s="3" t="inlineStr">
+        <is>
+          <t>AG(4,4H) | BJ(2,12H)</t>
+        </is>
+      </c>
+      <c r="W59" s="3" t="inlineStr">
+        <is>
+          <t>AP(2,4H) | AX(2,4H)</t>
+        </is>
+      </c>
       <c r="X59" s="3" t="inlineStr"/>
       <c r="Y59" s="3" t="inlineStr"/>
       <c r="Z59" s="3" t="inlineStr"/>
@@ -4053,26 +4105,26 @@
       <c r="N60" s="2" t="inlineStr"/>
       <c r="O60" s="3" t="inlineStr"/>
       <c r="P60" s="3" t="inlineStr"/>
-      <c r="Q60" s="3" t="inlineStr">
-        <is>
-          <t>AL(2,12H) | AV(3,4H) | BC(3,8H) | CE(3,12H)</t>
-        </is>
-      </c>
+      <c r="Q60" s="3" t="inlineStr"/>
       <c r="R60" s="3" t="inlineStr"/>
-      <c r="S60" s="3" t="inlineStr">
-        <is>
-          <t>BO(2,12H) | BU(2,8H)</t>
-        </is>
-      </c>
-      <c r="T60" s="3" t="inlineStr">
-        <is>
-          <t>AE(2,4H) | AS(2,4H)</t>
-        </is>
-      </c>
-      <c r="U60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr"/>
+      <c r="T60" s="3" t="inlineStr"/>
+      <c r="U60" s="3" t="inlineStr">
+        <is>
+          <t>AO(2,8H) | AV(3,8H) | BS(3,12H) | CS(4,10H)</t>
+        </is>
+      </c>
       <c r="V60" s="3" t="inlineStr"/>
-      <c r="W60" s="3" t="inlineStr"/>
-      <c r="X60" s="3" t="inlineStr"/>
+      <c r="W60" s="3" t="inlineStr">
+        <is>
+          <t>CA(2,4H) | CS(4,10H)</t>
+        </is>
+      </c>
+      <c r="X60" s="3" t="inlineStr">
+        <is>
+          <t>CE(3,4H) | CS(4,8H)</t>
+        </is>
+      </c>
       <c r="Y60" s="3" t="inlineStr"/>
       <c r="Z60" s="3" t="inlineStr"/>
       <c r="AA60" s="3" t="inlineStr"/>
@@ -4112,24 +4164,24 @@
       <c r="N61" s="2" t="inlineStr"/>
       <c r="O61" s="3" t="inlineStr"/>
       <c r="P61" s="3" t="inlineStr"/>
-      <c r="Q61" s="3" t="inlineStr">
-        <is>
-          <t>AY(3,8H) | BT(3,12H) | CN(3,10H) | DB(2,10H)</t>
-        </is>
-      </c>
+      <c r="Q61" s="3" t="inlineStr"/>
       <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr">
-        <is>
-          <t>AW(2,4H) | CD(2,8H)</t>
-        </is>
-      </c>
+      <c r="S61" s="3" t="inlineStr"/>
       <c r="T61" s="3" t="inlineStr">
         <is>
-          <t>CD(2,4H) | CN(3,8H)</t>
-        </is>
-      </c>
-      <c r="U61" s="3" t="inlineStr"/>
-      <c r="V61" s="3" t="inlineStr"/>
+          <t>AP(2,8H) | AT(2,8H) | AY(3,12H) | CN(3,10H)</t>
+        </is>
+      </c>
+      <c r="U61" s="3" t="inlineStr">
+        <is>
+          <t>CL(4,8H) | CX(3,4H)</t>
+        </is>
+      </c>
+      <c r="V61" s="3" t="inlineStr">
+        <is>
+          <t>AK(3,4H) | AT(2,10H)</t>
+        </is>
+      </c>
       <c r="W61" s="3" t="inlineStr"/>
       <c r="X61" s="3" t="inlineStr"/>
       <c r="Y61" s="3" t="inlineStr"/>
@@ -4176,32 +4228,28 @@
       <c r="S62" s="3" t="inlineStr"/>
       <c r="T62" s="3" t="inlineStr"/>
       <c r="U62" s="3" t="inlineStr"/>
-      <c r="V62" s="3" t="inlineStr">
-        <is>
-          <t>AF(2,10H) | BA(3,4H)</t>
-        </is>
-      </c>
+      <c r="V62" s="3" t="inlineStr"/>
       <c r="W62" s="3" t="inlineStr"/>
       <c r="X62" s="3" t="inlineStr"/>
-      <c r="Y62" s="3" t="inlineStr"/>
+      <c r="Y62" s="3" t="inlineStr">
+        <is>
+          <t>AU(2,8H) | BM(4,10H) | BY(2,4H) | DA(2,10H)</t>
+        </is>
+      </c>
       <c r="Z62" s="3" t="inlineStr">
         <is>
-          <t>BM(4,8H) | BW(3,8H)</t>
-        </is>
-      </c>
-      <c r="AA62" s="3" t="inlineStr">
-        <is>
-          <t>BW(3,12H) | CI(3,8H)</t>
-        </is>
-      </c>
+          <t>BY(2,8H) | CM(3,10H)</t>
+        </is>
+      </c>
+      <c r="AA62" s="3" t="inlineStr"/>
       <c r="AB62" s="3" t="inlineStr"/>
       <c r="AC62" s="3" t="inlineStr"/>
-      <c r="AD62" s="3" t="inlineStr">
-        <is>
-          <t>AC(2,10H) | CM(3,4H)</t>
-        </is>
-      </c>
-      <c r="AE62" s="3" t="inlineStr"/>
+      <c r="AD62" s="3" t="inlineStr"/>
+      <c r="AE62" s="3" t="inlineStr">
+        <is>
+          <t>BI(2,10H) | CU(4,4H)</t>
+        </is>
+      </c>
       <c r="AF62" s="3" t="inlineStr"/>
       <c r="AG62" s="4" t="inlineStr"/>
     </row>
@@ -4239,22 +4287,22 @@
       <c r="S63" s="3" t="inlineStr"/>
       <c r="T63" s="3" t="inlineStr"/>
       <c r="U63" s="3" t="inlineStr"/>
-      <c r="V63" s="3" t="inlineStr">
-        <is>
-          <t>BJ(4,8H) | BR(3,12H) | BZ(2,8H) | CJ(3,12H)</t>
-        </is>
-      </c>
+      <c r="V63" s="3" t="inlineStr"/>
       <c r="W63" s="3" t="inlineStr"/>
-      <c r="X63" s="3" t="inlineStr">
-        <is>
-          <t>AX(4,8H) | CN(3,4H)</t>
-        </is>
-      </c>
-      <c r="Y63" s="3" t="inlineStr"/>
-      <c r="Z63" s="3" t="inlineStr"/>
+      <c r="X63" s="3" t="inlineStr"/>
+      <c r="Y63" s="3" t="inlineStr">
+        <is>
+          <t>AG(2,12H) | CR(4,10H) | DB(3,12H)</t>
+        </is>
+      </c>
+      <c r="Z63" s="3" t="inlineStr">
+        <is>
+          <t>BR(3,10H) | BX(3,4H) | DB(3,4H)</t>
+        </is>
+      </c>
       <c r="AA63" s="3" t="inlineStr">
         <is>
-          <t>AT(3,8H) | BF(3,4H)</t>
+          <t>AT(3,8H) | BJ(4,4H)</t>
         </is>
       </c>
       <c r="AB63" s="3" t="inlineStr"/>
@@ -4298,21 +4346,25 @@
       <c r="S64" s="3" t="inlineStr"/>
       <c r="T64" s="3" t="inlineStr"/>
       <c r="U64" s="3" t="inlineStr"/>
-      <c r="V64" s="3" t="inlineStr">
-        <is>
-          <t>AS(3,4H) | BK(2,10H) | BO(4,12H) | CE(4,12H) | CK(3,8H) | CO(3,10H)</t>
-        </is>
-      </c>
+      <c r="V64" s="3" t="inlineStr"/>
       <c r="W64" s="3" t="inlineStr"/>
       <c r="X64" s="3" t="inlineStr"/>
       <c r="Y64" s="3" t="inlineStr">
         <is>
-          <t>BO(4,4H) | CK(3,4H)</t>
-        </is>
-      </c>
-      <c r="Z64" s="3" t="inlineStr"/>
+          <t>AS(3,10H) | BG(3,8H) | BO(4,12H) | CW(4,8H)</t>
+        </is>
+      </c>
+      <c r="Z64" s="3" t="inlineStr">
+        <is>
+          <t>AL(3,8H) | BK(2,4H)</t>
+        </is>
+      </c>
       <c r="AA64" s="3" t="inlineStr"/>
-      <c r="AB64" s="3" t="inlineStr"/>
+      <c r="AB64" s="3" t="inlineStr">
+        <is>
+          <t>CW(4,10H) | CY(3,4H)</t>
+        </is>
+      </c>
       <c r="AC64" s="3" t="inlineStr"/>
       <c r="AD64" s="3" t="inlineStr"/>
       <c r="AE64" s="3" t="inlineStr"/>
@@ -4353,32 +4405,32 @@
       <c r="S65" s="3" t="inlineStr"/>
       <c r="T65" s="3" t="inlineStr"/>
       <c r="U65" s="3" t="inlineStr"/>
-      <c r="V65" s="3" t="inlineStr">
-        <is>
-          <t>BL(3,4H) | CB(2,4H)</t>
-        </is>
-      </c>
-      <c r="W65" s="3" t="inlineStr">
-        <is>
-          <t>AW(3,4H) | BD(3,4H)</t>
-        </is>
-      </c>
-      <c r="X65" s="3" t="inlineStr">
-        <is>
-          <t>BH(3,4H) | CX(4,4H)</t>
-        </is>
-      </c>
-      <c r="Y65" s="3" t="inlineStr">
-        <is>
-          <t>AT(3,4H) | AY(2,4H)</t>
-        </is>
-      </c>
-      <c r="Z65" s="3" t="inlineStr"/>
+      <c r="V65" s="3" t="inlineStr"/>
+      <c r="W65" s="3" t="inlineStr"/>
+      <c r="X65" s="3" t="inlineStr"/>
+      <c r="Y65" s="3" t="inlineStr"/>
+      <c r="Z65" s="3" t="inlineStr">
+        <is>
+          <t>BV(4,4H) | CX(4,4H)</t>
+        </is>
+      </c>
       <c r="AA65" s="3" t="inlineStr"/>
-      <c r="AB65" s="3" t="inlineStr"/>
-      <c r="AC65" s="3" t="inlineStr"/>
+      <c r="AB65" s="3" t="inlineStr">
+        <is>
+          <t>AH(4,4H) | CP(3,4H)</t>
+        </is>
+      </c>
+      <c r="AC65" s="3" t="inlineStr">
+        <is>
+          <t>AT(3,4H) | CF(3,4H)</t>
+        </is>
+      </c>
       <c r="AD65" s="3" t="inlineStr"/>
-      <c r="AE65" s="3" t="inlineStr"/>
+      <c r="AE65" s="3" t="inlineStr">
+        <is>
+          <t>AK(2,4H) | BP(4,4H)</t>
+        </is>
+      </c>
       <c r="AF65" s="3" t="inlineStr"/>
       <c r="AG65" s="4" t="inlineStr"/>
     </row>
@@ -4623,49 +4675,41 @@
           <t>P1-A:3, P1-B:2, P2-A:4, P2-C:2, P3-A:3</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-A (10H)</t>
-        </is>
-      </c>
+      <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>S1-P2-C (8H)</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr"/>
+          <t>S2-P1-B (4H)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-A (4H)</t>
+        </is>
+      </c>
       <c r="H2" s="3" t="inlineStr"/>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-A (12H)</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-A (10H)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr"/>
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr"/>
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-A (4H)</t>
+        </is>
+      </c>
       <c r="M2" s="3" t="inlineStr"/>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-A (4H)</t>
-        </is>
-      </c>
+      <c r="N2" s="3" t="inlineStr"/>
       <c r="O2" s="3" t="inlineStr"/>
       <c r="P2" s="3" t="inlineStr"/>
       <c r="Q2" s="3" t="inlineStr"/>
       <c r="R2" s="3" t="inlineStr"/>
       <c r="S2" s="3" t="inlineStr"/>
       <c r="T2" s="3" t="inlineStr"/>
-      <c r="U2" s="3" t="inlineStr"/>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-A (4H)</t>
+        </is>
+      </c>
       <c r="V2" s="3" t="inlineStr"/>
       <c r="W2" s="3" t="inlineStr"/>
       <c r="X2" s="3" t="inlineStr"/>
@@ -4678,10 +4722,10 @@
       <c r="AE2" s="3" t="inlineStr"/>
       <c r="AF2" s="3" t="inlineStr"/>
       <c r="AG2" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
@@ -4696,42 +4740,50 @@
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-C (8H)</t>
-        </is>
-      </c>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-C (4H)</t>
+          <t>S2-P1-D (8H)</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-B (12H)</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-B (4H)</t>
-        </is>
-      </c>
+          <t>S1-P2-D (10H)</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-D (12H)</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-B (10H)</t>
-        </is>
-      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-D (10H)</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-D (12H)</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-D (8H)</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr"/>
       <c r="Q3" s="3" t="inlineStr"/>
       <c r="R3" s="3" t="inlineStr"/>
-      <c r="S3" s="3" t="inlineStr"/>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-B (12H)</t>
+        </is>
+      </c>
       <c r="T3" s="3" t="inlineStr"/>
       <c r="U3" s="3" t="inlineStr"/>
       <c r="V3" s="3" t="inlineStr"/>
@@ -4746,10 +4798,10 @@
       <c r="AE3" s="3" t="inlineStr"/>
       <c r="AF3" s="3" t="inlineStr"/>
       <c r="AG3" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
@@ -4763,65 +4815,73 @@
           <t>P1-A:2, P2-A:3, P2-C:4, P3-A:3, P4-A:2</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-A (4H)</t>
-        </is>
-      </c>
+      <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-A (4H)</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-C (4H)</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr"/>
+          <t>S1-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-A (4H)</t>
+        </is>
+      </c>
       <c r="J4" s="3" t="inlineStr"/>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="inlineStr"/>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-A (4H)</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr"/>
-      <c r="O4" s="3" t="inlineStr"/>
+          <t>S3-P2-C (12H)</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-A (10H)</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-A (4H)</t>
+        </is>
+      </c>
       <c r="P4" s="3" t="inlineStr"/>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t>S3-P3-A (4H)</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr"/>
+          <t>S2-P3-A (4H)</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-A (12H)</t>
+        </is>
+      </c>
       <c r="S4" s="3" t="inlineStr"/>
       <c r="T4" s="3" t="inlineStr"/>
       <c r="U4" s="3" t="inlineStr"/>
       <c r="V4" s="3" t="inlineStr"/>
       <c r="W4" s="3" t="inlineStr"/>
-      <c r="X4" s="3" t="inlineStr"/>
+      <c r="X4" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="Y4" s="3" t="inlineStr"/>
       <c r="Z4" s="3" t="inlineStr"/>
       <c r="AA4" s="3" t="inlineStr"/>
       <c r="AB4" s="3" t="inlineStr"/>
-      <c r="AC4" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-A (10H)</t>
-        </is>
-      </c>
+      <c r="AC4" s="3" t="inlineStr"/>
       <c r="AD4" s="3" t="inlineStr"/>
       <c r="AE4" s="3" t="inlineStr"/>
       <c r="AF4" s="3" t="inlineStr"/>
       <c r="AG4" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
@@ -4838,27 +4898,23 @@
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-B (12H)</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-B (4H)</t>
-        </is>
-      </c>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-B (8H)</t>
+          <t>S1-P3-B (8H)</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-B (8H)</t>
+        </is>
+      </c>
       <c r="O5" s="3" t="inlineStr"/>
       <c r="P5" s="3" t="inlineStr"/>
       <c r="Q5" s="3" t="inlineStr"/>
@@ -4866,11 +4922,7 @@
       <c r="S5" s="3" t="inlineStr"/>
       <c r="T5" s="3" t="inlineStr"/>
       <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-B (10H)</t>
-        </is>
-      </c>
+      <c r="V5" s="3" t="inlineStr"/>
       <c r="W5" s="3" t="inlineStr"/>
       <c r="X5" s="3" t="inlineStr"/>
       <c r="Y5" s="3" t="inlineStr"/>
@@ -4882,10 +4934,10 @@
       <c r="AE5" s="3" t="inlineStr"/>
       <c r="AF5" s="3" t="inlineStr"/>
       <c r="AG5" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
@@ -4906,31 +4958,35 @@
       <c r="G6" s="3" t="inlineStr"/>
       <c r="H6" s="3" t="inlineStr"/>
       <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-C (10H)</t>
+        </is>
+      </c>
       <c r="K6" s="3" t="inlineStr"/>
       <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-C (12H)</t>
+        </is>
+      </c>
       <c r="N6" s="3" t="inlineStr"/>
       <c r="O6" s="3" t="inlineStr"/>
       <c r="P6" s="3" t="inlineStr"/>
       <c r="Q6" s="3" t="inlineStr"/>
       <c r="R6" s="3" t="inlineStr"/>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-C (4H)</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-C (10H)</t>
-        </is>
-      </c>
+      <c r="S6" s="3" t="inlineStr"/>
+      <c r="T6" s="3" t="inlineStr"/>
       <c r="U6" s="3" t="inlineStr"/>
       <c r="V6" s="3" t="inlineStr"/>
       <c r="W6" s="3" t="inlineStr"/>
       <c r="X6" s="3" t="inlineStr"/>
       <c r="Y6" s="3" t="inlineStr"/>
-      <c r="Z6" s="3" t="inlineStr"/>
+      <c r="Z6" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-C (4H)</t>
+        </is>
+      </c>
       <c r="AA6" s="3" t="inlineStr"/>
       <c r="AB6" s="3" t="inlineStr"/>
       <c r="AC6" s="3" t="inlineStr"/>
@@ -4938,10 +4994,10 @@
       <c r="AE6" s="3" t="inlineStr"/>
       <c r="AF6" s="3" t="inlineStr"/>
       <c r="AG6" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
@@ -4955,46 +5011,54 @@
           <t>P1-A:4, P2-A:3, P3-A:3, P3-C:2, P4-A:2</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-A (12H)</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-A (10H)</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-C (12H)</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-C (8H)</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-A (4H)</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-C (8H)</t>
+        </is>
+      </c>
       <c r="N7" s="3" t="inlineStr"/>
-      <c r="O7" s="3" t="inlineStr"/>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-A (4H)</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-C (10H)</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-A (8H)</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr"/>
+      <c r="Q7" s="3" t="inlineStr"/>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-C (8H)</t>
+        </is>
+      </c>
       <c r="S7" s="3" t="inlineStr"/>
       <c r="T7" s="3" t="inlineStr"/>
-      <c r="U7" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-A (10H)</t>
-        </is>
-      </c>
-      <c r="V7" s="3" t="inlineStr"/>
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-A (4H)</t>
+        </is>
+      </c>
       <c r="W7" s="3" t="inlineStr"/>
       <c r="X7" s="3" t="inlineStr"/>
       <c r="Y7" s="3" t="inlineStr"/>
@@ -5006,10 +5070,10 @@
       <c r="AE7" s="3" t="inlineStr"/>
       <c r="AF7" s="3" t="inlineStr"/>
       <c r="AG7" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
@@ -5025,54 +5089,54 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>S1-P1-B (10H)</t>
+          <t>S1-P1-B (8H)</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>S2-P1-B (12H)</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr"/>
       <c r="I8" s="3" t="inlineStr"/>
       <c r="J8" s="3" t="inlineStr"/>
       <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-B (4H)</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-B (12H)</t>
+        </is>
+      </c>
       <c r="N8" s="3" t="inlineStr"/>
       <c r="O8" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-B (4H)</t>
-        </is>
-      </c>
-      <c r="P8" s="3" t="inlineStr"/>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-B (10H)</t>
-        </is>
-      </c>
-      <c r="R8" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-B (8H)</t>
-        </is>
-      </c>
+          <t>S2-P3-B (10H)</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-B (8H)</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="inlineStr"/>
+      <c r="R8" s="3" t="inlineStr"/>
       <c r="S8" s="3" t="inlineStr"/>
       <c r="T8" s="3" t="inlineStr"/>
-      <c r="U8" s="3" t="inlineStr"/>
+      <c r="U8" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-B (4H)</t>
+        </is>
+      </c>
       <c r="V8" s="3" t="inlineStr"/>
-      <c r="W8" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-B (4H)</t>
-        </is>
-      </c>
-      <c r="X8" s="3" t="inlineStr"/>
+      <c r="W8" s="3" t="inlineStr"/>
+      <c r="X8" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-B (12H)</t>
+        </is>
+      </c>
       <c r="Y8" s="3" t="inlineStr"/>
       <c r="Z8" s="3" t="inlineStr"/>
       <c r="AA8" s="3" t="inlineStr"/>
@@ -5085,7 +5149,7 @@
         <v>7</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
@@ -5099,69 +5163,61 @@
           <t>P1-D:3, P2-D:3, P3-D:2, P4-D:4</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-D (12H)</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-D (10H)</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
       <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-D (8H)</t>
+        </is>
+      </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-D (4H)</t>
+          <t>S1-P3-D (8H)</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-D (4H)</t>
-        </is>
-      </c>
+      <c r="L9" s="3" t="inlineStr"/>
       <c r="M9" s="3" t="inlineStr"/>
       <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-D (8H)</t>
-        </is>
-      </c>
+      <c r="O9" s="3" t="inlineStr"/>
       <c r="P9" s="3" t="inlineStr"/>
-      <c r="Q9" s="3" t="inlineStr"/>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-D (12H)</t>
+        </is>
+      </c>
       <c r="R9" s="3" t="inlineStr"/>
       <c r="S9" s="3" t="inlineStr"/>
-      <c r="T9" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="T9" s="3" t="inlineStr"/>
       <c r="U9" s="3" t="inlineStr"/>
       <c r="V9" s="3" t="inlineStr"/>
-      <c r="W9" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="W9" s="3" t="inlineStr"/>
       <c r="X9" s="3" t="inlineStr"/>
-      <c r="Y9" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="Y9" s="3" t="inlineStr"/>
       <c r="Z9" s="3" t="inlineStr"/>
-      <c r="AA9" s="3" t="inlineStr"/>
+      <c r="AA9" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="AB9" s="3" t="inlineStr"/>
       <c r="AC9" s="3" t="inlineStr"/>
       <c r="AD9" s="3" t="inlineStr"/>
       <c r="AE9" s="3" t="inlineStr"/>
       <c r="AF9" s="3" t="inlineStr"/>
       <c r="AG9" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1">
@@ -5175,29 +5231,37 @@
           <t>P1-A:2, P1-C:3, P2-A:4, P2-C:2, P3-A:3</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-C (4H)</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-A (12H)</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-A (4H)</t>
-        </is>
-      </c>
+      <c r="F10" s="3" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr"/>
       <c r="H10" s="3" t="inlineStr"/>
       <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-C (12H)</t>
+        </is>
+      </c>
       <c r="K10" s="3" t="inlineStr"/>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr"/>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-C (4H)</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-A (4H)</t>
+        </is>
+      </c>
       <c r="N10" s="3" t="inlineStr"/>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-A (12H)</t>
+          <t>S4-P2-C (12H)</t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr"/>
@@ -5207,11 +5271,7 @@
           <t>S3-P3-A (8H)</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-A (8H)</t>
-        </is>
-      </c>
+      <c r="S10" s="3" t="inlineStr"/>
       <c r="T10" s="3" t="inlineStr"/>
       <c r="U10" s="3" t="inlineStr"/>
       <c r="V10" s="3" t="inlineStr"/>
@@ -5226,7 +5286,7 @@
       <c r="AE10" s="3" t="inlineStr"/>
       <c r="AF10" s="3" t="inlineStr"/>
       <c r="AG10" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH10" s="3" t="n">
         <v>44</v>
@@ -5252,44 +5312,28 @@
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-B (12H)</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-B (4H)</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-B (10H)</t>
+        </is>
+      </c>
       <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-B (12H)</t>
-        </is>
-      </c>
+      <c r="M11" s="3" t="inlineStr"/>
       <c r="N11" s="3" t="inlineStr">
         <is>
-          <t>S1-P4-B (8H)</t>
+          <t>S4-P1-B (12H)</t>
         </is>
       </c>
       <c r="O11" s="3" t="inlineStr"/>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-B (10H)</t>
-        </is>
-      </c>
+      <c r="P11" s="3" t="inlineStr"/>
       <c r="Q11" s="3" t="inlineStr"/>
       <c r="R11" s="3" t="inlineStr"/>
       <c r="S11" s="3" t="inlineStr"/>
       <c r="T11" s="3" t="inlineStr"/>
-      <c r="U11" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-B (4H)</t>
-        </is>
-      </c>
+      <c r="U11" s="3" t="inlineStr"/>
       <c r="V11" s="3" t="inlineStr"/>
       <c r="W11" s="3" t="inlineStr"/>
       <c r="X11" s="3" t="inlineStr"/>
@@ -5302,10 +5346,10 @@
       <c r="AE11" s="3" t="inlineStr"/>
       <c r="AF11" s="3" t="inlineStr"/>
       <c r="AG11" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="3" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1">
@@ -5321,51 +5365,47 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>S1-P1-C (10H)</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-D (8H)</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-D (10H)</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-D (10H)</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-D (4H)</t>
-        </is>
-      </c>
+          <t>S1-P1-C (8H)</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr"/>
       <c r="H12" s="3" t="inlineStr"/>
       <c r="I12" s="3" t="inlineStr"/>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-D (10H)</t>
+          <t>S3-P1-C (10H)</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-D (4H)</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-D (12H)</t>
+        </is>
+      </c>
       <c r="N12" s="3" t="inlineStr"/>
       <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-D (12H)</t>
+        </is>
+      </c>
       <c r="Q12" s="3" t="inlineStr"/>
       <c r="R12" s="3" t="inlineStr"/>
-      <c r="S12" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-D (8H)</t>
-        </is>
-      </c>
+      <c r="S12" s="3" t="inlineStr"/>
       <c r="T12" s="3" t="inlineStr"/>
-      <c r="U12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-D (4H)</t>
+        </is>
+      </c>
       <c r="V12" s="3" t="inlineStr"/>
       <c r="W12" s="3" t="inlineStr"/>
       <c r="X12" s="3" t="inlineStr"/>
@@ -5374,14 +5414,18 @@
       <c r="AA12" s="3" t="inlineStr"/>
       <c r="AB12" s="3" t="inlineStr"/>
       <c r="AC12" s="3" t="inlineStr"/>
-      <c r="AD12" s="3" t="inlineStr"/>
+      <c r="AD12" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="AE12" s="3" t="inlineStr"/>
       <c r="AF12" s="3" t="inlineStr"/>
       <c r="AG12" s="3" t="n">
         <v>7</v>
       </c>
       <c r="AH12" s="3" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1">
@@ -5398,43 +5442,31 @@
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-A (12H)</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-A (4H)</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-C (4H)</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr"/>
       <c r="J13" s="3" t="inlineStr"/>
       <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-C (4H)</t>
-        </is>
-      </c>
+      <c r="M13" s="3" t="inlineStr"/>
       <c r="N13" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-A (4H)</t>
+          <t>S1-P4-C (4H)</t>
         </is>
       </c>
       <c r="O13" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-C (4H)</t>
+          <t>S2-P3-C (8H)</t>
         </is>
       </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-C (12H)</t>
+          <t>S2-P3-C (10H)</t>
         </is>
       </c>
       <c r="Q13" s="3" t="inlineStr"/>
@@ -5442,14 +5474,26 @@
       <c r="S13" s="3" t="inlineStr"/>
       <c r="T13" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-C (8H)</t>
+          <t>S2-P4-C (10H)</t>
         </is>
       </c>
       <c r="U13" s="3" t="inlineStr"/>
-      <c r="V13" s="3" t="inlineStr"/>
-      <c r="W13" s="3" t="inlineStr"/>
+      <c r="V13" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-C (4H)</t>
+        </is>
+      </c>
+      <c r="W13" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-C (10H)</t>
+        </is>
+      </c>
       <c r="X13" s="3" t="inlineStr"/>
-      <c r="Y13" s="3" t="inlineStr"/>
+      <c r="Y13" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-C (8H)</t>
+        </is>
+      </c>
       <c r="Z13" s="3" t="inlineStr"/>
       <c r="AA13" s="3" t="inlineStr"/>
       <c r="AB13" s="3" t="inlineStr"/>
@@ -5461,7 +5505,7 @@
         <v>8</v>
       </c>
       <c r="AH13" s="3" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
@@ -5477,42 +5521,50 @@
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-A (4H)</t>
-        </is>
-      </c>
+      <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-A (12H)</t>
+        </is>
+      </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>S2-P2-A (4H)</t>
+          <t>S3-P1-A (8H)</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-A (12H)</t>
-        </is>
-      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-A (8H)</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-A (4H)</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr"/>
       <c r="P14" s="3" t="inlineStr"/>
       <c r="Q14" s="3" t="inlineStr"/>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-A (4H)</t>
-        </is>
-      </c>
+      <c r="R14" s="3" t="inlineStr"/>
       <c r="S14" s="3" t="inlineStr"/>
-      <c r="T14" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-A (12H)</t>
-        </is>
-      </c>
+      <c r="T14" s="3" t="inlineStr"/>
       <c r="U14" s="3" t="inlineStr"/>
       <c r="V14" s="3" t="inlineStr"/>
       <c r="W14" s="3" t="inlineStr"/>
@@ -5526,10 +5578,10 @@
       <c r="AE14" s="3" t="inlineStr"/>
       <c r="AF14" s="3" t="inlineStr"/>
       <c r="AG14" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1">
@@ -5546,47 +5598,43 @@
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-B (4H)</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-B (4H)</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-B (10H)</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-B (12H)</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr"/>
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr"/>
+      <c r="I15" s="3" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-B (12H)</t>
+        </is>
+      </c>
       <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-B (4H)</t>
+        </is>
+      </c>
       <c r="O15" s="3" t="inlineStr"/>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-B (4H)</t>
+          <t>S1-P4-B (8H)</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
-      <c r="R15" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-B (8H)</t>
-        </is>
-      </c>
-      <c r="S15" s="3" t="inlineStr"/>
+      <c r="R15" s="3" t="inlineStr"/>
+      <c r="S15" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-B (8H)</t>
+        </is>
+      </c>
       <c r="T15" s="3" t="inlineStr"/>
       <c r="U15" s="3" t="inlineStr"/>
-      <c r="V15" s="3" t="inlineStr"/>
+      <c r="V15" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-B (4H)</t>
+        </is>
+      </c>
       <c r="W15" s="3" t="inlineStr"/>
       <c r="X15" s="3" t="inlineStr"/>
       <c r="Y15" s="3" t="inlineStr"/>
@@ -5598,10 +5646,10 @@
       <c r="AE15" s="3" t="inlineStr"/>
       <c r="AF15" s="3" t="inlineStr"/>
       <c r="AG15" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="1">
@@ -5615,52 +5663,48 @@
           <t>P1-C:4, P2-C:3, P3-C:2, P4-C:3</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-C (4H)</t>
-        </is>
-      </c>
+      <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-C (12H)</t>
+          <t>S2-P1-C (8H)</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>S1-P2-C (8H)</t>
+          <t>S2-P1-C (4H)</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-C (12H)</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-C (10H)</t>
+        </is>
+      </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-C (4H)</t>
+          <t>S1-P3-C (4H)</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-C (8H)</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-C (10H)</t>
-        </is>
-      </c>
+          <t>S1-P3-C (4H)</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr"/>
       <c r="O16" s="3" t="inlineStr"/>
       <c r="P16" s="3" t="inlineStr"/>
       <c r="Q16" s="3" t="inlineStr"/>
       <c r="R16" s="3" t="inlineStr"/>
       <c r="S16" s="3" t="inlineStr"/>
-      <c r="T16" s="3" t="inlineStr"/>
+      <c r="T16" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-C (8H)</t>
+        </is>
+      </c>
       <c r="U16" s="3" t="inlineStr"/>
       <c r="V16" s="3" t="inlineStr"/>
       <c r="W16" s="3" t="inlineStr"/>
@@ -5674,10 +5718,10 @@
       <c r="AE16" s="3" t="inlineStr"/>
       <c r="AF16" s="3" t="inlineStr"/>
       <c r="AG16" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1">
@@ -5691,46 +5735,58 @@
           <t>P1-D:3, P2-D:3, P3-B:2, P3-D:2, P4-D:4</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-D (8H)</t>
-        </is>
-      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-D (4H)</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr"/>
       <c r="H17" s="3" t="inlineStr"/>
       <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-D (4H)</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-B (10H)</t>
-        </is>
-      </c>
-      <c r="M17" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-D (4H) | S4-P2-D (8H)</t>
-        </is>
-      </c>
-      <c r="N17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr"/>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-B (8H)</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-B (12H)</t>
+        </is>
+      </c>
       <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-D (8H)</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="inlineStr"/>
+      <c r="P17" s="3" t="inlineStr"/>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-D (8H)</t>
+        </is>
+      </c>
       <c r="R17" s="3" t="inlineStr"/>
-      <c r="S17" s="3" t="inlineStr"/>
-      <c r="T17" s="3" t="inlineStr"/>
-      <c r="U17" s="3" t="inlineStr"/>
-      <c r="V17" s="3" t="inlineStr"/>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-D (8H)</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-D (4H) | S4-P3-B (4H)</t>
+        </is>
+      </c>
+      <c r="U17" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-D (4H)</t>
+        </is>
+      </c>
+      <c r="V17" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-B (4H)</t>
+        </is>
+      </c>
       <c r="W17" s="3" t="inlineStr"/>
       <c r="X17" s="3" t="inlineStr"/>
       <c r="Y17" s="3" t="inlineStr"/>
@@ -5742,10 +5798,10 @@
       <c r="AE17" s="3" t="inlineStr"/>
       <c r="AF17" s="3" t="inlineStr"/>
       <c r="AG17" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1">
@@ -5762,49 +5818,45 @@
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>S1-P2-B (4H)</t>
         </is>
       </c>
+      <c r="G18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="inlineStr"/>
       <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-B (4H)</t>
-        </is>
-      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-A (8H)</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="M18" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-B (8H)</t>
-        </is>
-      </c>
-      <c r="N18" s="3" t="inlineStr"/>
+          <t>S2-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-B (8H)</t>
+        </is>
+      </c>
       <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-A (10H)</t>
-        </is>
-      </c>
+      <c r="P18" s="3" t="inlineStr"/>
       <c r="Q18" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-A (10H)</t>
+          <t>S4-P2-A (4H)</t>
         </is>
       </c>
       <c r="R18" s="3" t="inlineStr"/>
       <c r="S18" s="3" t="inlineStr"/>
-      <c r="T18" s="3" t="inlineStr"/>
+      <c r="T18" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-B (12H)</t>
+        </is>
+      </c>
       <c r="U18" s="3" t="inlineStr"/>
       <c r="V18" s="3" t="inlineStr"/>
       <c r="W18" s="3" t="inlineStr"/>
@@ -5818,10 +5870,10 @@
       <c r="AE18" s="3" t="inlineStr"/>
       <c r="AF18" s="3" t="inlineStr"/>
       <c r="AG18" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="36" customHeight="1">
@@ -5838,51 +5890,51 @@
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-D (8H)</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-D (4H)</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-D (10H)</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-D (12H)</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr"/>
       <c r="J19" s="3" t="inlineStr"/>
       <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-C (10H)</t>
-        </is>
-      </c>
+      <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-D (12H)</t>
-        </is>
-      </c>
-      <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-D (10H)</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr"/>
-      <c r="R19" s="3" t="inlineStr"/>
-      <c r="S19" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-D (4H)</t>
-        </is>
-      </c>
+          <t>S3-P2-D (8H)</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-D (8H)</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-D (12H)</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-D (4H)</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-C (4H)</t>
+        </is>
+      </c>
+      <c r="S19" s="3" t="inlineStr"/>
       <c r="T19" s="3" t="inlineStr"/>
       <c r="U19" s="3" t="inlineStr"/>
-      <c r="V19" s="3" t="inlineStr"/>
+      <c r="V19" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-C (12H)</t>
+        </is>
+      </c>
       <c r="W19" s="3" t="inlineStr"/>
       <c r="X19" s="3" t="inlineStr"/>
       <c r="Y19" s="3" t="inlineStr"/>
@@ -5897,7 +5949,7 @@
         <v>7</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="36" customHeight="1">
@@ -5918,49 +5970,37 @@
       <c r="G20" s="3" t="inlineStr"/>
       <c r="H20" s="3" t="inlineStr"/>
       <c r="I20" s="3" t="inlineStr"/>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-A (12H)</t>
-        </is>
-      </c>
+      <c r="J20" s="3" t="inlineStr"/>
       <c r="K20" s="3" t="inlineStr"/>
       <c r="L20" s="3" t="inlineStr"/>
       <c r="M20" s="3" t="inlineStr"/>
-      <c r="N20" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-C (8H)</t>
-        </is>
-      </c>
+      <c r="N20" s="3" t="inlineStr"/>
       <c r="O20" s="3" t="inlineStr"/>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t>S3-P3-C (12H)</t>
-        </is>
-      </c>
-      <c r="Q20" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-C (4H)</t>
-        </is>
-      </c>
+          <t>S2-P3-C (8H)</t>
+        </is>
+      </c>
+      <c r="Q20" s="3" t="inlineStr"/>
       <c r="R20" s="3" t="inlineStr"/>
-      <c r="S20" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-C (4H)</t>
-        </is>
-      </c>
+      <c r="S20" s="3" t="inlineStr"/>
       <c r="T20" s="3" t="inlineStr">
         <is>
-          <t>S3-P4-A (4H)</t>
-        </is>
-      </c>
-      <c r="U20" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-C (4H)</t>
-        </is>
-      </c>
+          <t>S2-P4-C (8H)</t>
+        </is>
+      </c>
+      <c r="U20" s="3" t="inlineStr"/>
       <c r="V20" s="3" t="inlineStr"/>
-      <c r="W20" s="3" t="inlineStr"/>
-      <c r="X20" s="3" t="inlineStr"/>
+      <c r="W20" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-A (8H)</t>
+        </is>
+      </c>
+      <c r="X20" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-C (10H)</t>
+        </is>
+      </c>
       <c r="Y20" s="3" t="inlineStr"/>
       <c r="Z20" s="3" t="inlineStr"/>
       <c r="AA20" s="3" t="inlineStr"/>
@@ -5970,10 +6010,10 @@
       <c r="AE20" s="3" t="inlineStr"/>
       <c r="AF20" s="3" t="inlineStr"/>
       <c r="AG20" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="36" customHeight="1">
@@ -5994,49 +6034,49 @@
       <c r="G21" s="3" t="inlineStr"/>
       <c r="H21" s="3" t="inlineStr"/>
       <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-D (10H)</t>
+        </is>
+      </c>
       <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-D (10H)</t>
-        </is>
-      </c>
-      <c r="M21" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-B (12H)</t>
-        </is>
-      </c>
-      <c r="N21" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-B (10H)</t>
-        </is>
-      </c>
+      <c r="L21" s="3" t="inlineStr"/>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr"/>
       <c r="O21" s="3" t="inlineStr"/>
       <c r="P21" s="3" t="inlineStr">
         <is>
-          <t>S3-P3-D (4H)</t>
+          <t>S2-P3-D (8H)</t>
         </is>
       </c>
       <c r="Q21" s="3" t="inlineStr"/>
       <c r="R21" s="3" t="inlineStr">
         <is>
+          <t>S3-P3-D (8H)</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-D (8H)</t>
+        </is>
+      </c>
+      <c r="T21" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-B (4H)</t>
+        </is>
+      </c>
+      <c r="U21" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-D (10H)</t>
+        </is>
+      </c>
+      <c r="V21" s="3" t="inlineStr">
+        <is>
           <t>S2-P4-D (4H)</t>
         </is>
       </c>
-      <c r="S21" s="3" t="inlineStr"/>
-      <c r="T21" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-B (8H) | S3-P4-D (4H)</t>
-        </is>
-      </c>
-      <c r="U21" s="3" t="inlineStr"/>
-      <c r="V21" s="3" t="inlineStr"/>
       <c r="W21" s="3" t="inlineStr"/>
-      <c r="X21" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="X21" s="3" t="inlineStr"/>
       <c r="Y21" s="3" t="inlineStr"/>
       <c r="Z21" s="3" t="inlineStr">
         <is>
@@ -6044,16 +6084,24 @@
         </is>
       </c>
       <c r="AA21" s="3" t="inlineStr"/>
-      <c r="AB21" s="3" t="inlineStr"/>
-      <c r="AC21" s="3" t="inlineStr"/>
+      <c r="AB21" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-D (4H)</t>
+        </is>
+      </c>
+      <c r="AC21" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="AD21" s="3" t="inlineStr"/>
       <c r="AE21" s="3" t="inlineStr"/>
       <c r="AF21" s="3" t="inlineStr"/>
       <c r="AG21" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="36" customHeight="1">
@@ -6069,54 +6117,54 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>S1-P1-A (8H)</t>
+          <t>S1-P1-A (10H)</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-B (12H)</t>
-        </is>
-      </c>
+      <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-A (8H)</t>
-        </is>
-      </c>
+      <c r="H22" s="3" t="inlineStr"/>
       <c r="I22" s="3" t="inlineStr"/>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-A (4H)</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
+      <c r="J22" s="3" t="inlineStr"/>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-A (12H)</t>
+        </is>
+      </c>
       <c r="L22" s="3" t="inlineStr"/>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-A (4H)</t>
-        </is>
-      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-B (4H)</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="inlineStr"/>
       <c r="O22" s="3" t="inlineStr"/>
       <c r="P22" s="3" t="inlineStr">
         <is>
-          <t>S1-P4-A (4H)</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-A (4H)</t>
-        </is>
-      </c>
-      <c r="R22" s="3" t="inlineStr"/>
+          <t>S3-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="inlineStr"/>
+      <c r="R22" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-A (12H)</t>
+        </is>
+      </c>
       <c r="S22" s="3" t="inlineStr"/>
-      <c r="T22" s="3" t="inlineStr"/>
+      <c r="T22" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="U22" s="3" t="inlineStr"/>
       <c r="V22" s="3" t="inlineStr"/>
       <c r="W22" s="3" t="inlineStr"/>
-      <c r="X22" s="3" t="inlineStr"/>
+      <c r="X22" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-A (8H)</t>
+        </is>
+      </c>
       <c r="Y22" s="3" t="inlineStr"/>
       <c r="Z22" s="3" t="inlineStr"/>
       <c r="AA22" s="3" t="inlineStr"/>
@@ -6129,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="AH22" s="3" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="36" customHeight="1">
@@ -6148,7 +6196,7 @@
       <c r="E23" s="3" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-C (8H)</t>
+          <t>S1-P2-C (12H)</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr"/>
@@ -6156,23 +6204,31 @@
       <c r="I23" s="3" t="inlineStr"/>
       <c r="J23" s="3" t="inlineStr">
         <is>
+          <t>S2-P2-C (12H)</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
           <t>S3-P1-C (10H)</t>
         </is>
       </c>
-      <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="inlineStr"/>
       <c r="M23" s="3" t="inlineStr"/>
       <c r="N23" s="3" t="inlineStr"/>
-      <c r="O23" s="3" t="inlineStr"/>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-C (4H)</t>
-        </is>
-      </c>
+      <c r="O23" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-C (8H)</t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="inlineStr"/>
       <c r="Q23" s="3" t="inlineStr"/>
       <c r="R23" s="3" t="inlineStr"/>
       <c r="S23" s="3" t="inlineStr"/>
-      <c r="T23" s="3" t="inlineStr"/>
+      <c r="T23" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-C (8H)</t>
+        </is>
+      </c>
       <c r="U23" s="3" t="inlineStr"/>
       <c r="V23" s="3" t="inlineStr"/>
       <c r="W23" s="3" t="inlineStr"/>
@@ -6186,10 +6242,10 @@
       <c r="AE23" s="3" t="inlineStr"/>
       <c r="AF23" s="3" t="inlineStr"/>
       <c r="AG23" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH23" s="3" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="36" customHeight="1">
@@ -6206,47 +6262,39 @@
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-D (4H)</t>
+        </is>
+      </c>
       <c r="G24" s="3" t="inlineStr"/>
       <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-D (4H)</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
+      <c r="I24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-D (8H)</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-D (8H)</t>
+        </is>
+      </c>
       <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-D (4H)</t>
-        </is>
-      </c>
+      <c r="M24" s="3" t="inlineStr"/>
       <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-D (4H)</t>
-        </is>
-      </c>
-      <c r="P24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-D (10H)</t>
+        </is>
+      </c>
       <c r="Q24" s="3" t="inlineStr"/>
-      <c r="R24" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-D (4H)</t>
-        </is>
-      </c>
+      <c r="R24" s="3" t="inlineStr"/>
       <c r="S24" s="3" t="inlineStr"/>
-      <c r="T24" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="T24" s="3" t="inlineStr"/>
       <c r="U24" s="3" t="inlineStr"/>
-      <c r="V24" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="V24" s="3" t="inlineStr"/>
       <c r="W24" s="3" t="inlineStr"/>
       <c r="X24" s="3" t="inlineStr"/>
       <c r="Y24" s="3" t="inlineStr"/>
@@ -6258,10 +6306,10 @@
       <c r="AE24" s="3" t="inlineStr"/>
       <c r="AF24" s="3" t="inlineStr"/>
       <c r="AG24" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH24" s="3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="36" customHeight="1">
@@ -6276,59 +6324,55 @@
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-B (4H)</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-B (10H)</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr"/>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-B (10H)</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="inlineStr"/>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-B (12H)</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-B (12H)</t>
-        </is>
-      </c>
-      <c r="L25" s="3" t="inlineStr"/>
-      <c r="M25" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-B (4H) | S4-P2-B (8H)</t>
-        </is>
-      </c>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-B (12H)</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-B (4H)</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr"/>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-B (4H)</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr"/>
+      <c r="K25" s="3" t="inlineStr"/>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-B (4H)</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="inlineStr"/>
       <c r="N25" s="3" t="inlineStr"/>
-      <c r="O25" s="3" t="inlineStr"/>
+      <c r="O25" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-B (8H)</t>
+        </is>
+      </c>
       <c r="P25" s="3" t="inlineStr"/>
       <c r="Q25" s="3" t="inlineStr"/>
       <c r="R25" s="3" t="inlineStr"/>
       <c r="S25" s="3" t="inlineStr"/>
       <c r="T25" s="3" t="inlineStr"/>
-      <c r="U25" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-B (8H)</t>
-        </is>
-      </c>
-      <c r="V25" s="3" t="inlineStr"/>
-      <c r="W25" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-B (8H)</t>
-        </is>
-      </c>
-      <c r="X25" s="3" t="inlineStr"/>
+      <c r="U25" s="3" t="inlineStr"/>
+      <c r="V25" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-B (4H)</t>
+        </is>
+      </c>
+      <c r="W25" s="3" t="inlineStr"/>
+      <c r="X25" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-B (4H)</t>
+        </is>
+      </c>
       <c r="Y25" s="3" t="inlineStr"/>
       <c r="Z25" s="3" t="inlineStr"/>
       <c r="AA25" s="3" t="inlineStr"/>
@@ -6338,10 +6382,10 @@
       <c r="AE25" s="3" t="inlineStr"/>
       <c r="AF25" s="3" t="inlineStr"/>
       <c r="AG25" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH25" s="3" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="36" customHeight="1">
@@ -6360,60 +6404,56 @@
       <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr"/>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-D (10H)</t>
-        </is>
-      </c>
+      <c r="H26" s="3" t="inlineStr"/>
       <c r="I26" s="3" t="inlineStr"/>
       <c r="J26" s="3" t="inlineStr"/>
       <c r="K26" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-D (12H)</t>
-        </is>
-      </c>
-      <c r="L26" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-D (10H)</t>
-        </is>
-      </c>
+          <t>S3-P1-D (4H)</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="inlineStr"/>
       <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-D (12H)</t>
-        </is>
-      </c>
+      <c r="N26" s="3" t="inlineStr"/>
       <c r="O26" s="3" t="inlineStr"/>
       <c r="P26" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-D (8H)</t>
+          <t>S1-P4-D (4H)</t>
         </is>
       </c>
       <c r="Q26" s="3" t="inlineStr"/>
       <c r="R26" s="3" t="inlineStr"/>
-      <c r="S26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-D (12H)</t>
+        </is>
+      </c>
       <c r="T26" s="3" t="inlineStr"/>
       <c r="U26" s="3" t="inlineStr"/>
       <c r="V26" s="3" t="inlineStr"/>
       <c r="W26" s="3" t="inlineStr"/>
       <c r="X26" s="3" t="inlineStr">
         <is>
-          <t>S4-P4-D (4H)</t>
+          <t>S3-P4-D (4H)</t>
         </is>
       </c>
       <c r="Y26" s="3" t="inlineStr"/>
       <c r="Z26" s="3" t="inlineStr"/>
       <c r="AA26" s="3" t="inlineStr"/>
       <c r="AB26" s="3" t="inlineStr"/>
-      <c r="AC26" s="3" t="inlineStr"/>
+      <c r="AC26" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="AD26" s="3" t="inlineStr"/>
       <c r="AE26" s="3" t="inlineStr"/>
       <c r="AF26" s="3" t="inlineStr"/>
       <c r="AG26" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="3" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="36" customHeight="1">
@@ -6432,7 +6472,7 @@
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-C (8H)</t>
+          <t>S2-P1-C (12H)</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr"/>
@@ -6440,7 +6480,7 @@
       <c r="I27" s="3" t="inlineStr"/>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-C (8H)</t>
+          <t>S3-P1-C (4H)</t>
         </is>
       </c>
       <c r="K27" s="3" t="inlineStr"/>
@@ -6449,28 +6489,32 @@
       <c r="N27" s="3" t="inlineStr"/>
       <c r="O27" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-C (12H)</t>
+          <t>S3-P2-C (12H)</t>
         </is>
       </c>
       <c r="P27" s="3" t="inlineStr"/>
       <c r="Q27" s="3" t="inlineStr"/>
-      <c r="R27" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-C (8H)</t>
-        </is>
-      </c>
+      <c r="R27" s="3" t="inlineStr"/>
       <c r="S27" s="3" t="inlineStr"/>
-      <c r="T27" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-C (10H)</t>
-        </is>
-      </c>
+      <c r="T27" s="3" t="inlineStr"/>
       <c r="U27" s="3" t="inlineStr"/>
       <c r="V27" s="3" t="inlineStr"/>
-      <c r="W27" s="3" t="inlineStr"/>
+      <c r="W27" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-C (8H)</t>
+        </is>
+      </c>
       <c r="X27" s="3" t="inlineStr"/>
-      <c r="Y27" s="3" t="inlineStr"/>
-      <c r="Z27" s="3" t="inlineStr"/>
+      <c r="Y27" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-C (4H)</t>
+        </is>
+      </c>
+      <c r="Z27" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-C (12H)</t>
+        </is>
+      </c>
       <c r="AA27" s="3" t="inlineStr"/>
       <c r="AB27" s="3" t="inlineStr"/>
       <c r="AC27" s="3" t="inlineStr"/>
@@ -6478,10 +6522,10 @@
       <c r="AE27" s="3" t="inlineStr"/>
       <c r="AF27" s="3" t="inlineStr"/>
       <c r="AG27" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" s="3" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" ht="36" customHeight="1">
@@ -6495,44 +6539,60 @@
           <t>P1-A:3, P2-A:2, P3-A:4, P4-A:3</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>S1-P1-A (4H)</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-A (4H)</t>
+        </is>
+      </c>
       <c r="G28" s="3" t="inlineStr"/>
       <c r="H28" s="3" t="inlineStr"/>
       <c r="I28" s="3" t="inlineStr"/>
-      <c r="J28" s="3" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-A (12H)</t>
+        </is>
+      </c>
       <c r="K28" s="3" t="inlineStr"/>
       <c r="L28" s="3" t="inlineStr"/>
-      <c r="M28" s="3" t="inlineStr"/>
-      <c r="N28" s="3" t="inlineStr">
+      <c r="M28" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="N28" s="3" t="inlineStr"/>
+      <c r="O28" s="3" t="inlineStr"/>
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="inlineStr">
         <is>
           <t>S2-P3-A (10H)</t>
         </is>
       </c>
-      <c r="O28" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-A (12H)</t>
-        </is>
-      </c>
-      <c r="P28" s="3" t="inlineStr"/>
-      <c r="Q28" s="3" t="inlineStr"/>
       <c r="R28" s="3" t="inlineStr"/>
       <c r="S28" s="3" t="inlineStr"/>
       <c r="T28" s="3" t="inlineStr"/>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>S4-P4-A (4H)</t>
+          <t>S4-P3-A (10H)</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr"/>
       <c r="W28" s="3" t="inlineStr"/>
-      <c r="X28" s="3" t="inlineStr"/>
+      <c r="X28" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="Y28" s="3" t="inlineStr"/>
       <c r="Z28" s="3" t="inlineStr"/>
       <c r="AA28" s="3" t="inlineStr"/>
@@ -6542,10 +6602,10 @@
       <c r="AE28" s="3" t="inlineStr"/>
       <c r="AF28" s="3" t="inlineStr"/>
       <c r="AG28" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH28" s="3" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" ht="36" customHeight="1">
@@ -6560,44 +6620,36 @@
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-B (4H)</t>
-        </is>
-      </c>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
-      <c r="G29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-B (8H)</t>
+        </is>
+      </c>
       <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr">
+      <c r="I29" s="3" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr"/>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr">
         <is>
           <t>S1-P3-B (8H)</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-B (12H)</t>
-        </is>
-      </c>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
       <c r="M29" s="3" t="inlineStr"/>
       <c r="N29" s="3" t="inlineStr"/>
-      <c r="O29" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-B (10H)</t>
-        </is>
-      </c>
+      <c r="O29" s="3" t="inlineStr"/>
       <c r="P29" s="3" t="inlineStr">
         <is>
-          <t>S3-P3-B (12H)</t>
+          <t>S3-P2-B (4H)</t>
         </is>
       </c>
       <c r="Q29" s="3" t="inlineStr"/>
       <c r="R29" s="3" t="inlineStr"/>
       <c r="S29" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-B (4H)</t>
+          <t>S3-P3-B (10H)</t>
         </is>
       </c>
       <c r="T29" s="3" t="inlineStr"/>
@@ -6606,7 +6658,11 @@
       <c r="W29" s="3" t="inlineStr"/>
       <c r="X29" s="3" t="inlineStr"/>
       <c r="Y29" s="3" t="inlineStr"/>
-      <c r="Z29" s="3" t="inlineStr"/>
+      <c r="Z29" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-B (10H)</t>
+        </is>
+      </c>
       <c r="AA29" s="3" t="inlineStr"/>
       <c r="AB29" s="3" t="inlineStr"/>
       <c r="AC29" s="3" t="inlineStr"/>
@@ -6614,10 +6670,10 @@
       <c r="AE29" s="3" t="inlineStr"/>
       <c r="AF29" s="3" t="inlineStr"/>
       <c r="AG29" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH29" s="3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="36" customHeight="1">
@@ -6636,51 +6692,51 @@
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-C (4H)</t>
+          <t>S2-P1-C (8H)</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr"/>
       <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-C (10H)</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-C (8H)</t>
-        </is>
-      </c>
+      <c r="I30" s="3" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr"/>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-C (4H)</t>
-        </is>
-      </c>
-      <c r="L30" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-C (10H)</t>
-        </is>
-      </c>
+          <t>S2-P2-C (12H)</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr"/>
       <c r="M30" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-C (4H)</t>
+          <t>S3-P2-C (4H)</t>
         </is>
       </c>
       <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-C (8H)</t>
-        </is>
-      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-C (4H) | S3-P2-C (8H)</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr"/>
       <c r="Q30" s="3" t="inlineStr"/>
       <c r="R30" s="3" t="inlineStr"/>
       <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr"/>
-      <c r="U30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-C (8H)</t>
+        </is>
+      </c>
+      <c r="U30" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-C (4H)</t>
+        </is>
+      </c>
       <c r="V30" s="3" t="inlineStr"/>
       <c r="W30" s="3" t="inlineStr"/>
-      <c r="X30" s="3" t="inlineStr"/>
+      <c r="X30" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-C (4H)</t>
+        </is>
+      </c>
       <c r="Y30" s="3" t="inlineStr"/>
       <c r="Z30" s="3" t="inlineStr"/>
       <c r="AA30" s="3" t="inlineStr"/>
@@ -6693,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="AH30" s="3" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="36" customHeight="1">
@@ -6707,46 +6763,54 @@
           <t>P1-D:2, P2-D:2, P3-D:4, P4-D:3</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-D (4H)</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-D (12H)</t>
-        </is>
-      </c>
+      <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr"/>
       <c r="H31" s="3" t="inlineStr"/>
       <c r="I31" s="3" t="inlineStr"/>
       <c r="J31" s="3" t="inlineStr"/>
-      <c r="K31" s="3" t="inlineStr"/>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-D (4H)</t>
+        </is>
+      </c>
       <c r="L31" s="3" t="inlineStr">
         <is>
+          <t>S1-P3-D (10H)</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-D (8H)</t>
+        </is>
+      </c>
+      <c r="N31" s="3" t="inlineStr">
+        <is>
           <t>S2-P3-D (12H)</t>
         </is>
       </c>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
       <c r="O31" s="3" t="inlineStr"/>
       <c r="P31" s="3" t="inlineStr"/>
       <c r="Q31" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-D (4H)</t>
-        </is>
-      </c>
-      <c r="R31" s="3" t="inlineStr"/>
-      <c r="S31" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-D (4H)</t>
-        </is>
-      </c>
+          <t>S3-P3-D (12H)</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-D (8H)</t>
+        </is>
+      </c>
+      <c r="S31" s="3" t="inlineStr"/>
       <c r="T31" s="3" t="inlineStr"/>
       <c r="U31" s="3" t="inlineStr"/>
-      <c r="V31" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="V31" s="3" t="inlineStr"/>
       <c r="W31" s="3" t="inlineStr"/>
       <c r="X31" s="3" t="inlineStr"/>
       <c r="Y31" s="3" t="inlineStr"/>
@@ -6758,10 +6822,10 @@
       <c r="AE31" s="3" t="inlineStr"/>
       <c r="AF31" s="3" t="inlineStr"/>
       <c r="AG31" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH31" s="3" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="36" customHeight="1">
@@ -6776,51 +6840,47 @@
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-A (12H)</t>
-        </is>
-      </c>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-A (10H)</t>
-        </is>
-      </c>
+      <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr"/>
       <c r="H32" s="3" t="inlineStr"/>
       <c r="I32" s="3" t="inlineStr"/>
       <c r="J32" s="3" t="inlineStr"/>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-      <c r="M32" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-A (4H)</t>
-        </is>
-      </c>
-      <c r="N32" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="O32" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-A (8H)</t>
-        </is>
-      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-C (8H)</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr"/>
+      <c r="O32" s="3" t="inlineStr"/>
       <c r="P32" s="3" t="inlineStr"/>
-      <c r="Q32" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-A (12H)</t>
-        </is>
-      </c>
-      <c r="R32" s="3" t="inlineStr"/>
+      <c r="Q32" s="3" t="inlineStr"/>
+      <c r="R32" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-A (4H)</t>
+        </is>
+      </c>
       <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-A (4H)</t>
+        </is>
+      </c>
       <c r="U32" s="3" t="inlineStr"/>
       <c r="V32" s="3" t="inlineStr"/>
       <c r="W32" s="3" t="inlineStr"/>
-      <c r="X32" s="3" t="inlineStr"/>
+      <c r="X32" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-A (8H)</t>
+        </is>
+      </c>
       <c r="Y32" s="3" t="inlineStr"/>
       <c r="Z32" s="3" t="inlineStr"/>
       <c r="AA32" s="3" t="inlineStr"/>
@@ -6830,10 +6890,10 @@
       <c r="AE32" s="3" t="inlineStr"/>
       <c r="AF32" s="3" t="inlineStr"/>
       <c r="AG32" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH32" s="3" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="36" customHeight="1">
@@ -6848,73 +6908,49 @@
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-B (4H)</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-B (8H)</t>
-        </is>
-      </c>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-B (4H)</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-B (4H)</t>
-        </is>
-      </c>
+      <c r="H33" s="3" t="inlineStr"/>
       <c r="I33" s="3" t="inlineStr"/>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-B (8H)</t>
+          <t>S3-P1-B (10H)</t>
         </is>
       </c>
       <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-      <c r="M33" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-B (8H)</t>
-        </is>
-      </c>
-      <c r="N33" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-B (4H)</t>
-        </is>
-      </c>
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-B (4H)</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
       <c r="O33" s="3" t="inlineStr">
         <is>
-          <t>S3-P3-B (12H)</t>
+          <t>S2-P3-D (4H)</t>
         </is>
       </c>
       <c r="P33" s="3" t="inlineStr"/>
-      <c r="Q33" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-B (4H)</t>
-        </is>
-      </c>
+      <c r="Q33" s="3" t="inlineStr"/>
       <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-B (4H)</t>
-        </is>
-      </c>
+      <c r="S33" s="3" t="inlineStr"/>
       <c r="T33" s="3" t="inlineStr"/>
-      <c r="U33" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-B (10H)</t>
-        </is>
-      </c>
+      <c r="U33" s="3" t="inlineStr"/>
       <c r="V33" s="3" t="inlineStr"/>
       <c r="W33" s="3" t="inlineStr"/>
-      <c r="X33" s="3" t="inlineStr"/>
+      <c r="X33" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-B (8H)</t>
+        </is>
+      </c>
       <c r="Y33" s="3" t="inlineStr"/>
-      <c r="Z33" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-B (4H)</t>
-        </is>
-      </c>
+      <c r="Z33" s="3" t="inlineStr"/>
       <c r="AA33" s="3" t="inlineStr"/>
       <c r="AB33" s="3" t="inlineStr"/>
       <c r="AC33" s="3" t="inlineStr"/>
@@ -6922,10 +6958,10 @@
       <c r="AE33" s="3" t="inlineStr"/>
       <c r="AF33" s="3" t="inlineStr"/>
       <c r="AG33" s="3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AH33" s="3" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1">
@@ -6939,47 +6975,35 @@
           <t>P1-C:3, P2-C:2, P3-C:4, P4-C:3</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr"/>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-C (12H)</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-C (10H)</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-C (4H)</t>
-        </is>
-      </c>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>S2-P2-C (10H)</t>
+          <t>S2-P1-C (8H)</t>
         </is>
       </c>
       <c r="I34" s="3" t="inlineStr"/>
       <c r="J34" s="3" t="inlineStr"/>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-C (10H)</t>
-        </is>
-      </c>
+      <c r="K34" s="3" t="inlineStr"/>
       <c r="L34" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-C (8H)</t>
+          <t>S3-P1-C (12H)</t>
         </is>
       </c>
       <c r="M34" s="3" t="inlineStr"/>
       <c r="N34" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-C (12H)</t>
-        </is>
-      </c>
-      <c r="O34" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-C (8H)</t>
-        </is>
-      </c>
+          <t>S4-P1-C (12H)</t>
+        </is>
+      </c>
+      <c r="O34" s="3" t="inlineStr"/>
       <c r="P34" s="3" t="inlineStr"/>
       <c r="Q34" s="3" t="inlineStr"/>
       <c r="R34" s="3" t="inlineStr"/>
@@ -6988,7 +7012,11 @@
       <c r="U34" s="3" t="inlineStr"/>
       <c r="V34" s="3" t="inlineStr"/>
       <c r="W34" s="3" t="inlineStr"/>
-      <c r="X34" s="3" t="inlineStr"/>
+      <c r="X34" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-C (8H)</t>
+        </is>
+      </c>
       <c r="Y34" s="3" t="inlineStr"/>
       <c r="Z34" s="3" t="inlineStr"/>
       <c r="AA34" s="3" t="inlineStr"/>
@@ -6998,10 +7026,10 @@
       <c r="AE34" s="3" t="inlineStr"/>
       <c r="AF34" s="3" t="inlineStr"/>
       <c r="AG34" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH34" s="3" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="36" customHeight="1">
@@ -7015,51 +7043,27 @@
           <t>P1-D:4, P2-D:3, P3-D:2, P4-D:3</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-D (4H)</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-D (12H)</t>
-        </is>
-      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-D (10H)</t>
-        </is>
-      </c>
+      <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr"/>
       <c r="H35" s="3" t="inlineStr"/>
       <c r="I35" s="3" t="inlineStr"/>
       <c r="J35" s="3" t="inlineStr"/>
       <c r="K35" s="3" t="inlineStr"/>
-      <c r="L35" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-D (12H)</t>
-        </is>
-      </c>
+      <c r="L35" s="3" t="inlineStr"/>
       <c r="M35" s="3" t="inlineStr"/>
       <c r="N35" s="3" t="inlineStr"/>
       <c r="O35" s="3" t="inlineStr"/>
       <c r="P35" s="3" t="inlineStr"/>
-      <c r="Q35" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="Q35" s="3" t="inlineStr"/>
       <c r="R35" s="3" t="inlineStr"/>
       <c r="S35" s="3" t="inlineStr"/>
       <c r="T35" s="3" t="inlineStr"/>
       <c r="U35" s="3" t="inlineStr"/>
       <c r="V35" s="3" t="inlineStr"/>
-      <c r="W35" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="W35" s="3" t="inlineStr"/>
       <c r="X35" s="3" t="inlineStr"/>
       <c r="Y35" s="3" t="inlineStr"/>
       <c r="Z35" s="3" t="inlineStr"/>
@@ -7070,10 +7074,10 @@
       <c r="AE35" s="3" t="inlineStr"/>
       <c r="AF35" s="3" t="inlineStr"/>
       <c r="AG35" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="36" customHeight="1">
@@ -7097,47 +7101,47 @@
       <c r="J36" s="3" t="inlineStr"/>
       <c r="K36" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-A (8H) | S3-P2-A (4H)</t>
+          <t>S1-P3-A (8H)</t>
         </is>
       </c>
       <c r="L36" s="3" t="inlineStr"/>
-      <c r="M36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-A (12H)</t>
+        </is>
+      </c>
       <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-A (8H)</t>
-        </is>
-      </c>
+      <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="inlineStr"/>
       <c r="Q36" s="3" t="inlineStr"/>
       <c r="R36" s="3" t="inlineStr"/>
-      <c r="S36" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-A (10H)</t>
-        </is>
-      </c>
+      <c r="S36" s="3" t="inlineStr"/>
       <c r="T36" s="3" t="inlineStr"/>
       <c r="U36" s="3" t="inlineStr"/>
       <c r="V36" s="3" t="inlineStr"/>
-      <c r="W36" s="3" t="inlineStr"/>
-      <c r="X36" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-A (4H)</t>
-        </is>
-      </c>
+      <c r="W36" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-A (8H)</t>
+        </is>
+      </c>
+      <c r="X36" s="3" t="inlineStr"/>
       <c r="Y36" s="3" t="inlineStr"/>
       <c r="Z36" s="3" t="inlineStr"/>
       <c r="AA36" s="3" t="inlineStr"/>
       <c r="AB36" s="3" t="inlineStr"/>
       <c r="AC36" s="3" t="inlineStr"/>
-      <c r="AD36" s="3" t="inlineStr"/>
+      <c r="AD36" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="AE36" s="3" t="inlineStr"/>
       <c r="AF36" s="3" t="inlineStr"/>
       <c r="AG36" s="3" t="n">
         <v>4</v>
       </c>
       <c r="AH36" s="3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="36" customHeight="1">
@@ -7152,22 +7156,10 @@
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-B (12H)</t>
-        </is>
-      </c>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-B (10H)</t>
-        </is>
-      </c>
-      <c r="G37" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-B (8H)</t>
-        </is>
-      </c>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
       <c r="H37" s="3" t="inlineStr"/>
       <c r="I37" s="3" t="inlineStr"/>
       <c r="J37" s="3" t="inlineStr">
@@ -7175,15 +7167,23 @@
           <t>S3-P1-B (4H)</t>
         </is>
       </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-B (4H)</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-B (12H)</t>
+        </is>
+      </c>
       <c r="M37" s="3" t="inlineStr"/>
-      <c r="N37" s="3" t="inlineStr"/>
-      <c r="O37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-B (10H)</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-B (10H)</t>
+        </is>
+      </c>
       <c r="P37" s="3" t="inlineStr"/>
       <c r="Q37" s="3" t="inlineStr">
         <is>
@@ -7195,14 +7195,22 @@
       <c r="T37" s="3" t="inlineStr"/>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>S4-P4-B (8H)</t>
-        </is>
-      </c>
-      <c r="V37" s="3" t="inlineStr"/>
+          <t>S4-P3-B (12H)</t>
+        </is>
+      </c>
+      <c r="V37" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-B (10H)</t>
+        </is>
+      </c>
       <c r="W37" s="3" t="inlineStr"/>
       <c r="X37" s="3" t="inlineStr"/>
       <c r="Y37" s="3" t="inlineStr"/>
-      <c r="Z37" s="3" t="inlineStr"/>
+      <c r="Z37" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-B (4H)</t>
+        </is>
+      </c>
       <c r="AA37" s="3" t="inlineStr"/>
       <c r="AB37" s="3" t="inlineStr"/>
       <c r="AC37" s="3" t="inlineStr"/>
@@ -7210,10 +7218,10 @@
       <c r="AE37" s="3" t="inlineStr"/>
       <c r="AF37" s="3" t="inlineStr"/>
       <c r="AG37" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH37" s="3" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" ht="36" customHeight="1">
@@ -7230,50 +7238,50 @@
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-C (12H)</t>
-        </is>
-      </c>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-C (4H)</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-C (10H)</t>
-        </is>
-      </c>
-      <c r="I38" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-C (8H)</t>
-        </is>
-      </c>
+      <c r="F38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr"/>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-C (10H)</t>
+          <t>S2-P2-C (4H)</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="inlineStr"/>
-      <c r="M38" s="3" t="inlineStr"/>
-      <c r="N38" s="3" t="inlineStr"/>
-      <c r="O38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-C (8H)</t>
+        </is>
+      </c>
+      <c r="N38" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-C (8H)</t>
+        </is>
+      </c>
+      <c r="O38" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-C (12H)</t>
+        </is>
+      </c>
       <c r="P38" s="3" t="inlineStr"/>
       <c r="Q38" s="3" t="inlineStr"/>
-      <c r="R38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-C (8H)</t>
+        </is>
+      </c>
       <c r="S38" s="3" t="inlineStr"/>
       <c r="T38" s="3" t="inlineStr"/>
-      <c r="U38" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-C (10H)</t>
-        </is>
-      </c>
+      <c r="U38" s="3" t="inlineStr"/>
       <c r="V38" s="3" t="inlineStr"/>
       <c r="W38" s="3" t="inlineStr"/>
       <c r="X38" s="3" t="inlineStr"/>
-      <c r="Y38" s="3" t="inlineStr"/>
+      <c r="Y38" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-C (4H)</t>
+        </is>
+      </c>
       <c r="Z38" s="3" t="inlineStr"/>
       <c r="AA38" s="3" t="inlineStr"/>
       <c r="AB38" s="3" t="inlineStr"/>
@@ -7285,7 +7293,7 @@
         <v>6</v>
       </c>
       <c r="AH38" s="3" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="36" customHeight="1">
@@ -7301,15 +7309,19 @@
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-D (4H)</t>
-        </is>
-      </c>
+      <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr"/>
-      <c r="H39" s="3" t="inlineStr"/>
-      <c r="I39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-D (8H)</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-D (8H)</t>
+        </is>
+      </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
           <t>S3-P1-D (12H)</t>
@@ -7317,26 +7329,26 @@
       </c>
       <c r="K39" s="3" t="inlineStr"/>
       <c r="L39" s="3" t="inlineStr"/>
-      <c r="M39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-D (4H)</t>
+        </is>
+      </c>
       <c r="N39" s="3" t="inlineStr"/>
       <c r="O39" s="3" t="inlineStr"/>
       <c r="P39" s="3" t="inlineStr"/>
       <c r="Q39" s="3" t="inlineStr"/>
-      <c r="R39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="S39" s="3" t="inlineStr"/>
       <c r="T39" s="3" t="inlineStr"/>
-      <c r="U39" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="U39" s="3" t="inlineStr"/>
       <c r="V39" s="3" t="inlineStr"/>
       <c r="W39" s="3" t="inlineStr"/>
-      <c r="X39" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="X39" s="3" t="inlineStr"/>
       <c r="Y39" s="3" t="inlineStr"/>
       <c r="Z39" s="3" t="inlineStr"/>
       <c r="AA39" s="3" t="inlineStr"/>
@@ -7346,10 +7358,10 @@
       <c r="AE39" s="3" t="inlineStr"/>
       <c r="AF39" s="3" t="inlineStr"/>
       <c r="AG39" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH39" s="3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="36" customHeight="1">
@@ -7376,49 +7388,69 @@
       <c r="I40" s="3" t="inlineStr"/>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-A (4H) | S3-P1-A (8H)</t>
+          <t>S1-P3-A (4H)</t>
         </is>
       </c>
       <c r="K40" s="3" t="inlineStr"/>
       <c r="L40" s="3" t="inlineStr">
         <is>
+          <t>S3-P1-A (8H)</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-A (4H)</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="P40" s="3" t="inlineStr">
+        <is>
           <t>S2-P3-A (12H)</t>
-        </is>
-      </c>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="P40" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-A (10H)</t>
         </is>
       </c>
       <c r="Q40" s="3" t="inlineStr"/>
       <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-A (12H)</t>
+        </is>
+      </c>
       <c r="T40" s="3" t="inlineStr">
         <is>
-          <t>S3-P4-A (10H)</t>
-        </is>
-      </c>
-      <c r="U40" s="3" t="inlineStr"/>
+          <t>S3-P3-A (10H)</t>
+        </is>
+      </c>
+      <c r="U40" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-A (8H)</t>
+        </is>
+      </c>
       <c r="V40" s="3" t="inlineStr"/>
-      <c r="W40" s="3" t="inlineStr"/>
+      <c r="W40" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-A (8H)</t>
+        </is>
+      </c>
       <c r="X40" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-A (4H)</t>
-        </is>
-      </c>
-      <c r="Y40" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-A (8H)</t>
-        </is>
-      </c>
-      <c r="Z40" s="3" t="inlineStr"/>
+          <t>S4-P4-A (10H)</t>
+        </is>
+      </c>
+      <c r="Y40" s="3" t="inlineStr"/>
+      <c r="Z40" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-A (4H)</t>
+        </is>
+      </c>
       <c r="AA40" s="3" t="inlineStr"/>
       <c r="AB40" s="3" t="inlineStr"/>
       <c r="AC40" s="3" t="inlineStr"/>
@@ -7426,10 +7458,10 @@
       <c r="AE40" s="3" t="inlineStr"/>
       <c r="AF40" s="3" t="inlineStr"/>
       <c r="AG40" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH40" s="3" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" ht="36" customHeight="1">
@@ -7448,31 +7480,43 @@
       <c r="E41" s="3" t="inlineStr"/>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-B (4H)</t>
-        </is>
-      </c>
-      <c r="G41" s="3" t="inlineStr"/>
+          <t>S1-P2-B (8H)</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-B (12H)</t>
+        </is>
+      </c>
       <c r="H41" s="3" t="inlineStr"/>
       <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-B (12H)</t>
+        </is>
+      </c>
       <c r="K41" s="3" t="inlineStr"/>
       <c r="L41" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-B (12H)</t>
+          <t>S1-P3-B (4H)</t>
         </is>
       </c>
       <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
-      <c r="O41" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-B (4H)</t>
-        </is>
-      </c>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-B (4H)</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="inlineStr"/>
       <c r="P41" s="3" t="inlineStr"/>
       <c r="Q41" s="3" t="inlineStr"/>
       <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr"/>
-      <c r="T41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-B (8H)</t>
+        </is>
+      </c>
       <c r="U41" s="3" t="inlineStr"/>
       <c r="V41" s="3" t="inlineStr"/>
       <c r="W41" s="3" t="inlineStr"/>
@@ -7486,10 +7530,10 @@
       <c r="AE41" s="3" t="inlineStr"/>
       <c r="AF41" s="3" t="inlineStr"/>
       <c r="AG41" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH41" s="3" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="36" customHeight="1">
@@ -7506,47 +7550,43 @@
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-C (12H)</t>
+        </is>
+      </c>
       <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-C (12H)</t>
-        </is>
-      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-C (4H)</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr"/>
       <c r="J42" s="3" t="inlineStr"/>
       <c r="K42" s="3" t="inlineStr"/>
       <c r="L42" s="3" t="inlineStr"/>
       <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-C (4H)</t>
+        </is>
+      </c>
       <c r="O42" s="3" t="inlineStr"/>
       <c r="P42" s="3" t="inlineStr"/>
       <c r="Q42" s="3" t="inlineStr"/>
-      <c r="R42" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-C (12H)</t>
-        </is>
-      </c>
+      <c r="R42" s="3" t="inlineStr"/>
       <c r="S42" s="3" t="inlineStr"/>
       <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-C (12H)</t>
-        </is>
-      </c>
+      <c r="U42" s="3" t="inlineStr"/>
       <c r="V42" s="3" t="inlineStr"/>
       <c r="W42" s="3" t="inlineStr"/>
       <c r="X42" s="3" t="inlineStr">
         <is>
-          <t>S4-P4-C (4H)</t>
+          <t>S4-P4-C (12H)</t>
         </is>
       </c>
       <c r="Y42" s="3" t="inlineStr"/>
-      <c r="Z42" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-C (8H)</t>
-        </is>
-      </c>
+      <c r="Z42" s="3" t="inlineStr"/>
       <c r="AA42" s="3" t="inlineStr"/>
       <c r="AB42" s="3" t="inlineStr"/>
       <c r="AC42" s="3" t="inlineStr"/>
@@ -7554,10 +7594,10 @@
       <c r="AE42" s="3" t="inlineStr"/>
       <c r="AF42" s="3" t="inlineStr"/>
       <c r="AG42" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH42" s="3" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="36" customHeight="1">
@@ -7571,49 +7611,45 @@
           <t>P1-D:2, P2-D:3, P3-D:3, P4-D:4</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-D (12H)</t>
-        </is>
-      </c>
+      <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-D (8H)</t>
-        </is>
-      </c>
+      <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr"/>
       <c r="H43" s="3" t="inlineStr"/>
       <c r="I43" s="3" t="inlineStr"/>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-D (12H)</t>
+          <t>S2-P2-D (8H)</t>
         </is>
       </c>
       <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-D (12H)</t>
-        </is>
-      </c>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-D (4H)</t>
+        </is>
+      </c>
+      <c r="N43" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-D (10H)</t>
+        </is>
+      </c>
       <c r="O43" s="3" t="inlineStr"/>
       <c r="P43" s="3" t="inlineStr"/>
       <c r="Q43" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-D (4H)</t>
+          <t>S3-P3-D (8H)</t>
         </is>
       </c>
       <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr">
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr">
         <is>
           <t>S2-P4-D (4H)</t>
         </is>
       </c>
-      <c r="U43" s="3" t="inlineStr"/>
       <c r="V43" s="3" t="inlineStr"/>
       <c r="W43" s="3" t="inlineStr"/>
       <c r="X43" s="3" t="inlineStr"/>
@@ -7622,14 +7658,18 @@
       <c r="AA43" s="3" t="inlineStr"/>
       <c r="AB43" s="3" t="inlineStr"/>
       <c r="AC43" s="3" t="inlineStr"/>
-      <c r="AD43" s="3" t="inlineStr"/>
+      <c r="AD43" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="AE43" s="3" t="inlineStr"/>
       <c r="AF43" s="3" t="inlineStr"/>
       <c r="AG43" s="3" t="n">
         <v>6</v>
       </c>
       <c r="AH43" s="3" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="36" customHeight="1">
@@ -7643,51 +7683,51 @@
           <t>P1-A:3, P2-A:2, P3-A:3, P4-A:4</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-A (12H)</t>
-        </is>
-      </c>
+      <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-A (4H)</t>
+        </is>
+      </c>
       <c r="H44" s="3" t="inlineStr"/>
       <c r="I44" s="3" t="inlineStr"/>
       <c r="J44" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-A (12H)</t>
-        </is>
-      </c>
-      <c r="K44" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr"/>
+          <t>S2-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-A (4H)</t>
+        </is>
+      </c>
       <c r="N44" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-A (4H)</t>
-        </is>
-      </c>
-      <c r="O44" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-A (4H)</t>
-        </is>
-      </c>
+          <t>S1-P4-A (10H)</t>
+        </is>
+      </c>
+      <c r="O44" s="3" t="inlineStr"/>
       <c r="P44" s="3" t="inlineStr"/>
       <c r="Q44" s="3" t="inlineStr"/>
-      <c r="R44" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-A (12H)</t>
-        </is>
-      </c>
+      <c r="R44" s="3" t="inlineStr"/>
       <c r="S44" s="3" t="inlineStr"/>
       <c r="T44" s="3" t="inlineStr"/>
       <c r="U44" s="3" t="inlineStr"/>
       <c r="V44" s="3" t="inlineStr"/>
-      <c r="W44" s="3" t="inlineStr"/>
+      <c r="W44" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-A (4H)</t>
+        </is>
+      </c>
       <c r="X44" s="3" t="inlineStr"/>
       <c r="Y44" s="3" t="inlineStr"/>
       <c r="Z44" s="3" t="inlineStr"/>
@@ -7701,7 +7741,7 @@
         <v>6</v>
       </c>
       <c r="AH44" s="3" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="36" customHeight="1">
@@ -7718,42 +7758,50 @@
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-B (12H)</t>
+        </is>
+      </c>
       <c r="G45" s="3" t="inlineStr"/>
       <c r="H45" s="3" t="inlineStr"/>
       <c r="I45" s="3" t="inlineStr"/>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-B (8H)</t>
-        </is>
-      </c>
+      <c r="J45" s="3" t="inlineStr"/>
       <c r="K45" s="3" t="inlineStr"/>
-      <c r="L45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-B (4H)</t>
+        </is>
+      </c>
       <c r="M45" s="3" t="inlineStr"/>
-      <c r="N45" s="3" t="inlineStr"/>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-B (12H)</t>
-        </is>
-      </c>
+      <c r="N45" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-B (4H)</t>
+        </is>
+      </c>
+      <c r="O45" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-B (4H)</t>
+        </is>
+      </c>
+      <c r="P45" s="3" t="inlineStr"/>
       <c r="Q45" s="3" t="inlineStr"/>
       <c r="R45" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-B (12H)</t>
+          <t>S4-P2-B (10H)</t>
         </is>
       </c>
       <c r="S45" s="3" t="inlineStr"/>
       <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-B (12H)</t>
-        </is>
-      </c>
+      <c r="U45" s="3" t="inlineStr"/>
       <c r="V45" s="3" t="inlineStr"/>
       <c r="W45" s="3" t="inlineStr"/>
       <c r="X45" s="3" t="inlineStr"/>
-      <c r="Y45" s="3" t="inlineStr"/>
+      <c r="Y45" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-B (10H)</t>
+        </is>
+      </c>
       <c r="Z45" s="3" t="inlineStr"/>
       <c r="AA45" s="3" t="inlineStr"/>
       <c r="AB45" s="3" t="inlineStr"/>
@@ -7762,7 +7810,7 @@
       <c r="AE45" s="3" t="inlineStr"/>
       <c r="AF45" s="3" t="inlineStr"/>
       <c r="AG45" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH45" s="3" t="n">
         <v>44</v>
@@ -7781,59 +7829,51 @@
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-C (8H)</t>
-        </is>
-      </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-C (12H)</t>
-        </is>
-      </c>
+      <c r="E46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr"/>
       <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-C (10H)</t>
-        </is>
-      </c>
+      <c r="I46" s="3" t="inlineStr"/>
       <c r="J46" s="3" t="inlineStr"/>
       <c r="K46" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-C (4H)</t>
+          <t>S2-P2-C (12H)</t>
         </is>
       </c>
       <c r="L46" s="3" t="inlineStr"/>
-      <c r="M46" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-C (4H)</t>
-        </is>
-      </c>
+      <c r="M46" s="3" t="inlineStr"/>
       <c r="N46" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-C (4H)</t>
-        </is>
-      </c>
-      <c r="O46" s="3" t="inlineStr"/>
+          <t>S1-P4-C (12H)</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-C (8H)</t>
+        </is>
+      </c>
       <c r="P46" s="3" t="inlineStr"/>
-      <c r="Q46" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-C (12H)</t>
-        </is>
-      </c>
+      <c r="Q46" s="3" t="inlineStr"/>
       <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-C (10H)</t>
-        </is>
-      </c>
-      <c r="T46" s="3" t="inlineStr"/>
-      <c r="U46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr"/>
+      <c r="T46" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-C (12H)</t>
+        </is>
+      </c>
+      <c r="U46" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-C (12H)</t>
+        </is>
+      </c>
       <c r="V46" s="3" t="inlineStr"/>
       <c r="W46" s="3" t="inlineStr"/>
       <c r="X46" s="3" t="inlineStr"/>
-      <c r="Y46" s="3" t="inlineStr"/>
+      <c r="Y46" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-C (8H)</t>
+        </is>
+      </c>
       <c r="Z46" s="3" t="inlineStr"/>
       <c r="AA46" s="3" t="inlineStr"/>
       <c r="AB46" s="3" t="inlineStr"/>
@@ -7842,7 +7882,7 @@
       <c r="AE46" s="3" t="inlineStr"/>
       <c r="AF46" s="3" t="inlineStr"/>
       <c r="AG46" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH46" s="3" t="n">
         <v>64</v>
@@ -7860,54 +7900,42 @@
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-D (12H)</t>
-        </is>
-      </c>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr"/>
       <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-D (4H)</t>
-        </is>
-      </c>
+      <c r="G47" s="3" t="inlineStr"/>
       <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-D (10H)</t>
-        </is>
-      </c>
+      <c r="I47" s="3" t="inlineStr"/>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>S2-P2-D (4H)</t>
+          <t>S2-P2-D (12H)</t>
         </is>
       </c>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="inlineStr"/>
       <c r="M47" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-D (8H)</t>
+          <t>S4-P1-D (4H)</t>
         </is>
       </c>
       <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-D (4H)</t>
-        </is>
-      </c>
-      <c r="P47" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-D (12H)</t>
-        </is>
-      </c>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr"/>
       <c r="Q47" s="3" t="inlineStr"/>
       <c r="R47" s="3" t="inlineStr"/>
       <c r="S47" s="3" t="inlineStr"/>
-      <c r="T47" s="3" t="inlineStr"/>
+      <c r="T47" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="U47" s="3" t="inlineStr"/>
       <c r="V47" s="3" t="inlineStr"/>
-      <c r="W47" s="3" t="inlineStr"/>
+      <c r="W47" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="X47" s="3" t="inlineStr"/>
       <c r="Y47" s="3" t="inlineStr"/>
       <c r="Z47" s="3" t="inlineStr"/>
@@ -7918,10 +7946,10 @@
       <c r="AE47" s="3" t="inlineStr"/>
       <c r="AF47" s="3" t="inlineStr"/>
       <c r="AG47" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH47" s="3" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="36" customHeight="1">
@@ -7937,53 +7965,37 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>S1-P1-A (12H)</t>
+          <t>S1-P1-A (8H)</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-A (4H)</t>
-        </is>
-      </c>
+      <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
       <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-C (4H)</t>
-        </is>
-      </c>
+      <c r="I48" s="3" t="inlineStr"/>
       <c r="J48" s="3" t="inlineStr"/>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="inlineStr"/>
       <c r="M48" s="3" t="inlineStr"/>
       <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-C (4H)</t>
-        </is>
-      </c>
+      <c r="O48" s="3" t="inlineStr"/>
       <c r="P48" s="3" t="inlineStr"/>
       <c r="Q48" s="3" t="inlineStr"/>
       <c r="R48" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-C (8H)</t>
-        </is>
-      </c>
-      <c r="S48" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-C (4H)</t>
-        </is>
-      </c>
-      <c r="T48" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-C (12H)</t>
-        </is>
-      </c>
+          <t>S2-P3-C (10H)</t>
+        </is>
+      </c>
+      <c r="S48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr"/>
       <c r="U48" s="3" t="inlineStr"/>
       <c r="V48" s="3" t="inlineStr"/>
-      <c r="W48" s="3" t="inlineStr"/>
+      <c r="W48" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-C (12H)</t>
+        </is>
+      </c>
       <c r="X48" s="3" t="inlineStr"/>
       <c r="Y48" s="3" t="inlineStr"/>
       <c r="Z48" s="3" t="inlineStr"/>
@@ -7994,10 +8006,10 @@
       <c r="AE48" s="3" t="inlineStr"/>
       <c r="AF48" s="3" t="inlineStr"/>
       <c r="AG48" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AH48" s="3" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="36" customHeight="1">
@@ -8016,48 +8028,52 @@
       <c r="E49" s="3" t="inlineStr"/>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-B (8H)</t>
+          <t>S2-P1-B (12H)</t>
         </is>
       </c>
       <c r="G49" s="3" t="inlineStr"/>
       <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-B (12H)</t>
-        </is>
-      </c>
+      <c r="I49" s="3" t="inlineStr"/>
       <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-B (12H)</t>
+        </is>
+      </c>
       <c r="L49" s="3" t="inlineStr"/>
-      <c r="M49" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-D (4H)</t>
-        </is>
-      </c>
+      <c r="M49" s="3" t="inlineStr"/>
       <c r="N49" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-B (4H)</t>
+          <t>S2-P3-D (12H)</t>
         </is>
       </c>
       <c r="O49" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-D (10H)</t>
-        </is>
-      </c>
-      <c r="P49" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-D (10H)</t>
-        </is>
-      </c>
+          <t>S1-P4-D (4H)</t>
+        </is>
+      </c>
+      <c r="P49" s="3" t="inlineStr"/>
       <c r="Q49" s="3" t="inlineStr"/>
       <c r="R49" s="3" t="inlineStr"/>
       <c r="S49" s="3" t="inlineStr"/>
-      <c r="T49" s="3" t="inlineStr"/>
+      <c r="T49" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="U49" s="3" t="inlineStr"/>
       <c r="V49" s="3" t="inlineStr"/>
-      <c r="W49" s="3" t="inlineStr"/>
+      <c r="W49" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="X49" s="3" t="inlineStr"/>
-      <c r="Y49" s="3" t="inlineStr"/>
+      <c r="Y49" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="Z49" s="3" t="inlineStr"/>
       <c r="AA49" s="3" t="inlineStr"/>
       <c r="AB49" s="3" t="inlineStr"/>
@@ -8066,10 +8082,10 @@
       <c r="AE49" s="3" t="inlineStr"/>
       <c r="AF49" s="3" t="inlineStr"/>
       <c r="AG49" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH49" s="3" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="36" customHeight="1">
@@ -8085,7 +8101,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>S1-P1-C (12H)</t>
+          <t>S1-P1-C (4H)</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
@@ -8093,14 +8109,10 @@
       <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr"/>
       <c r="H50" s="3" t="inlineStr"/>
-      <c r="I50" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-C (4H)</t>
-        </is>
-      </c>
+      <c r="I50" s="3" t="inlineStr"/>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-C (8H)</t>
+          <t>S3-P1-C (4H)</t>
         </is>
       </c>
       <c r="K50" s="3" t="inlineStr"/>
@@ -8110,27 +8122,23 @@
       <c r="O50" s="3" t="inlineStr"/>
       <c r="P50" s="3" t="inlineStr"/>
       <c r="Q50" s="3" t="inlineStr"/>
-      <c r="R50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-C (4H)</t>
+        </is>
+      </c>
       <c r="S50" s="3" t="inlineStr"/>
       <c r="T50" s="3" t="inlineStr"/>
       <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-A (4H)</t>
+        </is>
+      </c>
       <c r="W50" s="3" t="inlineStr"/>
-      <c r="X50" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-A (10H)</t>
-        </is>
-      </c>
-      <c r="Y50" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-A (8H)</t>
-        </is>
-      </c>
-      <c r="Z50" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-A (12H)</t>
-        </is>
-      </c>
+      <c r="X50" s="3" t="inlineStr"/>
+      <c r="Y50" s="3" t="inlineStr"/>
+      <c r="Z50" s="3" t="inlineStr"/>
       <c r="AA50" s="3" t="inlineStr"/>
       <c r="AB50" s="3" t="inlineStr"/>
       <c r="AC50" s="3" t="inlineStr"/>
@@ -8138,10 +8146,10 @@
       <c r="AE50" s="3" t="inlineStr"/>
       <c r="AF50" s="3" t="inlineStr"/>
       <c r="AG50" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH50" s="3" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="36" customHeight="1">
@@ -8159,38 +8167,54 @@
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr"/>
       <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-D (12H)</t>
-        </is>
-      </c>
+      <c r="G51" s="3" t="inlineStr"/>
       <c r="H51" s="3" t="inlineStr"/>
       <c r="I51" s="3" t="inlineStr"/>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>S2-P2-D (8H)</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr"/>
+          <t>S1-P3-B (10H)</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-B (4H)</t>
+        </is>
+      </c>
       <c r="L51" s="3" t="inlineStr"/>
-      <c r="M51" s="3" t="inlineStr"/>
+      <c r="M51" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-D (4H)</t>
+        </is>
+      </c>
       <c r="N51" s="3" t="inlineStr"/>
       <c r="O51" s="3" t="inlineStr"/>
       <c r="P51" s="3" t="inlineStr"/>
       <c r="Q51" s="3" t="inlineStr"/>
-      <c r="R51" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-B (8H)</t>
-        </is>
-      </c>
+      <c r="R51" s="3" t="inlineStr"/>
       <c r="S51" s="3" t="inlineStr"/>
       <c r="T51" s="3" t="inlineStr"/>
-      <c r="U51" s="3" t="inlineStr"/>
-      <c r="V51" s="3" t="inlineStr"/>
+      <c r="U51" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-B (4H)</t>
+        </is>
+      </c>
+      <c r="V51" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-B (10H)</t>
+        </is>
+      </c>
       <c r="W51" s="3" t="inlineStr"/>
       <c r="X51" s="3" t="inlineStr"/>
-      <c r="Y51" s="3" t="inlineStr"/>
-      <c r="Z51" s="3" t="inlineStr"/>
+      <c r="Y51" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-B (4H)</t>
+        </is>
+      </c>
+      <c r="Z51" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-B (4H)</t>
+        </is>
+      </c>
       <c r="AA51" s="3" t="inlineStr"/>
       <c r="AB51" s="3" t="inlineStr"/>
       <c r="AC51" s="3" t="inlineStr"/>
@@ -8198,10 +8222,10 @@
       <c r="AE51" s="3" t="inlineStr"/>
       <c r="AF51" s="3" t="inlineStr"/>
       <c r="AG51" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH51" s="3" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="36" customHeight="1">
@@ -8220,52 +8244,52 @@
       <c r="E52" s="3" t="inlineStr"/>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-A (10H)</t>
+          <t>S2-P1-A (12H)</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr"/>
       <c r="H52" s="3" t="inlineStr"/>
       <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-A (10H)</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-A (4H)</t>
-        </is>
-      </c>
+      <c r="J52" s="3" t="inlineStr"/>
+      <c r="K52" s="3" t="inlineStr"/>
       <c r="L52" s="3" t="inlineStr"/>
-      <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="3" t="inlineStr"/>
+      <c r="M52" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-A (8H)</t>
+        </is>
+      </c>
+      <c r="N52" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-A (4H)</t>
+        </is>
+      </c>
       <c r="O52" s="3" t="inlineStr"/>
-      <c r="P52" s="3" t="inlineStr"/>
-      <c r="Q52" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-A (10H)</t>
-        </is>
-      </c>
-      <c r="R52" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-A (8H)</t>
-        </is>
-      </c>
+      <c r="P52" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="Q52" s="3" t="inlineStr"/>
+      <c r="R52" s="3" t="inlineStr"/>
       <c r="S52" s="3" t="inlineStr"/>
       <c r="T52" s="3" t="inlineStr"/>
-      <c r="U52" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-A (4H)</t>
-        </is>
-      </c>
-      <c r="V52" s="3" t="inlineStr"/>
+      <c r="U52" s="3" t="inlineStr"/>
+      <c r="V52" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-A (4H)</t>
+        </is>
+      </c>
       <c r="W52" s="3" t="inlineStr"/>
       <c r="X52" s="3" t="inlineStr">
         <is>
-          <t>S3-P4-A (12H)</t>
-        </is>
-      </c>
-      <c r="Y52" s="3" t="inlineStr"/>
+          <t>S4-P4-A (4H)</t>
+        </is>
+      </c>
+      <c r="Y52" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-A (8H)</t>
+        </is>
+      </c>
       <c r="Z52" s="3" t="inlineStr"/>
       <c r="AA52" s="3" t="inlineStr"/>
       <c r="AB52" s="3" t="inlineStr"/>
@@ -8277,7 +8301,7 @@
         <v>7</v>
       </c>
       <c r="AH52" s="3" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="36" customHeight="1">
@@ -8291,47 +8315,51 @@
           <t>P1-B:4, P2-B:3, P3-B:3, P4-B:2</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-B (12H)</t>
-        </is>
-      </c>
+      <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="inlineStr"/>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-B (8H)</t>
+        </is>
+      </c>
       <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr"/>
       <c r="H53" s="3" t="inlineStr"/>
       <c r="I53" s="3" t="inlineStr"/>
-      <c r="J53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-B (10H)</t>
+        </is>
+      </c>
       <c r="K53" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-B (8H)</t>
-        </is>
-      </c>
-      <c r="L53" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-B (12H)</t>
-        </is>
-      </c>
+          <t>S3-P1-B (12H)</t>
+        </is>
+      </c>
+      <c r="L53" s="3" t="inlineStr"/>
       <c r="M53" s="3" t="inlineStr"/>
       <c r="N53" s="3" t="inlineStr"/>
       <c r="O53" s="3" t="inlineStr"/>
-      <c r="P53" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-B (10H)</t>
-        </is>
-      </c>
+      <c r="P53" s="3" t="inlineStr"/>
       <c r="Q53" s="3" t="inlineStr"/>
       <c r="R53" s="3" t="inlineStr"/>
       <c r="S53" s="3" t="inlineStr"/>
-      <c r="T53" s="3" t="inlineStr"/>
+      <c r="T53" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-B (12H)</t>
+        </is>
+      </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>S4-P4-B (8H)</t>
+          <t>S3-P3-B (10H)</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr"/>
-      <c r="W53" s="3" t="inlineStr"/>
+      <c r="W53" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-B (10H)</t>
+        </is>
+      </c>
       <c r="X53" s="3" t="inlineStr"/>
       <c r="Y53" s="3" t="inlineStr"/>
       <c r="Z53" s="3" t="inlineStr"/>
@@ -8342,10 +8370,10 @@
       <c r="AE53" s="3" t="inlineStr"/>
       <c r="AF53" s="3" t="inlineStr"/>
       <c r="AG53" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH53" s="3" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1">
@@ -8361,50 +8389,54 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>S1-P1-C (8H)</t>
+          <t>S1-P1-C (10H)</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr"/>
       <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr"/>
-      <c r="H54" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-C (10H)</t>
-        </is>
-      </c>
+      <c r="H54" s="3" t="inlineStr"/>
       <c r="I54" s="3" t="inlineStr"/>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-C (12H)</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
-      <c r="M54" s="3" t="inlineStr"/>
+          <t>S2-P2-C (8H)</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-C (8H)</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-C (4H)</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-C (4H)</t>
+        </is>
+      </c>
       <c r="N54" s="3" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-C (4H)</t>
-        </is>
-      </c>
+      <c r="O54" s="3" t="inlineStr"/>
       <c r="P54" s="3" t="inlineStr"/>
       <c r="Q54" s="3" t="inlineStr"/>
       <c r="R54" s="3" t="inlineStr">
         <is>
+          <t>S4-P2-C (4H)</t>
+        </is>
+      </c>
+      <c r="S54" s="3" t="inlineStr"/>
+      <c r="T54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="inlineStr">
+        <is>
           <t>S3-P3-C (4H)</t>
         </is>
       </c>
-      <c r="S54" s="3" t="inlineStr"/>
-      <c r="T54" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-C (10H)</t>
-        </is>
-      </c>
-      <c r="U54" s="3" t="inlineStr"/>
       <c r="V54" s="3" t="inlineStr">
         <is>
-          <t>S3-P4-C (4H)</t>
+          <t>S4-P3-C (4H)</t>
         </is>
       </c>
       <c r="W54" s="3" t="inlineStr"/>
@@ -8418,10 +8450,10 @@
       <c r="AE54" s="3" t="inlineStr"/>
       <c r="AF54" s="3" t="inlineStr"/>
       <c r="AG54" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH54" s="3" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="36" customHeight="1">
@@ -8435,7 +8467,11 @@
           <t>P1-D:3, P2-D:3, P3-D:4, P4-D:2</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr"/>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-D (8H)</t>
+        </is>
+      </c>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr"/>
       <c r="F55" s="3" t="inlineStr"/>
@@ -8445,35 +8481,27 @@
       <c r="J55" s="3" t="inlineStr"/>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-D (10H)</t>
+          <t>S1-P3-D (4H)</t>
         </is>
       </c>
       <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-D (4H)</t>
-        </is>
-      </c>
+      <c r="M55" s="3" t="inlineStr"/>
       <c r="N55" s="3" t="inlineStr"/>
-      <c r="O55" s="3" t="inlineStr"/>
-      <c r="P55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-D (12H)</t>
+        </is>
+      </c>
+      <c r="P55" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-D (8H)</t>
+        </is>
+      </c>
       <c r="Q55" s="3" t="inlineStr"/>
-      <c r="R55" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-D (10H)</t>
-        </is>
-      </c>
-      <c r="S55" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr"/>
       <c r="T55" s="3" t="inlineStr"/>
-      <c r="U55" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="U55" s="3" t="inlineStr"/>
       <c r="V55" s="3" t="inlineStr"/>
       <c r="W55" s="3" t="inlineStr"/>
       <c r="X55" s="3" t="inlineStr"/>
@@ -8486,7 +8514,7 @@
       <c r="AE55" s="3" t="inlineStr"/>
       <c r="AF55" s="3" t="inlineStr"/>
       <c r="AG55" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH55" s="3" t="n">
         <v>32</v>
@@ -8504,53 +8532,61 @@
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
-      <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-A (10H)</t>
-        </is>
-      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-A (4H)</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr"/>
       <c r="F56" s="3" t="inlineStr"/>
-      <c r="G56" s="3" t="inlineStr"/>
-      <c r="H56" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-A (4H)</t>
-        </is>
-      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-A (12H)</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr"/>
       <c r="I56" s="3" t="inlineStr"/>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-A (12H)</t>
-        </is>
-      </c>
+      <c r="J56" s="3" t="inlineStr"/>
       <c r="K56" s="3" t="inlineStr"/>
-      <c r="L56" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-C (12H)</t>
-        </is>
-      </c>
-      <c r="M56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
+      <c r="M56" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-A (10H)</t>
+        </is>
+      </c>
       <c r="N56" s="3" t="inlineStr"/>
       <c r="O56" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-A (4H)</t>
+          <t>S3-P2-A (4H)</t>
         </is>
       </c>
       <c r="P56" s="3" t="inlineStr"/>
-      <c r="Q56" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-A (12H)</t>
-        </is>
-      </c>
+      <c r="Q56" s="3" t="inlineStr"/>
       <c r="R56" s="3" t="inlineStr"/>
       <c r="S56" s="3" t="inlineStr"/>
-      <c r="T56" s="3" t="inlineStr"/>
-      <c r="U56" s="3" t="inlineStr"/>
+      <c r="T56" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-A (4H)</t>
+        </is>
+      </c>
+      <c r="U56" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-A (4H)</t>
+        </is>
+      </c>
       <c r="V56" s="3" t="inlineStr"/>
-      <c r="W56" s="3" t="inlineStr"/>
+      <c r="W56" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-A (12H)</t>
+        </is>
+      </c>
       <c r="X56" s="3" t="inlineStr"/>
       <c r="Y56" s="3" t="inlineStr"/>
-      <c r="Z56" s="3" t="inlineStr"/>
+      <c r="Z56" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-A (4H)</t>
+        </is>
+      </c>
       <c r="AA56" s="3" t="inlineStr"/>
       <c r="AB56" s="3" t="inlineStr"/>
       <c r="AC56" s="3" t="inlineStr"/>
@@ -8558,7 +8594,7 @@
       <c r="AE56" s="3" t="inlineStr"/>
       <c r="AF56" s="3" t="inlineStr"/>
       <c r="AG56" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH56" s="3" t="n">
         <v>54</v>
@@ -8575,59 +8611,63 @@
           <t>P1-B:2, P2-B:3, P3-B:4, P3-D:2, P4-B:3</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-B (12H)</t>
-        </is>
-      </c>
+      <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-B (4H)</t>
-        </is>
-      </c>
+      <c r="E57" s="3" t="inlineStr"/>
       <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr"/>
       <c r="H57" s="3" t="inlineStr"/>
       <c r="I57" s="3" t="inlineStr"/>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-D (4H)</t>
+          <t>S2-P2-B (10H)</t>
         </is>
       </c>
       <c r="K57" s="3" t="inlineStr">
         <is>
-          <t>S2-P2-B (8H)</t>
+          <t>S1-P3-D (8H)</t>
         </is>
       </c>
       <c r="L57" s="3" t="inlineStr"/>
-      <c r="M57" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-B (12H)</t>
-        </is>
-      </c>
-      <c r="N57" s="3" t="inlineStr"/>
-      <c r="O57" s="3" t="inlineStr"/>
-      <c r="P57" s="3" t="inlineStr"/>
-      <c r="Q57" s="3" t="inlineStr"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-B (4H)</t>
+        </is>
+      </c>
+      <c r="O57" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-B (12H)</t>
+        </is>
+      </c>
+      <c r="P57" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-B (10H)</t>
+        </is>
+      </c>
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-B (10H)</t>
+        </is>
+      </c>
       <c r="R57" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-D (8H)</t>
-        </is>
-      </c>
-      <c r="S57" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-D (4H)</t>
-        </is>
-      </c>
+          <t>S4-P2-B (4H)</t>
+        </is>
+      </c>
+      <c r="S57" s="3" t="inlineStr"/>
       <c r="T57" s="3" t="inlineStr">
         <is>
-          <t>S3-P4-B (4H)</t>
+          <t>S1-P4-B (10H)</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr"/>
       <c r="V57" s="3" t="inlineStr"/>
-      <c r="W57" s="3" t="inlineStr"/>
+      <c r="W57" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-B (8H)</t>
+        </is>
+      </c>
       <c r="X57" s="3" t="inlineStr"/>
       <c r="Y57" s="3" t="inlineStr"/>
       <c r="Z57" s="3" t="inlineStr"/>
@@ -8638,10 +8678,10 @@
       <c r="AE57" s="3" t="inlineStr"/>
       <c r="AF57" s="3" t="inlineStr"/>
       <c r="AG57" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH57" s="3" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" ht="36" customHeight="1">
@@ -8656,58 +8696,46 @@
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-C (10H)</t>
-        </is>
-      </c>
+      <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="3" t="inlineStr"/>
-      <c r="G58" s="3" t="inlineStr"/>
-      <c r="H58" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-C (8H)</t>
-        </is>
-      </c>
-      <c r="I58" s="3" t="inlineStr"/>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-C (4H)</t>
-        </is>
-      </c>
-      <c r="K58" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-C (12H)</t>
-        </is>
-      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-C (12H)</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-C (4H)</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr"/>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-C (8H)</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr"/>
+      <c r="K58" s="3" t="inlineStr"/>
       <c r="L58" s="3" t="inlineStr"/>
       <c r="M58" s="3" t="inlineStr"/>
-      <c r="N58" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-C (12H)</t>
-        </is>
-      </c>
-      <c r="O58" s="3" t="inlineStr"/>
-      <c r="P58" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-C (12H)</t>
-        </is>
-      </c>
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-C (8H)</t>
+        </is>
+      </c>
+      <c r="P58" s="3" t="inlineStr"/>
       <c r="Q58" s="3" t="inlineStr"/>
       <c r="R58" s="3" t="inlineStr"/>
       <c r="S58" s="3" t="inlineStr"/>
-      <c r="T58" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-C (12H)</t>
-        </is>
-      </c>
-      <c r="U58" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-C (12H)</t>
-        </is>
-      </c>
+      <c r="T58" s="3" t="inlineStr"/>
+      <c r="U58" s="3" t="inlineStr"/>
       <c r="V58" s="3" t="inlineStr"/>
-      <c r="W58" s="3" t="inlineStr"/>
+      <c r="W58" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-C (4H)</t>
+        </is>
+      </c>
       <c r="X58" s="3" t="inlineStr"/>
       <c r="Y58" s="3" t="inlineStr"/>
       <c r="Z58" s="3" t="inlineStr"/>
@@ -8718,10 +8746,10 @@
       <c r="AE58" s="3" t="inlineStr"/>
       <c r="AF58" s="3" t="inlineStr"/>
       <c r="AG58" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH58" s="3" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="36" customHeight="1">
@@ -8735,41 +8763,33 @@
           <t>P1-D:4, P2-D:2, P3-D:3, P4-D:3</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-D (8H)</t>
-        </is>
-      </c>
+      <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr"/>
       <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr"/>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-D (4H)</t>
-        </is>
-      </c>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-D (12H)</t>
-        </is>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-D (4H)</t>
-        </is>
-      </c>
+      <c r="H59" s="3" t="inlineStr"/>
+      <c r="I59" s="3" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr"/>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="inlineStr"/>
       <c r="M59" s="3" t="inlineStr"/>
-      <c r="N59" s="3" t="inlineStr"/>
-      <c r="O59" s="3" t="inlineStr"/>
-      <c r="P59" s="3" t="inlineStr"/>
-      <c r="Q59" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="N59" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-D (8H)</t>
+        </is>
+      </c>
+      <c r="O59" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-D (4H)</t>
+        </is>
+      </c>
+      <c r="P59" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-D (8H)</t>
+        </is>
+      </c>
+      <c r="Q59" s="3" t="inlineStr"/>
       <c r="R59" s="3" t="inlineStr">
         <is>
           <t>S3-P3-D (10H)</t>
@@ -8777,27 +8797,31 @@
       </c>
       <c r="S59" s="3" t="inlineStr"/>
       <c r="T59" s="3" t="inlineStr"/>
-      <c r="U59" s="3" t="inlineStr"/>
+      <c r="U59" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="V59" s="3" t="inlineStr"/>
       <c r="W59" s="3" t="inlineStr"/>
-      <c r="X59" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="X59" s="3" t="inlineStr"/>
       <c r="Y59" s="3" t="inlineStr"/>
       <c r="Z59" s="3" t="inlineStr"/>
       <c r="AA59" s="3" t="inlineStr"/>
-      <c r="AB59" s="3" t="inlineStr"/>
+      <c r="AB59" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="AC59" s="3" t="inlineStr"/>
       <c r="AD59" s="3" t="inlineStr"/>
       <c r="AE59" s="3" t="inlineStr"/>
       <c r="AF59" s="3" t="inlineStr"/>
       <c r="AG59" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH59" s="3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="36" customHeight="1">
@@ -8811,36 +8835,40 @@
           <t>P1-A:4, P2-A:2, P3-A:3, P4-A:3</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr"/>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-A (12H)</t>
+        </is>
+      </c>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr"/>
-      <c r="F60" s="3" t="inlineStr"/>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-A (10H)</t>
+        </is>
+      </c>
       <c r="G60" s="3" t="inlineStr"/>
-      <c r="H60" s="3" t="inlineStr">
+      <c r="H60" s="3" t="inlineStr"/>
+      <c r="I60" s="3" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr"/>
+      <c r="K60" s="3" t="inlineStr">
         <is>
           <t>S2-P2-A (4H)</t>
         </is>
       </c>
-      <c r="I60" s="3" t="inlineStr"/>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-A (12H)</t>
-        </is>
-      </c>
-      <c r="K60" s="3" t="inlineStr">
+      <c r="L60" s="3" t="inlineStr"/>
+      <c r="M60" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-A (10H)</t>
+        </is>
+      </c>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr">
         <is>
           <t>S3-P2-A (4H)</t>
         </is>
       </c>
-      <c r="L60" s="3" t="inlineStr"/>
-      <c r="M60" s="3" t="inlineStr"/>
-      <c r="N60" s="3" t="inlineStr"/>
-      <c r="O60" s="3" t="inlineStr"/>
-      <c r="P60" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-A (8H)</t>
-        </is>
-      </c>
+      <c r="P60" s="3" t="inlineStr"/>
       <c r="Q60" s="3" t="inlineStr"/>
       <c r="R60" s="3" t="inlineStr"/>
       <c r="S60" s="3" t="inlineStr"/>
@@ -8858,10 +8886,10 @@
       <c r="AE60" s="3" t="inlineStr"/>
       <c r="AF60" s="3" t="inlineStr"/>
       <c r="AG60" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH60" s="3" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="36" customHeight="1">
@@ -8876,10 +8904,18 @@
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
-      <c r="D61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-B (12H)</t>
+        </is>
+      </c>
       <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3" t="inlineStr"/>
-      <c r="G61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-B (4H)</t>
+        </is>
+      </c>
       <c r="H61" s="3" t="inlineStr">
         <is>
           <t>S1-P2-B (8H)</t>
@@ -8888,24 +8924,40 @@
       <c r="I61" s="3" t="inlineStr"/>
       <c r="J61" s="3" t="inlineStr"/>
       <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-B (4H)</t>
+        </is>
+      </c>
       <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr"/>
-      <c r="P61" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-B (12H)</t>
-        </is>
-      </c>
+      <c r="N61" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-B (4H)</t>
+        </is>
+      </c>
+      <c r="O61" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-B (8H)</t>
+        </is>
+      </c>
+      <c r="P61" s="3" t="inlineStr"/>
       <c r="Q61" s="3" t="inlineStr"/>
       <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr"/>
+      <c r="S61" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-B (8H)</t>
+        </is>
+      </c>
       <c r="T61" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-B (10H)</t>
-        </is>
-      </c>
-      <c r="U61" s="3" t="inlineStr"/>
+          <t>S4-P3-B (12H)</t>
+        </is>
+      </c>
+      <c r="U61" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-B (8H)</t>
+        </is>
+      </c>
       <c r="V61" s="3" t="inlineStr"/>
       <c r="W61" s="3" t="inlineStr"/>
       <c r="X61" s="3" t="inlineStr"/>
@@ -8918,10 +8970,10 @@
       <c r="AE61" s="3" t="inlineStr"/>
       <c r="AF61" s="3" t="inlineStr"/>
       <c r="AG61" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH61" s="3" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="36" customHeight="1">
@@ -8936,57 +8988,53 @@
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
-      <c r="D62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-A (4H)</t>
+        </is>
+      </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3" t="inlineStr"/>
-      <c r="G62" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-A (4H)</t>
-        </is>
-      </c>
+      <c r="G62" s="3" t="inlineStr"/>
       <c r="H62" s="3" t="inlineStr"/>
       <c r="I62" s="3" t="inlineStr"/>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-A (12H)</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-A (4H)</t>
-        </is>
-      </c>
+      <c r="J62" s="3" t="inlineStr"/>
+      <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="inlineStr"/>
       <c r="M62" s="3" t="inlineStr"/>
       <c r="N62" s="3" t="inlineStr"/>
-      <c r="O62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-A (10H)</t>
+        </is>
+      </c>
       <c r="P62" s="3" t="inlineStr"/>
-      <c r="Q62" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-A (4H)</t>
-        </is>
-      </c>
-      <c r="R62" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-A (8H)</t>
-        </is>
-      </c>
+      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="R62" s="3" t="inlineStr"/>
       <c r="S62" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-A (4H)</t>
-        </is>
-      </c>
-      <c r="T62" s="3" t="inlineStr"/>
-      <c r="U62" s="3" t="inlineStr"/>
+          <t>S4-P3-A (8H)</t>
+        </is>
+      </c>
+      <c r="T62" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-A (10H)</t>
+        </is>
+      </c>
+      <c r="U62" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-A (10H)</t>
+        </is>
+      </c>
       <c r="V62" s="3" t="inlineStr"/>
       <c r="W62" s="3" t="inlineStr"/>
-      <c r="X62" s="3" t="inlineStr"/>
+      <c r="X62" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="Y62" s="3" t="inlineStr"/>
-      <c r="Z62" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-A (8H)</t>
-        </is>
-      </c>
+      <c r="Z62" s="3" t="inlineStr"/>
       <c r="AA62" s="3" t="inlineStr"/>
       <c r="AB62" s="3" t="inlineStr"/>
       <c r="AC62" s="3" t="inlineStr"/>
@@ -8994,10 +9042,10 @@
       <c r="AE62" s="3" t="inlineStr"/>
       <c r="AF62" s="3" t="inlineStr"/>
       <c r="AG62" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH62" s="3" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="36" customHeight="1">
@@ -9014,55 +9062,35 @@
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-B (12H)</t>
-        </is>
-      </c>
+      <c r="F63" s="3" t="inlineStr"/>
       <c r="G63" s="3" t="inlineStr"/>
       <c r="H63" s="3" t="inlineStr"/>
-      <c r="I63" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-B (4H)</t>
-        </is>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-B (8H)</t>
-        </is>
-      </c>
+      <c r="I63" s="3" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr"/>
       <c r="K63" s="3" t="inlineStr"/>
-      <c r="L63" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-B (8H)</t>
-        </is>
-      </c>
-      <c r="M63" s="3" t="inlineStr">
-        <is>
-          <t>S4-P2-B (12H)</t>
-        </is>
-      </c>
-      <c r="N63" s="3" t="inlineStr"/>
+      <c r="L63" s="3" t="inlineStr"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-B (4H)</t>
+        </is>
+      </c>
       <c r="O63" s="3" t="inlineStr"/>
       <c r="P63" s="3" t="inlineStr"/>
       <c r="Q63" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-B (4H)</t>
+          <t>S4-P2-B (12H)</t>
         </is>
       </c>
       <c r="R63" s="3" t="inlineStr"/>
       <c r="S63" s="3" t="inlineStr"/>
-      <c r="T63" s="3" t="inlineStr"/>
-      <c r="U63" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-B (12H)</t>
-        </is>
-      </c>
-      <c r="V63" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-B (12H)</t>
-        </is>
-      </c>
+      <c r="T63" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-B (8H)</t>
+        </is>
+      </c>
+      <c r="U63" s="3" t="inlineStr"/>
+      <c r="V63" s="3" t="inlineStr"/>
       <c r="W63" s="3" t="inlineStr"/>
       <c r="X63" s="3" t="inlineStr"/>
       <c r="Y63" s="3" t="inlineStr"/>
@@ -9074,10 +9102,10 @@
       <c r="AE63" s="3" t="inlineStr"/>
       <c r="AF63" s="3" t="inlineStr"/>
       <c r="AG63" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AH63" s="3" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1">
@@ -9097,54 +9125,42 @@
       <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>S4-P1-C (12H)</t>
+          <t>S1-P2-C (8H)</t>
         </is>
       </c>
       <c r="H64" s="3" t="inlineStr"/>
-      <c r="I64" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-C (12H)</t>
-        </is>
-      </c>
+      <c r="I64" s="3" t="inlineStr"/>
       <c r="J64" s="3" t="inlineStr"/>
       <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="inlineStr"/>
       <c r="M64" s="3" t="inlineStr"/>
-      <c r="N64" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-C (8H) | S3-P2-C (4H)</t>
-        </is>
-      </c>
+      <c r="N64" s="3" t="inlineStr"/>
       <c r="O64" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-C (8H)</t>
+          <t>S2-P3-C (10H)</t>
         </is>
       </c>
       <c r="P64" s="3" t="inlineStr"/>
       <c r="Q64" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-C (8H)</t>
+          <t>S4-P2-C (8H)</t>
         </is>
       </c>
       <c r="R64" s="3" t="inlineStr"/>
       <c r="S64" s="3" t="inlineStr"/>
-      <c r="T64" s="3" t="inlineStr"/>
-      <c r="U64" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-C (8H)</t>
-        </is>
-      </c>
-      <c r="V64" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-C (4H)</t>
-        </is>
-      </c>
-      <c r="W64" s="3" t="inlineStr"/>
-      <c r="X64" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-C (4H)</t>
-        </is>
-      </c>
+      <c r="T64" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-C (8H)</t>
+        </is>
+      </c>
+      <c r="U64" s="3" t="inlineStr"/>
+      <c r="V64" s="3" t="inlineStr"/>
+      <c r="W64" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-C (10H)</t>
+        </is>
+      </c>
+      <c r="X64" s="3" t="inlineStr"/>
       <c r="Y64" s="3" t="inlineStr"/>
       <c r="Z64" s="3" t="inlineStr"/>
       <c r="AA64" s="3" t="inlineStr"/>
@@ -9154,10 +9170,10 @@
       <c r="AE64" s="3" t="inlineStr"/>
       <c r="AF64" s="3" t="inlineStr"/>
       <c r="AG64" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH64" s="3" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" ht="36" customHeight="1">
@@ -9173,38 +9189,50 @@
       </c>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
-      <c r="E65" s="3" t="inlineStr"/>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-D (12H)</t>
+        </is>
+      </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>S2-P1-D (8H)</t>
+          <t>S2-P1-D (4H)</t>
         </is>
       </c>
       <c r="G65" s="3" t="inlineStr"/>
       <c r="H65" s="3" t="inlineStr"/>
-      <c r="I65" s="3" t="inlineStr"/>
+      <c r="I65" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-D (10H)</t>
+        </is>
+      </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-D (8H)</t>
+          <t>S3-P1-D (12H)</t>
         </is>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
       <c r="L65" s="3" t="inlineStr"/>
       <c r="M65" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-D (8H)</t>
-        </is>
-      </c>
-      <c r="N65" s="3" t="inlineStr"/>
+          <t>S4-P1-D (12H)</t>
+        </is>
+      </c>
+      <c r="N65" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-D (8H)</t>
+        </is>
+      </c>
       <c r="O65" s="3" t="inlineStr"/>
-      <c r="P65" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-D (10H)</t>
-        </is>
-      </c>
+      <c r="P65" s="3" t="inlineStr"/>
       <c r="Q65" s="3" t="inlineStr"/>
       <c r="R65" s="3" t="inlineStr"/>
       <c r="S65" s="3" t="inlineStr"/>
-      <c r="T65" s="3" t="inlineStr"/>
+      <c r="T65" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-D (8H)</t>
+        </is>
+      </c>
       <c r="U65" s="3" t="inlineStr"/>
       <c r="V65" s="3" t="inlineStr"/>
       <c r="W65" s="3" t="inlineStr"/>
@@ -9218,10 +9246,10 @@
       <c r="AE65" s="3" t="inlineStr"/>
       <c r="AF65" s="3" t="inlineStr"/>
       <c r="AG65" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH65" s="3" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" ht="36" customHeight="1">
@@ -9235,44 +9263,40 @@
           <t>P1-A:2, P1-C:3, P2-A:4, P3-C:2, P4-A:3</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr"/>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-C (10H)</t>
+        </is>
+      </c>
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr"/>
       <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr"/>
       <c r="H66" s="3" t="inlineStr"/>
-      <c r="I66" s="3" t="inlineStr">
-        <is>
-          <t>S1-P3-C (12H)</t>
-        </is>
-      </c>
-      <c r="J66" s="3" t="inlineStr"/>
+      <c r="I66" s="3" t="inlineStr"/>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-A (4H)</t>
+        </is>
+      </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-A (4H)</t>
-        </is>
-      </c>
+          <t>S3-P1-C (8H)</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr"/>
       <c r="M66" s="3" t="inlineStr"/>
       <c r="N66" s="3" t="inlineStr"/>
       <c r="O66" s="3" t="inlineStr">
         <is>
-          <t>S1-P4-A (4H)</t>
-        </is>
-      </c>
-      <c r="P66" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-C (12H)</t>
-        </is>
-      </c>
+          <t>S2-P3-C (10H)</t>
+        </is>
+      </c>
+      <c r="P66" s="3" t="inlineStr"/>
       <c r="Q66" s="3" t="inlineStr"/>
       <c r="R66" s="3" t="inlineStr">
         <is>
-          <t>S3-P3-C (10H)</t>
+          <t>S3-P3-C (12H)</t>
         </is>
       </c>
       <c r="S66" s="3" t="inlineStr"/>
@@ -9281,23 +9305,23 @@
       <c r="V66" s="3" t="inlineStr"/>
       <c r="W66" s="3" t="inlineStr"/>
       <c r="X66" s="3" t="inlineStr"/>
-      <c r="Y66" s="3" t="inlineStr"/>
+      <c r="Y66" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="Z66" s="3" t="inlineStr"/>
       <c r="AA66" s="3" t="inlineStr"/>
       <c r="AB66" s="3" t="inlineStr"/>
-      <c r="AC66" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-A (4H)</t>
-        </is>
-      </c>
+      <c r="AC66" s="3" t="inlineStr"/>
       <c r="AD66" s="3" t="inlineStr"/>
       <c r="AE66" s="3" t="inlineStr"/>
       <c r="AF66" s="3" t="inlineStr"/>
       <c r="AG66" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH66" s="3" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" ht="36" customHeight="1">
@@ -9311,53 +9335,45 @@
           <t>P1-B:4, P2-B:2, P3-D:3, P4-B:3</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-B (12H)</t>
-        </is>
-      </c>
+      <c r="C67" s="3" t="inlineStr"/>
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="3" t="inlineStr"/>
-      <c r="F67" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-B (8H)</t>
-        </is>
-      </c>
+      <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr"/>
-      <c r="H67" s="3" t="inlineStr"/>
-      <c r="I67" s="3" t="inlineStr"/>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-B (12H)</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-B (4H)</t>
+        </is>
+      </c>
       <c r="J67" s="3" t="inlineStr"/>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="inlineStr"/>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-B (4H)</t>
-        </is>
-      </c>
+      <c r="M67" s="3" t="inlineStr"/>
       <c r="N67" s="3" t="inlineStr"/>
       <c r="O67" s="3" t="inlineStr"/>
-      <c r="P67" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-D (10H)</t>
-        </is>
-      </c>
+      <c r="P67" s="3" t="inlineStr"/>
       <c r="Q67" s="3" t="inlineStr"/>
       <c r="R67" s="3" t="inlineStr"/>
       <c r="S67" s="3" t="inlineStr">
         <is>
-          <t>S4-P3-D (8H)</t>
-        </is>
-      </c>
-      <c r="T67" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-B (4H)</t>
-        </is>
-      </c>
-      <c r="U67" s="3" t="inlineStr"/>
+          <t>S4-P3-D (10H)</t>
+        </is>
+      </c>
+      <c r="T67" s="3" t="inlineStr"/>
+      <c r="U67" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-B (12H)</t>
+        </is>
+      </c>
       <c r="V67" s="3" t="inlineStr"/>
       <c r="W67" s="3" t="inlineStr">
         <is>
-          <t>S4-P4-B (4H)</t>
+          <t>S3-P4-B (10H)</t>
         </is>
       </c>
       <c r="X67" s="3" t="inlineStr"/>
@@ -9370,10 +9386,10 @@
       <c r="AE67" s="3" t="inlineStr"/>
       <c r="AF67" s="3" t="inlineStr"/>
       <c r="AG67" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH67" s="3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="36" customHeight="1">
@@ -9388,46 +9404,46 @@
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
-      <c r="D68" s="3" t="inlineStr"/>
-      <c r="E68" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-C (4H)</t>
-        </is>
-      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-C (8H)</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr"/>
       <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr"/>
       <c r="H68" s="3" t="inlineStr"/>
       <c r="I68" s="3" t="inlineStr"/>
       <c r="J68" s="3" t="inlineStr"/>
-      <c r="K68" s="3" t="inlineStr"/>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-A (10H)</t>
+        </is>
+      </c>
       <c r="L68" s="3" t="inlineStr"/>
       <c r="M68" s="3" t="inlineStr"/>
-      <c r="N68" s="3" t="inlineStr"/>
+      <c r="N68" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-C (4H)</t>
+        </is>
+      </c>
       <c r="O68" s="3" t="inlineStr"/>
-      <c r="P68" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-A (12H)</t>
-        </is>
-      </c>
+      <c r="P68" s="3" t="inlineStr"/>
       <c r="Q68" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-C (8H)</t>
-        </is>
-      </c>
-      <c r="R68" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-C (10H)</t>
-        </is>
-      </c>
+          <t>S4-P2-C (12H)</t>
+        </is>
+      </c>
+      <c r="R68" s="3" t="inlineStr"/>
       <c r="S68" s="3" t="inlineStr"/>
       <c r="T68" s="3" t="inlineStr"/>
-      <c r="U68" s="3" t="inlineStr">
-        <is>
-          <t>S4-P4-C (10H)</t>
-        </is>
-      </c>
+      <c r="U68" s="3" t="inlineStr"/>
       <c r="V68" s="3" t="inlineStr"/>
-      <c r="W68" s="3" t="inlineStr"/>
+      <c r="W68" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-A (12H)</t>
+        </is>
+      </c>
       <c r="X68" s="3" t="inlineStr"/>
       <c r="Y68" s="3" t="inlineStr"/>
       <c r="Z68" s="3" t="inlineStr"/>
@@ -9441,7 +9457,7 @@
         <v>5</v>
       </c>
       <c r="AH68" s="3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="36" customHeight="1">
@@ -9455,35 +9471,47 @@
           <t>P1-D:2, P2-D:4, P3-B:3, P4-D:3</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr"/>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>S1-P1-D (10H)</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr"/>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-D (8H)</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr"/>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-D (4H)</t>
+        </is>
+      </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
           <t>S2-P1-D (12H)</t>
         </is>
       </c>
       <c r="G69" s="3" t="inlineStr"/>
-      <c r="H69" s="3" t="inlineStr"/>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-D (12H)</t>
+        </is>
+      </c>
       <c r="I69" s="3" t="inlineStr"/>
       <c r="J69" s="3" t="inlineStr"/>
       <c r="K69" s="3" t="inlineStr">
         <is>
-          <t>S1-P3-B (4H)</t>
+          <t>S3-P1-D (10H)</t>
         </is>
       </c>
       <c r="L69" s="3" t="inlineStr"/>
-      <c r="M69" s="3" t="inlineStr"/>
-      <c r="N69" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-D (10H)</t>
-        </is>
-      </c>
-      <c r="O69" s="3" t="inlineStr"/>
+      <c r="M69" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-D (4H)</t>
+        </is>
+      </c>
+      <c r="N69" s="3" t="inlineStr"/>
+      <c r="O69" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-D (12H)</t>
+        </is>
+      </c>
       <c r="P69" s="3" t="inlineStr"/>
       <c r="Q69" s="3" t="inlineStr"/>
       <c r="R69" s="3" t="inlineStr"/>
@@ -9495,17 +9523,21 @@
       <c r="X69" s="3" t="inlineStr"/>
       <c r="Y69" s="3" t="inlineStr"/>
       <c r="Z69" s="3" t="inlineStr"/>
-      <c r="AA69" s="3" t="inlineStr"/>
+      <c r="AA69" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="AB69" s="3" t="inlineStr"/>
       <c r="AC69" s="3" t="inlineStr"/>
       <c r="AD69" s="3" t="inlineStr"/>
       <c r="AE69" s="3" t="inlineStr"/>
       <c r="AF69" s="3" t="inlineStr"/>
       <c r="AG69" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH69" s="3" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" ht="36" customHeight="1">
@@ -9520,50 +9552,50 @@
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-A (8H)</t>
-        </is>
-      </c>
+      <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="3" t="inlineStr"/>
-      <c r="F70" s="3" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr"/>
+      <c r="G70" s="3" t="inlineStr"/>
+      <c r="H70" s="3" t="inlineStr"/>
+      <c r="I70" s="3" t="inlineStr">
         <is>
           <t>S2-P1-A (4H)</t>
         </is>
       </c>
-      <c r="G70" s="3" t="inlineStr"/>
-      <c r="H70" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-A (4H)</t>
-        </is>
-      </c>
-      <c r="I70" s="3" t="inlineStr"/>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-A (4H)</t>
-        </is>
-      </c>
+      <c r="J70" s="3" t="inlineStr"/>
       <c r="K70" s="3" t="inlineStr"/>
       <c r="L70" s="3" t="inlineStr"/>
       <c r="M70" s="3" t="inlineStr"/>
-      <c r="N70" s="3" t="inlineStr"/>
+      <c r="N70" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="O70" s="3" t="inlineStr"/>
-      <c r="P70" s="3" t="inlineStr"/>
+      <c r="P70" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-A (12H)</t>
+        </is>
+      </c>
       <c r="Q70" s="3" t="inlineStr"/>
-      <c r="R70" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-A (8H)</t>
-        </is>
-      </c>
+      <c r="R70" s="3" t="inlineStr"/>
       <c r="S70" s="3" t="inlineStr"/>
-      <c r="T70" s="3" t="inlineStr"/>
-      <c r="U70" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-A (8H)</t>
-        </is>
-      </c>
-      <c r="V70" s="3" t="inlineStr"/>
-      <c r="W70" s="3" t="inlineStr"/>
+      <c r="T70" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-A (12H)</t>
+        </is>
+      </c>
+      <c r="U70" s="3" t="inlineStr"/>
+      <c r="V70" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-A (10H)</t>
+        </is>
+      </c>
+      <c r="W70" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="X70" s="3" t="inlineStr"/>
       <c r="Y70" s="3" t="inlineStr"/>
       <c r="Z70" s="3" t="inlineStr"/>
@@ -9577,7 +9609,7 @@
         <v>6</v>
       </c>
       <c r="AH70" s="3" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" ht="36" customHeight="1">
@@ -9591,48 +9623,60 @@
           <t>P1-B:2, P2-B:3, P3-B:3, P4-B:4</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr"/>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-B (8H)</t>
+        </is>
+      </c>
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr"/>
       <c r="F71" s="3" t="inlineStr"/>
-      <c r="G71" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-B (10H)</t>
-        </is>
-      </c>
+      <c r="G71" s="3" t="inlineStr"/>
       <c r="H71" s="3" t="inlineStr"/>
       <c r="I71" s="3" t="inlineStr"/>
-      <c r="J71" s="3" t="inlineStr"/>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-B (12H)</t>
+        </is>
+      </c>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="inlineStr"/>
-      <c r="M71" s="3" t="inlineStr"/>
-      <c r="N71" s="3" t="inlineStr"/>
-      <c r="O71" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-B (8H)</t>
-        </is>
-      </c>
+      <c r="M71" s="3" t="inlineStr">
+        <is>
+          <t>S4-P1-B (8H)</t>
+        </is>
+      </c>
+      <c r="N71" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-B (10H)</t>
+        </is>
+      </c>
+      <c r="O71" s="3" t="inlineStr"/>
       <c r="P71" s="3" t="inlineStr">
         <is>
           <t>S1-P4-B (12H)</t>
         </is>
       </c>
       <c r="Q71" s="3" t="inlineStr"/>
-      <c r="R71" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-B (10H)</t>
-        </is>
-      </c>
+      <c r="R71" s="3" t="inlineStr"/>
       <c r="S71" s="3" t="inlineStr"/>
-      <c r="T71" s="3" t="inlineStr"/>
-      <c r="U71" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-B (4H)</t>
-        </is>
-      </c>
-      <c r="V71" s="3" t="inlineStr"/>
+      <c r="T71" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-B (8H)</t>
+        </is>
+      </c>
+      <c r="U71" s="3" t="inlineStr"/>
+      <c r="V71" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-B (4H)</t>
+        </is>
+      </c>
       <c r="W71" s="3" t="inlineStr"/>
-      <c r="X71" s="3" t="inlineStr"/>
+      <c r="X71" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-B (10H)</t>
+        </is>
+      </c>
       <c r="Y71" s="3" t="inlineStr"/>
       <c r="Z71" s="3" t="inlineStr"/>
       <c r="AA71" s="3" t="inlineStr"/>
@@ -9642,10 +9686,10 @@
       <c r="AE71" s="3" t="inlineStr"/>
       <c r="AF71" s="3" t="inlineStr"/>
       <c r="AG71" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH71" s="3" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" ht="36" customHeight="1">
@@ -9666,28 +9710,48 @@
       <c r="G72" s="3" t="inlineStr"/>
       <c r="H72" s="3" t="inlineStr"/>
       <c r="I72" s="3" t="inlineStr"/>
-      <c r="J72" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-C (4H)</t>
-        </is>
-      </c>
+      <c r="J72" s="3" t="inlineStr"/>
       <c r="K72" s="3" t="inlineStr"/>
-      <c r="L72" s="3" t="inlineStr"/>
+      <c r="L72" s="3" t="inlineStr">
+        <is>
+          <t>S2-P2-C (4H)</t>
+        </is>
+      </c>
       <c r="M72" s="3" t="inlineStr"/>
       <c r="N72" s="3" t="inlineStr"/>
       <c r="O72" s="3" t="inlineStr"/>
-      <c r="P72" s="3" t="inlineStr"/>
-      <c r="Q72" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-C (4H)</t>
-        </is>
-      </c>
-      <c r="R72" s="3" t="inlineStr"/>
+      <c r="P72" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-C (4H)</t>
+        </is>
+      </c>
+      <c r="Q72" s="3" t="inlineStr"/>
+      <c r="R72" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-C (4H)</t>
+        </is>
+      </c>
       <c r="S72" s="3" t="inlineStr"/>
-      <c r="T72" s="3" t="inlineStr"/>
-      <c r="U72" s="3" t="inlineStr"/>
-      <c r="V72" s="3" t="inlineStr"/>
-      <c r="W72" s="3" t="inlineStr"/>
+      <c r="T72" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-C (10H)</t>
+        </is>
+      </c>
+      <c r="U72" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-C (10H)</t>
+        </is>
+      </c>
+      <c r="V72" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-C (10H)</t>
+        </is>
+      </c>
+      <c r="W72" s="3" t="inlineStr">
+        <is>
+          <t>S4-P3-C (8H)</t>
+        </is>
+      </c>
       <c r="X72" s="3" t="inlineStr"/>
       <c r="Y72" s="3" t="inlineStr"/>
       <c r="Z72" s="3" t="inlineStr"/>
@@ -9698,10 +9762,10 @@
       <c r="AE72" s="3" t="inlineStr"/>
       <c r="AF72" s="3" t="inlineStr"/>
       <c r="AG72" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AH72" s="3" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="36" customHeight="1">
@@ -9715,51 +9779,67 @@
           <t>P1-D:3, P2-D:4, P3-D:2, P4-D:3</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr"/>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-D (12H)</t>
+        </is>
+      </c>
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3" t="inlineStr"/>
-      <c r="G73" s="3" t="inlineStr"/>
-      <c r="H73" s="3" t="inlineStr">
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-D (10H)</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="inlineStr"/>
+      <c r="I73" s="3" t="inlineStr"/>
+      <c r="J73" s="3" t="inlineStr">
         <is>
           <t>S2-P2-D (12H)</t>
         </is>
       </c>
-      <c r="I73" s="3" t="inlineStr"/>
-      <c r="J73" s="3" t="inlineStr"/>
       <c r="K73" s="3" t="inlineStr"/>
       <c r="L73" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-D (8H)</t>
-        </is>
-      </c>
-      <c r="M73" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-D (4H)</t>
-        </is>
-      </c>
+          <t>S3-P1-D (10H)</t>
+        </is>
+      </c>
+      <c r="M73" s="3" t="inlineStr"/>
       <c r="N73" s="3" t="inlineStr"/>
       <c r="O73" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-D (4H)</t>
-        </is>
-      </c>
-      <c r="P73" s="3" t="inlineStr"/>
+          <t>S2-P3-D (8H)</t>
+        </is>
+      </c>
+      <c r="P73" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-D (4H)</t>
+        </is>
+      </c>
       <c r="Q73" s="3" t="inlineStr"/>
       <c r="R73" s="3" t="inlineStr">
         <is>
+          <t>S3-P3-D (10H)</t>
+        </is>
+      </c>
+      <c r="S73" s="3" t="inlineStr"/>
+      <c r="T73" s="3" t="inlineStr">
+        <is>
           <t>S2-P4-D (4H)</t>
         </is>
       </c>
-      <c r="S73" s="3" t="inlineStr"/>
-      <c r="T73" s="3" t="inlineStr"/>
-      <c r="U73" s="3" t="inlineStr"/>
-      <c r="V73" s="3" t="inlineStr"/>
-      <c r="W73" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-D (4H)</t>
-        </is>
-      </c>
+      <c r="U73" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-D (4H)</t>
+        </is>
+      </c>
+      <c r="V73" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-D (4H)</t>
+        </is>
+      </c>
+      <c r="W73" s="3" t="inlineStr"/>
       <c r="X73" s="3" t="inlineStr"/>
       <c r="Y73" s="3" t="inlineStr"/>
       <c r="Z73" s="3" t="inlineStr"/>
@@ -9770,10 +9850,10 @@
       <c r="AE73" s="3" t="inlineStr"/>
       <c r="AF73" s="3" t="inlineStr"/>
       <c r="AG73" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AH73" s="3" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" ht="36" customHeight="1">
@@ -9787,65 +9867,77 @@
           <t>P1-A:2, P2-A:3, P3-A:3, P4-A:4</t>
         </is>
       </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-A (4H)</t>
-        </is>
-      </c>
+      <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr"/>
-      <c r="E74" s="3" t="inlineStr"/>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-A (10H)</t>
+        </is>
+      </c>
       <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="inlineStr"/>
       <c r="H74" s="3" t="inlineStr"/>
-      <c r="I74" s="3" t="inlineStr"/>
-      <c r="J74" s="3" t="inlineStr"/>
+      <c r="I74" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-A (8H)</t>
+        </is>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-A (10H)</t>
+        </is>
+      </c>
       <c r="K74" s="3" t="inlineStr"/>
-      <c r="L74" s="3" t="inlineStr">
+      <c r="L74" s="3" t="inlineStr"/>
+      <c r="M74" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-A (12H)</t>
+        </is>
+      </c>
+      <c r="N74" s="3" t="inlineStr"/>
+      <c r="O74" s="3" t="inlineStr"/>
+      <c r="P74" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="Q74" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="R74" s="3" t="inlineStr">
         <is>
           <t>S2-P3-A (4H)</t>
         </is>
       </c>
-      <c r="M74" s="3" t="inlineStr"/>
-      <c r="N74" s="3" t="inlineStr"/>
-      <c r="O74" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-A (8H)</t>
-        </is>
-      </c>
-      <c r="P74" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-A (10H)</t>
-        </is>
-      </c>
-      <c r="Q74" s="3" t="inlineStr"/>
-      <c r="R74" s="3" t="inlineStr"/>
-      <c r="S74" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-A (8H)</t>
-        </is>
-      </c>
-      <c r="T74" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-A (10H)</t>
-        </is>
-      </c>
+      <c r="S74" s="3" t="inlineStr"/>
+      <c r="T74" s="3" t="inlineStr"/>
       <c r="U74" s="3" t="inlineStr"/>
       <c r="V74" s="3" t="inlineStr"/>
-      <c r="W74" s="3" t="inlineStr"/>
+      <c r="W74" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="X74" s="3" t="inlineStr"/>
       <c r="Y74" s="3" t="inlineStr"/>
       <c r="Z74" s="3" t="inlineStr"/>
       <c r="AA74" s="3" t="inlineStr"/>
       <c r="AB74" s="3" t="inlineStr"/>
       <c r="AC74" s="3" t="inlineStr"/>
-      <c r="AD74" s="3" t="inlineStr"/>
+      <c r="AD74" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-A (4H)</t>
+        </is>
+      </c>
       <c r="AE74" s="3" t="inlineStr"/>
       <c r="AF74" s="3" t="inlineStr"/>
       <c r="AG74" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH74" s="3" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" ht="36" customHeight="1">
@@ -9860,40 +9952,48 @@
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
-      <c r="D75" s="3" t="inlineStr"/>
-      <c r="E75" s="3" t="inlineStr"/>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-B (4H)</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-B (8H)</t>
+        </is>
+      </c>
       <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="inlineStr"/>
-      <c r="H75" s="3" t="inlineStr"/>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-B (8H)</t>
+        </is>
+      </c>
       <c r="I75" s="3" t="inlineStr"/>
       <c r="J75" s="3" t="inlineStr"/>
-      <c r="K75" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-B (12H)</t>
-        </is>
-      </c>
+      <c r="K75" s="3" t="inlineStr"/>
       <c r="L75" s="3" t="inlineStr"/>
       <c r="M75" s="3" t="inlineStr"/>
-      <c r="N75" s="3" t="inlineStr"/>
-      <c r="O75" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-B (8H)</t>
-        </is>
-      </c>
+      <c r="N75" s="3" t="inlineStr">
+        <is>
+          <t>S1-P4-B (8H)</t>
+        </is>
+      </c>
+      <c r="O75" s="3" t="inlineStr"/>
       <c r="P75" s="3" t="inlineStr"/>
-      <c r="Q75" s="3" t="inlineStr">
-        <is>
-          <t>S2-P4-B (8H)</t>
-        </is>
-      </c>
+      <c r="Q75" s="3" t="inlineStr"/>
       <c r="R75" s="3" t="inlineStr"/>
       <c r="S75" s="3" t="inlineStr"/>
-      <c r="T75" s="3" t="inlineStr"/>
+      <c r="T75" s="3" t="inlineStr">
+        <is>
+          <t>S2-P4-B (10H)</t>
+        </is>
+      </c>
       <c r="U75" s="3" t="inlineStr"/>
       <c r="V75" s="3" t="inlineStr"/>
       <c r="W75" s="3" t="inlineStr">
         <is>
-          <t>S3-P4-B (8H)</t>
+          <t>S3-P4-B (10H)</t>
         </is>
       </c>
       <c r="X75" s="3" t="inlineStr"/>
@@ -9906,10 +10006,10 @@
       <c r="AE75" s="3" t="inlineStr"/>
       <c r="AF75" s="3" t="inlineStr"/>
       <c r="AG75" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH75" s="3" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="36" customHeight="1">
@@ -9926,36 +10026,28 @@
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="3" t="inlineStr"/>
-      <c r="F76" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-C (12H)</t>
-        </is>
-      </c>
+      <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr"/>
-      <c r="H76" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-C (8H)</t>
-        </is>
-      </c>
+      <c r="H76" s="3" t="inlineStr"/>
       <c r="I76" s="3" t="inlineStr"/>
       <c r="J76" s="3" t="inlineStr"/>
-      <c r="K76" s="3" t="inlineStr"/>
-      <c r="L76" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-C (10H)</t>
-        </is>
-      </c>
-      <c r="M76" s="3" t="inlineStr"/>
+      <c r="K76" s="3" t="inlineStr">
+        <is>
+          <t>S1-P3-C (12H)</t>
+        </is>
+      </c>
+      <c r="L76" s="3" t="inlineStr"/>
+      <c r="M76" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-C (4H)</t>
+        </is>
+      </c>
       <c r="N76" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-C (8H)</t>
-        </is>
-      </c>
-      <c r="O76" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-C (4H)</t>
-        </is>
-      </c>
+          <t>S1-P4-C (12H)</t>
+        </is>
+      </c>
+      <c r="O76" s="3" t="inlineStr"/>
       <c r="P76" s="3" t="inlineStr"/>
       <c r="Q76" s="3" t="inlineStr"/>
       <c r="R76" s="3" t="inlineStr"/>
@@ -9964,10 +10056,18 @@
       <c r="U76" s="3" t="inlineStr"/>
       <c r="V76" s="3" t="inlineStr"/>
       <c r="W76" s="3" t="inlineStr"/>
-      <c r="X76" s="3" t="inlineStr"/>
+      <c r="X76" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-C (8H)</t>
+        </is>
+      </c>
       <c r="Y76" s="3" t="inlineStr"/>
       <c r="Z76" s="3" t="inlineStr"/>
-      <c r="AA76" s="3" t="inlineStr"/>
+      <c r="AA76" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-C (10H)</t>
+        </is>
+      </c>
       <c r="AB76" s="3" t="inlineStr"/>
       <c r="AC76" s="3" t="inlineStr"/>
       <c r="AD76" s="3" t="inlineStr"/>
@@ -9977,7 +10077,7 @@
         <v>5</v>
       </c>
       <c r="AH76" s="3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="36" customHeight="1">
@@ -10000,26 +10100,18 @@
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr"/>
-      <c r="H77" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-D (10H)</t>
-        </is>
-      </c>
+      <c r="H77" s="3" t="inlineStr"/>
       <c r="I77" s="3" t="inlineStr"/>
-      <c r="J77" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-D (4H)</t>
-        </is>
-      </c>
+      <c r="J77" s="3" t="inlineStr"/>
       <c r="K77" s="3" t="inlineStr"/>
       <c r="L77" s="3" t="inlineStr">
         <is>
-          <t>S2-P3-D (8H)</t>
+          <t>S3-P1-D (4H)</t>
         </is>
       </c>
       <c r="M77" s="3" t="inlineStr">
         <is>
-          <t>S4-P2-D (12H)</t>
+          <t>S2-P2-D (4H)</t>
         </is>
       </c>
       <c r="N77" s="3" t="inlineStr"/>
@@ -10030,20 +10122,20 @@
       <c r="S77" s="3" t="inlineStr"/>
       <c r="T77" s="3" t="inlineStr">
         <is>
-          <t>S1-P4-D (8H)</t>
+          <t>S4-P3-D (4H)</t>
         </is>
       </c>
       <c r="U77" s="3" t="inlineStr"/>
       <c r="V77" s="3" t="inlineStr"/>
       <c r="W77" s="3" t="inlineStr">
         <is>
-          <t>S4-P4-D (4H)</t>
+          <t>S3-P4-D (4H)</t>
         </is>
       </c>
       <c r="X77" s="3" t="inlineStr"/>
       <c r="Y77" s="3" t="inlineStr">
         <is>
-          <t>S3-P4-D (4H)</t>
+          <t>S4-P4-D (4H)</t>
         </is>
       </c>
       <c r="Z77" s="3" t="inlineStr"/>
@@ -10054,10 +10146,10 @@
       <c r="AE77" s="3" t="inlineStr"/>
       <c r="AF77" s="3" t="inlineStr"/>
       <c r="AG77" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH77" s="3" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="36" customHeight="1">
@@ -10071,59 +10163,59 @@
           <t>P1-A:4, P2-C:2, P3-A:3, P4-C:3</t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>S4-P1-A (8H)</t>
-        </is>
-      </c>
+      <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr"/>
-      <c r="F78" s="3" t="inlineStr">
-        <is>
-          <t>S1-P2-C (8H)</t>
-        </is>
-      </c>
-      <c r="G78" s="3" t="inlineStr">
+      <c r="F78" s="3" t="inlineStr"/>
+      <c r="G78" s="3" t="inlineStr"/>
+      <c r="H78" s="3" t="inlineStr"/>
+      <c r="I78" s="3" t="inlineStr">
         <is>
           <t>S1-P2-C (4H)</t>
         </is>
       </c>
-      <c r="H78" s="3" t="inlineStr"/>
-      <c r="I78" s="3" t="inlineStr"/>
-      <c r="J78" s="3" t="inlineStr"/>
-      <c r="K78" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-C (12H)</t>
-        </is>
-      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>S3-P1-A (8H)</t>
+        </is>
+      </c>
+      <c r="K78" s="3" t="inlineStr"/>
       <c r="L78" s="3" t="inlineStr"/>
-      <c r="M78" s="3" t="inlineStr"/>
+      <c r="M78" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-C (4H)</t>
+        </is>
+      </c>
       <c r="N78" s="3" t="inlineStr"/>
       <c r="O78" s="3" t="inlineStr"/>
-      <c r="P78" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-A (8H)</t>
-        </is>
-      </c>
-      <c r="Q78" s="3" t="inlineStr">
-        <is>
-          <t>S3-P3-A (8H)</t>
-        </is>
-      </c>
-      <c r="R78" s="3" t="inlineStr"/>
+      <c r="P78" s="3" t="inlineStr"/>
+      <c r="Q78" s="3" t="inlineStr"/>
+      <c r="R78" s="3" t="inlineStr">
+        <is>
+          <t>S2-P3-A (4H)</t>
+        </is>
+      </c>
       <c r="S78" s="3" t="inlineStr"/>
       <c r="T78" s="3" t="inlineStr"/>
-      <c r="U78" s="3" t="inlineStr"/>
+      <c r="U78" s="3" t="inlineStr">
+        <is>
+          <t>S3-P3-A (4H)</t>
+        </is>
+      </c>
       <c r="V78" s="3" t="inlineStr"/>
       <c r="W78" s="3" t="inlineStr"/>
-      <c r="X78" s="3" t="inlineStr"/>
+      <c r="X78" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-C (8H)</t>
+        </is>
+      </c>
       <c r="Y78" s="3" t="inlineStr"/>
-      <c r="Z78" s="3" t="inlineStr">
-        <is>
-          <t>S3-P4-C (4H)</t>
-        </is>
-      </c>
-      <c r="AA78" s="3" t="inlineStr"/>
+      <c r="Z78" s="3" t="inlineStr"/>
+      <c r="AA78" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-C (4H)</t>
+        </is>
+      </c>
       <c r="AB78" s="3" t="inlineStr"/>
       <c r="AC78" s="3" t="inlineStr"/>
       <c r="AD78" s="3" t="inlineStr"/>
@@ -10133,7 +10225,7 @@
         <v>7</v>
       </c>
       <c r="AH78" s="3" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" ht="36" customHeight="1">
@@ -10150,45 +10242,45 @@
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr"/>
-      <c r="F79" s="3" t="inlineStr"/>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-D (10H)</t>
+        </is>
+      </c>
       <c r="G79" s="3" t="inlineStr"/>
-      <c r="H79" s="3" t="inlineStr">
-        <is>
-          <t>S2-P2-D (12H)</t>
-        </is>
-      </c>
+      <c r="H79" s="3" t="inlineStr"/>
       <c r="I79" s="3" t="inlineStr"/>
-      <c r="J79" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-B (4H)</t>
-        </is>
-      </c>
+      <c r="J79" s="3" t="inlineStr"/>
       <c r="K79" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-D (12H)</t>
-        </is>
-      </c>
-      <c r="L79" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-B (10H)</t>
-        </is>
-      </c>
+          <t>S3-P1-B (8H)</t>
+        </is>
+      </c>
+      <c r="L79" s="3" t="inlineStr"/>
       <c r="M79" s="3" t="inlineStr"/>
       <c r="N79" s="3" t="inlineStr"/>
       <c r="O79" s="3" t="inlineStr"/>
-      <c r="P79" s="3" t="inlineStr"/>
+      <c r="P79" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-D (8H)</t>
+        </is>
+      </c>
       <c r="Q79" s="3" t="inlineStr"/>
       <c r="R79" s="3" t="inlineStr"/>
       <c r="S79" s="3" t="inlineStr"/>
-      <c r="T79" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-D (8H)</t>
-        </is>
-      </c>
+      <c r="T79" s="3" t="inlineStr"/>
       <c r="U79" s="3" t="inlineStr"/>
       <c r="V79" s="3" t="inlineStr"/>
-      <c r="W79" s="3" t="inlineStr"/>
-      <c r="X79" s="3" t="inlineStr"/>
+      <c r="W79" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-D (4H)</t>
+        </is>
+      </c>
+      <c r="X79" s="3" t="inlineStr">
+        <is>
+          <t>S3-P4-D (4H)</t>
+        </is>
+      </c>
       <c r="Y79" s="3" t="inlineStr"/>
       <c r="Z79" s="3" t="inlineStr"/>
       <c r="AA79" s="3" t="inlineStr"/>
@@ -10201,7 +10293,7 @@
         <v>5</v>
       </c>
       <c r="AH79" s="3" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="36" customHeight="1">
@@ -10216,34 +10308,42 @@
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
-      <c r="D80" s="3" t="inlineStr"/>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>S1-P1-C (8H)</t>
+        </is>
+      </c>
       <c r="E80" s="3" t="inlineStr"/>
-      <c r="F80" s="3" t="inlineStr"/>
-      <c r="G80" s="3" t="inlineStr"/>
-      <c r="H80" s="3" t="inlineStr"/>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-C (8H)</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-C (12H)</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>S1-P2-A (4H)</t>
+        </is>
+      </c>
       <c r="I80" s="3" t="inlineStr">
         <is>
-          <t>S2-P2-C (4H)</t>
-        </is>
-      </c>
-      <c r="J80" s="3" t="inlineStr">
-        <is>
-          <t>S3-P1-C (12H)</t>
-        </is>
-      </c>
-      <c r="K80" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-A (4H)</t>
-        </is>
-      </c>
+          <t>S1-P2-A (4H)</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="inlineStr"/>
+      <c r="K80" s="3" t="inlineStr"/>
       <c r="L80" s="3" t="inlineStr"/>
-      <c r="M80" s="3" t="inlineStr"/>
+      <c r="M80" s="3" t="inlineStr">
+        <is>
+          <t>S3-P2-C (12H)</t>
+        </is>
+      </c>
       <c r="N80" s="3" t="inlineStr"/>
-      <c r="O80" s="3" t="inlineStr">
-        <is>
-          <t>S2-P3-C (4H)</t>
-        </is>
-      </c>
+      <c r="O80" s="3" t="inlineStr"/>
       <c r="P80" s="3" t="inlineStr"/>
       <c r="Q80" s="3" t="inlineStr"/>
       <c r="R80" s="3" t="inlineStr"/>
@@ -10252,7 +10352,11 @@
       <c r="U80" s="3" t="inlineStr"/>
       <c r="V80" s="3" t="inlineStr"/>
       <c r="W80" s="3" t="inlineStr"/>
-      <c r="X80" s="3" t="inlineStr"/>
+      <c r="X80" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-A (10H)</t>
+        </is>
+      </c>
       <c r="Y80" s="3" t="inlineStr"/>
       <c r="Z80" s="3" t="inlineStr"/>
       <c r="AA80" s="3" t="inlineStr"/>
@@ -10262,10 +10366,10 @@
       <c r="AE80" s="3" t="inlineStr"/>
       <c r="AF80" s="3" t="inlineStr"/>
       <c r="AG80" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH80" s="3" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" ht="36" customHeight="1">
@@ -10282,54 +10386,54 @@
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr"/>
-      <c r="F81" s="3" t="inlineStr">
-        <is>
-          <t>S2-P1-D (12H)</t>
-        </is>
-      </c>
-      <c r="G81" s="3" t="inlineStr"/>
+      <c r="F81" s="3" t="inlineStr"/>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>S2-P1-D (8H)</t>
+        </is>
+      </c>
       <c r="H81" s="3" t="inlineStr"/>
       <c r="I81" s="3" t="inlineStr"/>
       <c r="J81" s="3" t="inlineStr">
         <is>
-          <t>S3-P1-D (10H)</t>
+          <t>S2-P2-B (10H)</t>
         </is>
       </c>
       <c r="K81" s="3" t="inlineStr">
         <is>
-          <t>S3-P2-D (10H)</t>
+          <t>S2-P2-D (4H)</t>
         </is>
       </c>
       <c r="L81" s="3" t="inlineStr"/>
-      <c r="M81" s="3" t="inlineStr">
-        <is>
-          <t>S3-P2-B (4H)</t>
-        </is>
-      </c>
+      <c r="M81" s="3" t="inlineStr"/>
       <c r="N81" s="3" t="inlineStr"/>
-      <c r="O81" s="3" t="inlineStr"/>
-      <c r="P81" s="3" t="inlineStr">
-        <is>
-          <t>S4-P3-D (10H)</t>
-        </is>
-      </c>
+      <c r="O81" s="3" t="inlineStr">
+        <is>
+          <t>S4-P2-D (10H)</t>
+        </is>
+      </c>
+      <c r="P81" s="3" t="inlineStr"/>
       <c r="Q81" s="3" t="inlineStr">
         <is>
-          <t>S2-P4-B (12H)</t>
-        </is>
-      </c>
-      <c r="R81" s="3" t="inlineStr">
-        <is>
-          <t>S1-P4-B (4H)</t>
-        </is>
-      </c>
+          <t>S4-P2-B (10H)</t>
+        </is>
+      </c>
+      <c r="R81" s="3" t="inlineStr"/>
       <c r="S81" s="3" t="inlineStr"/>
       <c r="T81" s="3" t="inlineStr"/>
       <c r="U81" s="3" t="inlineStr"/>
       <c r="V81" s="3" t="inlineStr"/>
       <c r="W81" s="3" t="inlineStr"/>
-      <c r="X81" s="3" t="inlineStr"/>
-      <c r="Y81" s="3" t="inlineStr"/>
+      <c r="X81" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-B (12H)</t>
+        </is>
+      </c>
+      <c r="Y81" s="3" t="inlineStr">
+        <is>
+          <t>S4-P4-B (4H)</t>
+        </is>
+      </c>
       <c r="Z81" s="3" t="inlineStr"/>
       <c r="AA81" s="3" t="inlineStr"/>
       <c r="AB81" s="3" t="inlineStr"/>
@@ -10341,7 +10445,7 @@
         <v>7</v>
       </c>
       <c r="AH81" s="3" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
